--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="22">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -228,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G332" activeCellId="0" sqref="G332"/>
+      <selection pane="topLeft" activeCell="F329" activeCellId="0" sqref="F329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3100,7 +3100,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="6" t="n">
+      <c r="A315" s="3" t="n">
         <v>43924</v>
       </c>
       <c r="B315" s="5" t="s">
@@ -3220,6 +3220,130 @@
         <v>21</v>
       </c>
       <c r="C328" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="6" t="n">
+        <v>43925</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C329" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D329" s="5" t="n">
+        <v>20798</v>
+      </c>
+      <c r="E329" s="5" t="n">
+        <v>3345</v>
+      </c>
+      <c r="F329" s="5" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C330" s="5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C331" s="5" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332" s="5" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="5" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="5" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" s="5" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C336" s="5" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337" s="5" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="5" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C339" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" s="5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341" s="5" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C342" s="5" t="n">
         <v>3</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="22">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -228,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F342"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F329" activeCellId="0" sqref="F329"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G362" activeCellId="0" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2760,7 +2760,7 @@
         <v>1993</v>
       </c>
       <c r="F275" s="0" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,7 +2868,7 @@
         <v>2310</v>
       </c>
       <c r="F287" s="0" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3224,7 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="6" t="n">
+      <c r="A329" s="3" t="n">
         <v>43925</v>
       </c>
       <c r="B329" s="5" t="s">
@@ -3345,6 +3345,254 @@
       </c>
       <c r="C342" s="5" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="3" t="n">
+        <v>43926</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="D343" s="5" t="n">
+        <v>23143</v>
+      </c>
+      <c r="E343" s="5" t="n">
+        <v>3706</v>
+      </c>
+      <c r="F343" s="5" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C344" s="5" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C345" s="5" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" s="5" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="5" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" s="5" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" s="5" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C350" s="5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351" s="5" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="5" t="n">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C353" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C354" s="5" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" s="5" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C356" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="6" t="n">
+        <v>43927</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C357" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="D357" s="5" t="n">
+        <v>24036</v>
+      </c>
+      <c r="E357" s="5" t="n">
+        <v>3961</v>
+      </c>
+      <c r="F357" s="5" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C358" s="5" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C359" s="5" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="5" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="5" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362" s="5" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363" s="5" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C364" s="5" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365" s="5" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" s="5" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C367" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368" s="5" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" s="5" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C370" s="5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="22">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -228,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F384"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G362" activeCellId="0" sqref="G362"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A350" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F371" activeCellId="0" sqref="F371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="6" t="n">
+      <c r="A357" s="3" t="n">
         <v>43927</v>
       </c>
       <c r="B357" s="5" t="s">
@@ -3592,6 +3592,130 @@
         <v>21</v>
       </c>
       <c r="C370" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="6" t="n">
+        <v>43928</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C371" s="5" t="n">
+        <v>296</v>
+      </c>
+      <c r="D371" s="5" t="n">
+        <v>25022</v>
+      </c>
+      <c r="E371" s="5" t="n">
+        <v>4229</v>
+      </c>
+      <c r="F371" s="5" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C372" s="5" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C373" s="5" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" s="5" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="5" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376" s="5" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" s="5" t="n">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C378" s="5" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379" s="5" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380" s="5" t="n">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C381" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C382" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" s="5" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C384" s="5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="22">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -228,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F384"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A350" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F371" activeCellId="0" sqref="F371"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F385" activeCellId="0" sqref="F385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6" t="n">
+      <c r="A371" s="3" t="n">
         <v>43928</v>
       </c>
       <c r="B371" s="5" t="s">
@@ -3718,6 +3718,156 @@
       <c r="C384" s="5" t="n">
         <v>4</v>
       </c>
+    </row>
+    <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="6" t="n">
+        <v>43929</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" s="5" t="n">
+        <v>312</v>
+      </c>
+      <c r="D385" s="5" t="n">
+        <v>26226</v>
+      </c>
+      <c r="E385" s="5" t="n">
+        <v>4565</v>
+      </c>
+      <c r="F385" s="5" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C386" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+    </row>
+    <row r="387" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C387" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C388" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" s="5" t="n">
+        <v>223</v>
+      </c>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+    </row>
+    <row r="391" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391" s="5" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C392" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C393" s="5" t="n">
+        <v>575</v>
+      </c>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C394" s="5" t="n">
+        <v>700</v>
+      </c>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C395" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" s="5" t="n">
+        <v>586</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C398" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="28">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -87,6 +88,24 @@
   <si>
     <t xml:space="preserve">Eileanan Siar (Western Isles)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Golden Jubilee National Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total confirmed cases to date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People in hospital at midnight (confirmed or suspected)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People in intensive care at midnight (confirmed or suspected)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +116,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,6 +156,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -182,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,6 +237,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -228,10 +258,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F398"/>
+  <dimension ref="A1:F428"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F385" activeCellId="0" sqref="F385"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A390" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F428" activeCellId="0" sqref="F428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3720,7 +3750,7 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6" t="n">
+      <c r="A385" s="3" t="n">
         <v>43929</v>
       </c>
       <c r="B385" s="5" t="s">
@@ -3789,7 +3819,7 @@
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="5" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3829,7 @@
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="5" t="s">
         <v>17</v>
       </c>
@@ -3809,7 +3839,7 @@
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="5" t="s">
         <v>13</v>
       </c>
@@ -3819,7 +3849,7 @@
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="5" t="s">
         <v>12</v>
       </c>
@@ -3829,7 +3859,7 @@
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
     </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="5" t="s">
         <v>20</v>
       </c>
@@ -3839,7 +3869,7 @@
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="5" t="s">
         <v>15</v>
       </c>
@@ -3849,7 +3879,7 @@
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="5" t="s">
         <v>6</v>
       </c>
@@ -3859,7 +3889,7 @@
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="46.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="5" t="s">
         <v>21</v>
       </c>
@@ -3868,6 +3898,326 @@
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
+    </row>
+    <row r="399" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="3" t="n">
+        <v>43930</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C399" s="5" t="n">
+        <v>362</v>
+      </c>
+      <c r="D399" s="5" t="n">
+        <v>27518</v>
+      </c>
+      <c r="E399" s="5" t="n">
+        <v>4957</v>
+      </c>
+      <c r="F399" s="5" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C400" s="5" t="n">
+        <v>167</v>
+      </c>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+    </row>
+    <row r="401" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C401" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C402" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" s="5" t="n">
+        <v>280</v>
+      </c>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C404" s="5" t="n">
+        <v>236</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+    </row>
+    <row r="405" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C405" s="5" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C406" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C407" s="5" t="n">
+        <v>607</v>
+      </c>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408" s="5" t="n">
+        <v>747</v>
+      </c>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C409" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" s="5" t="n">
+        <v>667</v>
+      </c>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+    </row>
+    <row r="412" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C412" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+    </row>
+    <row r="413" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C413" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+    </row>
+    <row r="414" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="6" t="n">
+        <v>43931</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C414" s="5" t="n">
+        <v>364</v>
+      </c>
+      <c r="D414" s="5" t="n">
+        <v>28652</v>
+      </c>
+      <c r="E414" s="5" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F414" s="5" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C415" s="5" t="n">
+        <v>177</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+    </row>
+    <row r="416" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C416" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417" s="5" t="n">
+        <v>333</v>
+      </c>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418" s="5" t="n">
+        <v>302</v>
+      </c>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C419" s="5" t="n">
+        <v>251</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+    </row>
+    <row r="420" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C420" s="5" t="n">
+        <v>1314</v>
+      </c>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C421" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C422" s="5" t="n">
+        <v>662</v>
+      </c>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C423" s="5" t="n">
+        <v>799</v>
+      </c>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C424" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C425" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" s="5" t="n">
+        <v>712</v>
+      </c>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+    </row>
+    <row r="427" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C427" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+    </row>
+    <row r="428" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C428" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3878,4 +4228,670 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>43929</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>312</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>223</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>555</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>575</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>249</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>700</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>275</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>586</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>43930</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>362</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>167</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>280</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>236</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>563</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>607</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>256</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>747</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>667</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>43931</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>364</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>177</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>333</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>302</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>251</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>1314</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>571</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>662</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>287</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>799</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>277</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>712</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="29">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -106,15 +106,17 @@
   <si>
     <t xml:space="preserve">*</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -208,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,10 +235,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,10 +256,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F428"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A390" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F428" activeCellId="0" sqref="F428"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A412" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F443" activeCellId="0" sqref="F443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3939,7 +3937,7 @@
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="5" t="s">
         <v>11</v>
       </c>
@@ -4060,7 +4058,7 @@
       <c r="E413" s="5"/>
     </row>
     <row r="414" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="6" t="n">
+      <c r="A414" s="3" t="n">
         <v>43931</v>
       </c>
       <c r="B414" s="5" t="s">
@@ -4218,6 +4216,166 @@
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
+    </row>
+    <row r="429" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="3" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C429" s="5" t="n">
+        <v>376</v>
+      </c>
+      <c r="D429" s="5" t="n">
+        <v>29903</v>
+      </c>
+      <c r="E429" s="5" t="n">
+        <v>5590</v>
+      </c>
+      <c r="F429" s="5" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C430" s="5" t="n">
+        <v>189</v>
+      </c>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+    </row>
+    <row r="431" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431" s="5" t="n">
+        <v>179</v>
+      </c>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" s="5" t="n">
+        <v>356</v>
+      </c>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C434" s="5" t="n">
+        <v>261</v>
+      </c>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+    </row>
+    <row r="435" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" s="5" t="n">
+        <v>1387</v>
+      </c>
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C436" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C437" s="5" t="n">
+        <v>707</v>
+      </c>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C438" s="5" t="n">
+        <v>856</v>
+      </c>
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C439" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D439" s="5"/>
+      <c r="E439" s="5"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C440" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441" s="5" t="n">
+        <v>753</v>
+      </c>
+      <c r="D441" s="5"/>
+      <c r="E441" s="5"/>
+    </row>
+    <row r="442" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C442" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+    </row>
+    <row r="443" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C443" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4235,10 +4393,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4247,16 +4405,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4673,7 +4831,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="3" t="n">
         <v>43931</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -4882,6 +5040,219 @@
         <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>376</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>189</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>179</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>356</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>261</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>1387</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>590</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>707</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>856</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>262</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>753</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>27</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="29">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -114,9 +114,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -210,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,6 +236,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F443"/>
+  <dimension ref="A1:F458"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A412" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F443" activeCellId="0" sqref="F443"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F444" activeCellId="0" sqref="F444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4376,6 +4381,166 @@
       </c>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
+    </row>
+    <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="6" t="n">
+        <v>43933</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C444" s="5" t="n">
+        <v>390</v>
+      </c>
+      <c r="D444" s="5" t="n">
+        <v>31114</v>
+      </c>
+      <c r="E444" s="5" t="n">
+        <v>5912</v>
+      </c>
+      <c r="F444" s="5" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C445" s="5" t="n">
+        <v>199</v>
+      </c>
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
+    </row>
+    <row r="446" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C446" s="5" t="n">
+        <v>186</v>
+      </c>
+      <c r="D446" s="5"/>
+      <c r="E446" s="5"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" s="5" t="n">
+        <v>379</v>
+      </c>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448" s="5" t="n">
+        <v>337</v>
+      </c>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449" s="5" t="n">
+        <v>291</v>
+      </c>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+    </row>
+    <row r="450" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B450" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C450" s="5" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B451" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C451" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B452" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C452" s="5" t="n">
+        <v>758</v>
+      </c>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B453" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C453" s="5" t="n">
+        <v>915</v>
+      </c>
+      <c r="D453" s="5"/>
+      <c r="E453" s="5"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C454" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D454" s="5"/>
+      <c r="E454" s="5"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B455" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C455" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B456" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" s="5" t="n">
+        <v>803</v>
+      </c>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+    </row>
+    <row r="457" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C457" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+    </row>
+    <row r="458" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B458" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C458" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D458" s="5"/>
+      <c r="E458" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4393,10 +4558,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4405,16 +4570,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5253,6 +5418,219 @@
         <v>7</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>43933</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>390</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>199</v>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>186</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>379</v>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>337</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>291</v>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>597</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>758</v>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>247</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>915</v>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>245</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>803</v>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>27</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="32">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">390**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">812**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
   </si>
 </sst>
 </file>
@@ -261,10 +270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F458"/>
+  <dimension ref="A1:F488"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F444" activeCellId="0" sqref="F444"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A457" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F474" activeCellId="0" sqref="F474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4383,7 +4392,7 @@
       <c r="E443" s="5"/>
     </row>
     <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="6" t="n">
+      <c r="A444" s="3" t="n">
         <v>43933</v>
       </c>
       <c r="B444" s="5" t="s">
@@ -4541,6 +4550,326 @@
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
+    </row>
+    <row r="459" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="3" t="n">
+        <v>43934</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C459" s="5" t="n">
+        <v>390</v>
+      </c>
+      <c r="D459" s="5" t="n">
+        <v>31813</v>
+      </c>
+      <c r="E459" s="5" t="n">
+        <v>6067</v>
+      </c>
+      <c r="F459" s="5" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B460" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C460" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+    </row>
+    <row r="461" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B461" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C461" s="5" t="n">
+        <v>192</v>
+      </c>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B462" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C462" s="5" t="n">
+        <v>383</v>
+      </c>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B464" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464" s="5" t="n">
+        <v>313</v>
+      </c>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+    </row>
+    <row r="465" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C465" s="5" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D465" s="5"/>
+      <c r="E465" s="5"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B466" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C466" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C467" s="5" t="n">
+        <v>784</v>
+      </c>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C468" s="5" t="n">
+        <v>932</v>
+      </c>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C469" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C470" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" s="5" t="n">
+        <v>812</v>
+      </c>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+    </row>
+    <row r="472" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C472" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+    </row>
+    <row r="473" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C473" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D473" s="5"/>
+      <c r="E473" s="5"/>
+    </row>
+    <row r="474" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="6" t="n">
+        <v>43935</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C474" s="5" t="n">
+        <v>416</v>
+      </c>
+      <c r="D474" s="5" t="n">
+        <v>32855</v>
+      </c>
+      <c r="E474" s="5" t="n">
+        <v>6358</v>
+      </c>
+      <c r="F474" s="5" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C475" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+    </row>
+    <row r="476" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C476" s="5" t="n">
+        <v>199</v>
+      </c>
+      <c r="D476" s="5"/>
+      <c r="E476" s="5"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C477" s="5" t="n">
+        <v>397</v>
+      </c>
+      <c r="D477" s="5"/>
+      <c r="E477" s="5"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478" s="5" t="n">
+        <v>367</v>
+      </c>
+      <c r="D478" s="5"/>
+      <c r="E478" s="5"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C479" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+    </row>
+    <row r="480" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C480" s="5" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C481" s="5" t="n">
+        <v>168</v>
+      </c>
+      <c r="D481" s="5"/>
+      <c r="E481" s="5"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C482" s="5" t="n">
+        <v>822</v>
+      </c>
+      <c r="D482" s="5"/>
+      <c r="E482" s="5"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C483" s="5" t="n">
+        <v>989</v>
+      </c>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C484" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D484" s="5"/>
+      <c r="E484" s="5"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C485" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C486" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
+    </row>
+    <row r="487" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C487" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D487" s="5"/>
+      <c r="E487" s="5"/>
+    </row>
+    <row r="488" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C488" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4558,10 +4887,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G100" activeCellId="0" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5422,7 +5751,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
+      <c r="A61" s="3" t="n">
         <v>43933</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -5632,6 +5961,432 @@
       </c>
       <c r="E75" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>43934</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>192</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>383</v>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>313</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>583</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>784</v>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>263</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>932</v>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>258</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
+        <v>43935</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>416</v>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>199</v>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>397</v>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>367</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>594</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>168</v>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>822</v>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>261</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>989</v>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>263</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D103" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E103" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="32">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -270,10 +270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F488"/>
+  <dimension ref="A1:F533"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A457" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F474" activeCellId="0" sqref="F474"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A394" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F398" activeCellId="0" sqref="F398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3901,7 +3901,7 @@
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" customFormat="false" ht="46.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="5" t="s">
         <v>21</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>22</v>
       </c>
       <c r="C413" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -4226,7 +4226,7 @@
         <v>22</v>
       </c>
       <c r="C428" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -4386,7 +4386,7 @@
         <v>22</v>
       </c>
       <c r="C443" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -4546,7 +4546,7 @@
         <v>22</v>
       </c>
       <c r="C458" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -4706,13 +4706,13 @@
         <v>22</v>
       </c>
       <c r="C473" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
     </row>
     <row r="474" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="6" t="n">
+      <c r="A474" s="3" t="n">
         <v>43935</v>
       </c>
       <c r="B474" s="5" t="s">
@@ -4866,10 +4866,490 @@
         <v>22</v>
       </c>
       <c r="C488" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
+    </row>
+    <row r="489" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="3" t="n">
+        <v>43936</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C489" s="5" t="n">
+        <v>457</v>
+      </c>
+      <c r="D489" s="5" t="n">
+        <v>34064</v>
+      </c>
+      <c r="E489" s="5" t="n">
+        <v>6748</v>
+      </c>
+      <c r="F489" s="5" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C490" s="5" t="n">
+        <v>215</v>
+      </c>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
+    </row>
+    <row r="491" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C491" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C492" s="5" t="n">
+        <v>424</v>
+      </c>
+      <c r="D492" s="5"/>
+      <c r="E492" s="5"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C493" s="5" t="n">
+        <v>380</v>
+      </c>
+      <c r="D493" s="5"/>
+      <c r="E493" s="5"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C494" s="5" t="n">
+        <v>357</v>
+      </c>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+    </row>
+    <row r="495" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495" s="5" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C496" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C497" s="5" t="n">
+        <v>873</v>
+      </c>
+      <c r="D497" s="5"/>
+      <c r="E497" s="5"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B498" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C498" s="5" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D498" s="5"/>
+      <c r="E498" s="5"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B499" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D499" s="5"/>
+      <c r="E499" s="5"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B500" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C500" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D500" s="5"/>
+      <c r="E500" s="5"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C501" s="5" t="n">
+        <v>898</v>
+      </c>
+      <c r="D501" s="5"/>
+      <c r="E501" s="5"/>
+    </row>
+    <row r="502" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B502" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C502" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D502" s="5"/>
+      <c r="E502" s="5"/>
+    </row>
+    <row r="503" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B503" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C503" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D503" s="5"/>
+      <c r="E503" s="5"/>
+    </row>
+    <row r="504" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="3" t="n">
+        <v>43937</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C504" s="5" t="n">
+        <v>503</v>
+      </c>
+      <c r="D504" s="5" t="n">
+        <v>35392</v>
+      </c>
+      <c r="E504" s="5" t="n">
+        <v>7102</v>
+      </c>
+      <c r="F504" s="5" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B505" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C505" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D505" s="5"/>
+      <c r="E505" s="5"/>
+    </row>
+    <row r="506" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B506" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C506" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="D506" s="5"/>
+      <c r="E506" s="5"/>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B507" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C507" s="5" t="n">
+        <v>446</v>
+      </c>
+      <c r="D507" s="5"/>
+      <c r="E507" s="5"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B508" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C508" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="D508" s="5"/>
+      <c r="E508" s="5"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B509" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C509" s="5" t="n">
+        <v>389</v>
+      </c>
+      <c r="D509" s="5"/>
+      <c r="E509" s="5"/>
+    </row>
+    <row r="510" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C510" s="5" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D510" s="5"/>
+      <c r="E510" s="5"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B511" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C511" s="5" t="n">
+        <v>184</v>
+      </c>
+      <c r="D511" s="5"/>
+      <c r="E511" s="5"/>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B512" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C512" s="5" t="n">
+        <v>911</v>
+      </c>
+      <c r="D512" s="5"/>
+      <c r="E512" s="5"/>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B513" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C513" s="5" t="n">
+        <v>1107</v>
+      </c>
+      <c r="D513" s="5"/>
+      <c r="E513" s="5"/>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B514" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C514" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D514" s="5"/>
+      <c r="E514" s="5"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C515" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D515" s="5"/>
+      <c r="E515" s="5"/>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B516" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C516" s="5" t="n">
+        <v>937</v>
+      </c>
+      <c r="D516" s="5"/>
+      <c r="E516" s="5"/>
+    </row>
+    <row r="517" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B517" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C517" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D517" s="5"/>
+      <c r="E517" s="5"/>
+    </row>
+    <row r="518" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B518" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C518" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D518" s="5"/>
+      <c r="E518" s="5"/>
+    </row>
+    <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="6" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C519" s="5" t="n">
+        <v>536</v>
+      </c>
+      <c r="D519" s="5" t="n">
+        <v>36637</v>
+      </c>
+      <c r="E519" s="5" t="n">
+        <v>7409</v>
+      </c>
+      <c r="F519" s="5" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C520" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="D520" s="5"/>
+      <c r="E520" s="5"/>
+    </row>
+    <row r="521" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B521" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="D521" s="5"/>
+      <c r="E521" s="5"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C522" s="5" t="n">
+        <v>488</v>
+      </c>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B523" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C523" s="5" t="n">
+        <v>431</v>
+      </c>
+      <c r="D523" s="5"/>
+      <c r="E523" s="5"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B524" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C524" s="5" t="n">
+        <v>394</v>
+      </c>
+      <c r="D524" s="5"/>
+      <c r="E524" s="5"/>
+    </row>
+    <row r="525" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B525" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525" s="5" t="n">
+        <v>1794</v>
+      </c>
+      <c r="D525" s="5"/>
+      <c r="E525" s="5"/>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B526" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C526" s="5" t="n">
+        <v>187</v>
+      </c>
+      <c r="D526" s="5"/>
+      <c r="E526" s="5"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B527" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C527" s="5" t="n">
+        <v>934</v>
+      </c>
+      <c r="D527" s="5"/>
+      <c r="E527" s="5"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B528" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528" s="5" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D528" s="5"/>
+      <c r="E528" s="5"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B529" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C529" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D529" s="5"/>
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B530" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C530" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D530" s="5"/>
+      <c r="E530" s="5"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B531" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C531" s="5" t="n">
+        <v>979</v>
+      </c>
+      <c r="D531" s="5"/>
+      <c r="E531" s="5"/>
+    </row>
+    <row r="532" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B532" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C532" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D532" s="5"/>
+      <c r="E532" s="5"/>
+    </row>
+    <row r="533" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C533" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D533" s="5"/>
+      <c r="E533" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4887,10 +5367,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G100" activeCellId="0" sqref="G100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6177,7 +6657,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="n">
+      <c r="A91" s="3" t="n">
         <v>43935</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -6386,6 +6866,645 @@
         <v>7</v>
       </c>
       <c r="E105" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="n">
+        <v>43936</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>457</v>
+      </c>
+      <c r="D106" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="E106" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>215</v>
+      </c>
+      <c r="D107" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="D108" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>424</v>
+      </c>
+      <c r="D109" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E109" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>380</v>
+      </c>
+      <c r="D110" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E110" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>357</v>
+      </c>
+      <c r="D111" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E111" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D112" s="5" t="n">
+        <v>598</v>
+      </c>
+      <c r="E112" s="5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="D113" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E113" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>873</v>
+      </c>
+      <c r="D114" s="5" t="n">
+        <v>225</v>
+      </c>
+      <c r="E114" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D115" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="E115" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <v>898</v>
+      </c>
+      <c r="D118" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E118" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="n">
+        <v>43937</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>503</v>
+      </c>
+      <c r="D121" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E121" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D122" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="E122" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="D123" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E123" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="5" t="n">
+        <v>446</v>
+      </c>
+      <c r="D124" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="E124" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="D125" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E125" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>389</v>
+      </c>
+      <c r="D126" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E126" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D127" s="5" t="n">
+        <v>606</v>
+      </c>
+      <c r="E127" s="5" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>184</v>
+      </c>
+      <c r="D128" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E128" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>911</v>
+      </c>
+      <c r="D129" s="5" t="n">
+        <v>203</v>
+      </c>
+      <c r="E129" s="5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>1107</v>
+      </c>
+      <c r="D130" s="5" t="n">
+        <v>284</v>
+      </c>
+      <c r="E130" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>937</v>
+      </c>
+      <c r="D133" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="E133" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>536</v>
+      </c>
+      <c r="D136" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="E136" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="D137" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E137" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="D138" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E138" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="5" t="n">
+        <v>488</v>
+      </c>
+      <c r="D139" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E139" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="5" t="n">
+        <v>431</v>
+      </c>
+      <c r="D140" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="E140" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>394</v>
+      </c>
+      <c r="D141" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="E141" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>1794</v>
+      </c>
+      <c r="D142" s="5" t="n">
+        <v>580</v>
+      </c>
+      <c r="E142" s="5" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>187</v>
+      </c>
+      <c r="D143" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E143" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>934</v>
+      </c>
+      <c r="D144" s="5" t="n">
+        <v>261</v>
+      </c>
+      <c r="E144" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D145" s="5" t="n">
+        <v>278</v>
+      </c>
+      <c r="E145" s="5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="5" t="n">
+        <v>979</v>
+      </c>
+      <c r="D148" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E148" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E150" s="5" t="s">
         <v>31</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="32">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -270,10 +270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F533"/>
+  <dimension ref="A1:F548"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A394" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F398" activeCellId="0" sqref="F398"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A523" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C544" activeCellId="0" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5192,7 +5192,7 @@
       <c r="E518" s="5"/>
     </row>
     <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="6" t="n">
+      <c r="A519" s="3" t="n">
         <v>43938</v>
       </c>
       <c r="B519" s="5" t="s">
@@ -5350,6 +5350,166 @@
       </c>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
+    </row>
+    <row r="534" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="6" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C534" s="5" t="n">
+        <v>560</v>
+      </c>
+      <c r="D534" s="5" t="n">
+        <v>38233</v>
+      </c>
+      <c r="E534" s="5" t="n">
+        <v>7820</v>
+      </c>
+      <c r="F534" s="5" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B535" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C535" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="D535" s="5"/>
+      <c r="E535" s="5"/>
+    </row>
+    <row r="536" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B536" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C536" s="5" t="n">
+        <v>222</v>
+      </c>
+      <c r="D536" s="5"/>
+      <c r="E536" s="5"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B537" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C537" s="5" t="n">
+        <v>514</v>
+      </c>
+      <c r="D537" s="5"/>
+      <c r="E537" s="5"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C538" s="5" t="n">
+        <v>451</v>
+      </c>
+      <c r="D538" s="5"/>
+      <c r="E538" s="5"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C539" s="5" t="n">
+        <v>432</v>
+      </c>
+      <c r="D539" s="5"/>
+      <c r="E539" s="5"/>
+    </row>
+    <row r="540" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B540" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540" s="5" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D540" s="5"/>
+      <c r="E540" s="5"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B541" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C541" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="D541" s="5"/>
+      <c r="E541" s="5"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B542" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C542" s="5" t="n">
+        <v>995</v>
+      </c>
+      <c r="D542" s="5"/>
+      <c r="E542" s="5"/>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B543" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C543" s="5" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D543" s="5"/>
+      <c r="E543" s="5"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B544" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C544" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B545" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C545" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D545" s="5"/>
+      <c r="E545" s="5"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B546" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C546" s="5" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D546" s="5"/>
+      <c r="E546" s="5"/>
+    </row>
+    <row r="547" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B547" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C547" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+    </row>
+    <row r="548" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B548" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C548" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D548" s="5"/>
+      <c r="E548" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5367,10 +5527,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G139" activeCellId="0" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7296,7 +7456,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="n">
+      <c r="A136" s="3" t="n">
         <v>43938</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -7505,6 +7665,219 @@
         <v>9</v>
       </c>
       <c r="E150" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="5" t="n">
+        <v>560</v>
+      </c>
+      <c r="D151" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="E151" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="D152" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E152" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>222</v>
+      </c>
+      <c r="D153" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E153" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>514</v>
+      </c>
+      <c r="D154" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="E154" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>451</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>432</v>
+      </c>
+      <c r="D156" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E156" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D157" s="5" t="n">
+        <v>593</v>
+      </c>
+      <c r="E157" s="5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="D158" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E158" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>995</v>
+      </c>
+      <c r="D159" s="5" t="n">
+        <v>252</v>
+      </c>
+      <c r="E159" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D160" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="E160" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D163" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="E163" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E165" s="5" t="s">
         <v>31</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -118,6 +118,9 @@
   <si>
     <t xml:space="preserve"> *</t>
   </si>
+  <si>
+    <t xml:space="preserve">231**</t>
+  </si>
 </sst>
 </file>
 
@@ -128,12 +131,11 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,41 +154,156 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -194,8 +311,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,17 +351,68 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,7 +420,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,19 +432,96 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -270,10 +530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F548"/>
+  <dimension ref="A1:F593"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A523" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C544" activeCellId="0" sqref="C544"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F579" activeCellId="0" sqref="F579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5352,7 +5612,7 @@
       <c r="E533" s="5"/>
     </row>
     <row r="534" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="6" t="n">
+      <c r="A534" s="3" t="n">
         <v>43939</v>
       </c>
       <c r="B534" s="5" t="s">
@@ -5510,6 +5770,486 @@
       </c>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
+    </row>
+    <row r="549" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="3" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C549" s="5" t="n">
+        <v>586</v>
+      </c>
+      <c r="D549" s="5" t="n">
+        <v>39612</v>
+      </c>
+      <c r="E549" s="5" t="n">
+        <v>8187</v>
+      </c>
+      <c r="F549" s="5" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B550" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C550" s="5" t="n">
+        <v>237</v>
+      </c>
+      <c r="D550" s="5"/>
+      <c r="E550" s="5"/>
+    </row>
+    <row r="551" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B551" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C551" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="D551" s="5"/>
+      <c r="E551" s="5"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B552" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C552" s="5" t="n">
+        <v>532</v>
+      </c>
+      <c r="D552" s="5"/>
+      <c r="E552" s="5"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B553" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C553" s="5" t="n">
+        <v>509</v>
+      </c>
+      <c r="D553" s="5"/>
+      <c r="E553" s="5"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B554" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C554" s="5" t="n">
+        <v>464</v>
+      </c>
+      <c r="D554" s="5"/>
+      <c r="E554" s="5"/>
+    </row>
+    <row r="555" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B555" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C555" s="5" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B556" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C556" s="5" t="n">
+        <v>197</v>
+      </c>
+      <c r="D556" s="5"/>
+      <c r="E556" s="5"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B557" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C557" s="5" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D557" s="5"/>
+      <c r="E557" s="5"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B558" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C558" s="5" t="n">
+        <v>1344</v>
+      </c>
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B559" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C559" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D559" s="5"/>
+      <c r="E559" s="5"/>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B560" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C560" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D560" s="5"/>
+      <c r="E560" s="5"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B561" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C561" s="5" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D561" s="5"/>
+      <c r="E561" s="5"/>
+    </row>
+    <row r="562" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B562" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C562" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D562" s="5"/>
+      <c r="E562" s="5"/>
+    </row>
+    <row r="563" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B563" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C563" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D563" s="5"/>
+      <c r="E563" s="5"/>
+    </row>
+    <row r="564" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="6" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C564" s="5" t="n">
+        <v>604</v>
+      </c>
+      <c r="D564" s="5" t="n">
+        <v>40700</v>
+      </c>
+      <c r="E564" s="5" t="n">
+        <v>8450</v>
+      </c>
+      <c r="F564" s="5" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C565" s="5" t="n">
+        <v>239</v>
+      </c>
+      <c r="D565" s="5"/>
+      <c r="E565" s="5"/>
+    </row>
+    <row r="566" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C566" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="D566" s="5"/>
+      <c r="E566" s="5"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B567" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C567" s="5" t="n">
+        <v>542</v>
+      </c>
+      <c r="D567" s="5"/>
+      <c r="E567" s="5"/>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B568" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C568" s="5" t="n">
+        <v>542</v>
+      </c>
+      <c r="D568" s="5"/>
+      <c r="E568" s="5"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B569" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C569" s="5" t="n">
+        <v>490</v>
+      </c>
+      <c r="D569" s="5"/>
+      <c r="E569" s="5"/>
+    </row>
+    <row r="570" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B570" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C570" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D570" s="5"/>
+      <c r="E570" s="5"/>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B571" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C571" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="D571" s="5"/>
+      <c r="E571" s="5"/>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B572" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C572" s="5" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D572" s="5"/>
+      <c r="E572" s="5"/>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B573" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C573" s="5" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D573" s="5"/>
+      <c r="E573" s="5"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B574" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C574" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D574" s="5"/>
+      <c r="E574" s="5"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B575" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C575" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D575" s="5"/>
+      <c r="E575" s="5"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B576" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C576" s="5" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D576" s="5"/>
+      <c r="E576" s="5"/>
+    </row>
+    <row r="577" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B577" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C577" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D577" s="5"/>
+      <c r="E577" s="5"/>
+    </row>
+    <row r="578" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B578" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C578" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D578" s="5"/>
+      <c r="E578" s="5"/>
+    </row>
+    <row r="579" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="6" t="n">
+        <v>43942</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C579" s="5" t="n">
+        <v>623</v>
+      </c>
+      <c r="D579" s="5" t="n">
+        <v>41699</v>
+      </c>
+      <c r="E579" s="5" t="n">
+        <v>8672</v>
+      </c>
+      <c r="F579" s="5" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B580" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C580" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="D580" s="5"/>
+      <c r="E580" s="5"/>
+    </row>
+    <row r="581" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B581" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C581" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="D581" s="5"/>
+      <c r="E581" s="5"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B582" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C582" s="5" t="n">
+        <v>561</v>
+      </c>
+      <c r="D582" s="5"/>
+      <c r="E582" s="5"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B583" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" s="5" t="n">
+        <v>562</v>
+      </c>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584" s="5" t="n">
+        <v>519</v>
+      </c>
+      <c r="D584" s="5"/>
+      <c r="E584" s="5"/>
+    </row>
+    <row r="585" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C585" s="5" t="n">
+        <v>2085</v>
+      </c>
+      <c r="D585" s="5"/>
+      <c r="E585" s="5"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B586" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C586" s="5" t="n">
+        <v>201</v>
+      </c>
+      <c r="D586" s="5"/>
+      <c r="E586" s="5"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C587" s="5" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D587" s="5"/>
+      <c r="E587" s="5"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B588" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C588" s="5" t="n">
+        <v>1426</v>
+      </c>
+      <c r="D588" s="5"/>
+      <c r="E588" s="5"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B589" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C589" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D589" s="5"/>
+      <c r="E589" s="5"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B590" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C590" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D590" s="5"/>
+      <c r="E590" s="5"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C591" s="5" t="n">
+        <v>1084</v>
+      </c>
+      <c r="D591" s="5"/>
+      <c r="E591" s="5"/>
+    </row>
+    <row r="592" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B592" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C592" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D592" s="5"/>
+      <c r="E592" s="5"/>
+    </row>
+    <row r="593" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B593" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C593" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D593" s="5"/>
+      <c r="E593" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5527,15 +6267,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G139" activeCellId="0" sqref="G139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C210" activeCellId="0" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,7 +8411,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="n">
+      <c r="A151" s="3" t="n">
         <v>43939</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -7878,6 +8620,645 @@
         <v>10</v>
       </c>
       <c r="E165" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>586</v>
+      </c>
+      <c r="D166" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="E166" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>237</v>
+      </c>
+      <c r="D167" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E167" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="D168" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E168" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>532</v>
+      </c>
+      <c r="D169" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="E169" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>509</v>
+      </c>
+      <c r="D170" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>464</v>
+      </c>
+      <c r="D171" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="E171" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D172" s="5" t="n">
+        <v>593</v>
+      </c>
+      <c r="E172" s="5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>197</v>
+      </c>
+      <c r="D173" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="E173" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D174" s="5" t="n">
+        <v>249</v>
+      </c>
+      <c r="E174" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>1344</v>
+      </c>
+      <c r="D175" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="E175" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>1056</v>
+      </c>
+      <c r="D178" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="E178" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>604</v>
+      </c>
+      <c r="D181" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="E181" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>239</v>
+      </c>
+      <c r="D182" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E182" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="D183" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E183" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>542</v>
+      </c>
+      <c r="D184" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="E184" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>542</v>
+      </c>
+      <c r="D185" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>490</v>
+      </c>
+      <c r="D186" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E186" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D187" s="5" t="n">
+        <v>603</v>
+      </c>
+      <c r="E187" s="5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="D188" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="E188" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D189" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="E189" s="5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D190" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="E190" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D193" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E193" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="6" t="n">
+        <v>43942</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>623</v>
+      </c>
+      <c r="D196" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="E196" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="D197" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="E197" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E198" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>561</v>
+      </c>
+      <c r="D199" s="5" t="n">
+        <v>138</v>
+      </c>
+      <c r="E199" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>562</v>
+      </c>
+      <c r="D200" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>519</v>
+      </c>
+      <c r="D201" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E201" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>2085</v>
+      </c>
+      <c r="D202" s="5" t="n">
+        <v>583</v>
+      </c>
+      <c r="E202" s="5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>201</v>
+      </c>
+      <c r="D203" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="E203" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D204" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="E204" s="5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>1426</v>
+      </c>
+      <c r="D205" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="E205" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D207" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>1084</v>
+      </c>
+      <c r="D208" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="E208" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E210" s="5" t="s">
         <v>31</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -131,11 +131,12 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,156 +155,41 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -311,23 +197,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -351,68 +222,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,7 +240,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,96 +252,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -530,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F593"/>
+  <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F579" activeCellId="0" sqref="F579"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A594" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C623" activeCellId="0" sqref="C623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5932,7 +5675,7 @@
       <c r="E563" s="5"/>
     </row>
     <row r="564" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="6" t="n">
+      <c r="A564" s="3" t="n">
         <v>43941</v>
       </c>
       <c r="B564" s="5" t="s">
@@ -6092,7 +5835,7 @@
       <c r="E578" s="5"/>
     </row>
     <row r="579" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="6" t="n">
+      <c r="A579" s="3" t="n">
         <v>43942</v>
       </c>
       <c r="B579" s="5" t="s">
@@ -6250,6 +5993,326 @@
       </c>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
+    </row>
+    <row r="594" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="6" t="n">
+        <v>43943</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C594" s="5" t="n">
+        <v>640</v>
+      </c>
+      <c r="D594" s="5" t="n">
+        <v>43309</v>
+      </c>
+      <c r="E594" s="5" t="n">
+        <v>9038</v>
+      </c>
+      <c r="F594" s="5" t="n">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B595" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C595" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="D595" s="5"/>
+      <c r="E595" s="5"/>
+    </row>
+    <row r="596" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B596" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C596" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D596" s="5"/>
+      <c r="E596" s="5"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B597" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C597" s="5" t="n">
+        <v>593</v>
+      </c>
+      <c r="D597" s="5"/>
+      <c r="E597" s="5"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B598" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C598" s="5" t="n">
+        <v>569</v>
+      </c>
+      <c r="D598" s="5"/>
+      <c r="E598" s="5"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B599" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C599" s="5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D599" s="5"/>
+      <c r="E599" s="5"/>
+    </row>
+    <row r="600" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B600" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C600" s="5" t="n">
+        <v>2174</v>
+      </c>
+      <c r="D600" s="5"/>
+      <c r="E600" s="5"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B601" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C601" s="5" t="n">
+        <v>211</v>
+      </c>
+      <c r="D601" s="5"/>
+      <c r="E601" s="5"/>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B602" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C602" s="5" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D602" s="5"/>
+      <c r="E602" s="5"/>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B603" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C603" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="D603" s="5"/>
+      <c r="E603" s="5"/>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B604" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C604" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D604" s="5"/>
+      <c r="E604" s="5"/>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B605" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C605" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D605" s="5"/>
+      <c r="E605" s="5"/>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B606" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C606" s="5" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D606" s="5"/>
+      <c r="E606" s="5"/>
+    </row>
+    <row r="607" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B607" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C607" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D607" s="5"/>
+      <c r="E607" s="5"/>
+    </row>
+    <row r="608" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B608" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C608" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D608" s="5"/>
+      <c r="E608" s="5"/>
+    </row>
+    <row r="609" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="6" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C609" s="5" t="n">
+        <v>653</v>
+      </c>
+      <c r="D609" s="5" t="n">
+        <v>44799</v>
+      </c>
+      <c r="E609" s="5" t="n">
+        <v>9409</v>
+      </c>
+      <c r="F609" s="5" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B610" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C610" s="5" t="n">
+        <v>248</v>
+      </c>
+      <c r="D610" s="5"/>
+      <c r="E610" s="5"/>
+    </row>
+    <row r="611" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B611" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C611" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D611" s="5"/>
+      <c r="E611" s="5"/>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B612" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C612" s="5" t="n">
+        <v>619</v>
+      </c>
+      <c r="D612" s="5"/>
+      <c r="E612" s="5"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B613" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C613" s="5" t="n">
+        <v>604</v>
+      </c>
+      <c r="D613" s="5"/>
+      <c r="E613" s="5"/>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B614" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C614" s="5" t="n">
+        <v>602</v>
+      </c>
+      <c r="D614" s="5"/>
+      <c r="E614" s="5"/>
+    </row>
+    <row r="615" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B615" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615" s="5" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D615" s="5"/>
+      <c r="E615" s="5"/>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B616" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C616" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="D616" s="5"/>
+      <c r="E616" s="5"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B617" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C617" s="5" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D617" s="5"/>
+      <c r="E617" s="5"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B618" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C618" s="5" t="n">
+        <v>1604</v>
+      </c>
+      <c r="D618" s="5"/>
+      <c r="E618" s="5"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B619" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C619" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D619" s="5"/>
+      <c r="E619" s="5"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B620" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C620" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D620" s="5"/>
+      <c r="E620" s="5"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B621" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C621" s="5" t="n">
+        <v>1159</v>
+      </c>
+      <c r="D621" s="5"/>
+      <c r="E621" s="5"/>
+    </row>
+    <row r="622" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B622" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C622" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D622" s="5"/>
+      <c r="E622" s="5"/>
+    </row>
+    <row r="623" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B623" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C623" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D623" s="5"/>
+      <c r="E623" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6267,16 +6330,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C210" activeCellId="0" sqref="C210"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A227" activeCellId="0" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -8837,7 +8900,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="n">
+      <c r="A181" s="3" t="n">
         <v>43941</v>
       </c>
       <c r="B181" s="5" t="s">
@@ -9050,7 +9113,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6" t="n">
+      <c r="A196" s="3" t="n">
         <v>43942</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -9259,6 +9322,432 @@
         <v>12</v>
       </c>
       <c r="E210" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="6" t="n">
+        <v>43943</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>640</v>
+      </c>
+      <c r="D211" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E211" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="D212" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E212" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D213" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>593</v>
+      </c>
+      <c r="D214" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="E214" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>569</v>
+      </c>
+      <c r="D215" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D216" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E216" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>2174</v>
+      </c>
+      <c r="D217" s="5" t="n">
+        <v>574</v>
+      </c>
+      <c r="E217" s="5" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <v>211</v>
+      </c>
+      <c r="D218" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="E218" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" s="5" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D219" s="5" t="n">
+        <v>247</v>
+      </c>
+      <c r="E219" s="5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="D220" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="E220" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D223" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E223" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="6" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="5" t="n">
+        <v>653</v>
+      </c>
+      <c r="D226" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="E226" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="5" t="n">
+        <v>248</v>
+      </c>
+      <c r="D227" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D228" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="5" t="n">
+        <v>619</v>
+      </c>
+      <c r="D229" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="E229" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <v>604</v>
+      </c>
+      <c r="D230" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="E230" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="5" t="n">
+        <v>602</v>
+      </c>
+      <c r="D231" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="E231" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D232" s="5" t="n">
+        <v>564</v>
+      </c>
+      <c r="E232" s="5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C233" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="D233" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" s="5" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D234" s="5" t="n">
+        <v>237</v>
+      </c>
+      <c r="E234" s="5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="5" t="n">
+        <v>1604</v>
+      </c>
+      <c r="D235" s="5" t="n">
+        <v>277</v>
+      </c>
+      <c r="E235" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>1159</v>
+      </c>
+      <c r="D238" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E238" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E240" s="5" t="s">
         <v>31</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -273,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F623"/>
+  <dimension ref="A1:F653"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A594" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C623" activeCellId="0" sqref="C623"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A624" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F639" activeCellId="0" sqref="F639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6313,6 +6313,326 @@
       </c>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
+    </row>
+    <row r="624" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="6" t="n">
+        <v>43945</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C624" s="5" t="n">
+        <v>678</v>
+      </c>
+      <c r="D624" s="5" t="n">
+        <v>46089</v>
+      </c>
+      <c r="E624" s="5" t="n">
+        <v>9697</v>
+      </c>
+      <c r="F624" s="5" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B625" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C625" s="5" t="n">
+        <v>253</v>
+      </c>
+      <c r="D625" s="5"/>
+      <c r="E625" s="5"/>
+    </row>
+    <row r="626" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B626" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C626" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D626" s="5"/>
+      <c r="E626" s="5"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B627" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C627" s="5" t="n">
+        <v>637</v>
+      </c>
+      <c r="D627" s="5"/>
+      <c r="E627" s="5"/>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B628" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C628" s="5" t="n">
+        <v>606</v>
+      </c>
+      <c r="D628" s="5"/>
+      <c r="E628" s="5"/>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B629" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C629" s="5" t="n">
+        <v>638</v>
+      </c>
+      <c r="D629" s="5"/>
+      <c r="E629" s="5"/>
+    </row>
+    <row r="630" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B630" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C630" s="5" t="n">
+        <v>2311</v>
+      </c>
+      <c r="D630" s="5"/>
+      <c r="E630" s="5"/>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B631" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C631" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="D631" s="5"/>
+      <c r="E631" s="5"/>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B632" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C632" s="5" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D632" s="5"/>
+      <c r="E632" s="5"/>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B633" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C633" s="5" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D633" s="5"/>
+      <c r="E633" s="5"/>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B634" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C634" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D634" s="5"/>
+      <c r="E634" s="5"/>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B635" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C635" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D635" s="5"/>
+      <c r="E635" s="5"/>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B636" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" s="5" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D636" s="5"/>
+      <c r="E636" s="5"/>
+    </row>
+    <row r="637" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B637" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C637" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D637" s="5"/>
+      <c r="E637" s="5"/>
+    </row>
+    <row r="638" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B638" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C638" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D638" s="5"/>
+      <c r="E638" s="5"/>
+    </row>
+    <row r="639" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="6" t="n">
+        <v>43946</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C639" s="5" t="n">
+        <v>692</v>
+      </c>
+      <c r="D639" s="5" t="n">
+        <v>47749</v>
+      </c>
+      <c r="E639" s="5" t="n">
+        <v>10051</v>
+      </c>
+      <c r="F639" s="5" t="n">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B640" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C640" s="5" t="n">
+        <v>258</v>
+      </c>
+      <c r="D640" s="5"/>
+      <c r="E640" s="5"/>
+    </row>
+    <row r="641" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B641" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C641" s="5" t="n">
+        <v>237</v>
+      </c>
+      <c r="D641" s="5"/>
+      <c r="E641" s="5"/>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B642" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C642" s="5" t="n">
+        <v>653</v>
+      </c>
+      <c r="D642" s="5"/>
+      <c r="E642" s="5"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B643" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C643" s="5" t="n">
+        <v>655</v>
+      </c>
+      <c r="D643" s="5"/>
+      <c r="E643" s="5"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B644" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644" s="5" t="n">
+        <v>700</v>
+      </c>
+      <c r="D644" s="5"/>
+      <c r="E644" s="5"/>
+    </row>
+    <row r="645" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B645" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C645" s="5" t="n">
+        <v>2428</v>
+      </c>
+      <c r="D645" s="5"/>
+      <c r="E645" s="5"/>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B646" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C646" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D646" s="5"/>
+      <c r="E646" s="5"/>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B647" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C647" s="5" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D647" s="5"/>
+      <c r="E647" s="5"/>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B648" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C648" s="5" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D648" s="5"/>
+      <c r="E648" s="5"/>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B649" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C649" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D649" s="5"/>
+      <c r="E649" s="5"/>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B650" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C650" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D650" s="5"/>
+      <c r="E650" s="5"/>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B651" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C651" s="5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D651" s="5"/>
+      <c r="E651" s="5"/>
+    </row>
+    <row r="652" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B652" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C652" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D652" s="5"/>
+      <c r="E652" s="5"/>
+    </row>
+    <row r="653" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B653" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C653" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D653" s="5"/>
+      <c r="E653" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6330,10 +6650,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A227" activeCellId="0" sqref="A227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A257" activeCellId="0" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9751,6 +10071,432 @@
         <v>31</v>
       </c>
     </row>
+    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="n">
+        <v>43945</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>678</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E241" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>253</v>
+      </c>
+      <c r="D242" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E242" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D243" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>637</v>
+      </c>
+      <c r="D244" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="E244" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>606</v>
+      </c>
+      <c r="D245" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>638</v>
+      </c>
+      <c r="D246" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E246" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>2311</v>
+      </c>
+      <c r="D247" s="5" t="n">
+        <v>561</v>
+      </c>
+      <c r="E247" s="5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="D248" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D249" s="5" t="n">
+        <v>236</v>
+      </c>
+      <c r="E249" s="5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D250" s="5" t="n">
+        <v>275</v>
+      </c>
+      <c r="E250" s="5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D253" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E253" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="6" t="n">
+        <v>43946</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>692</v>
+      </c>
+      <c r="D256" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="E256" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>258</v>
+      </c>
+      <c r="D257" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E257" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>237</v>
+      </c>
+      <c r="D258" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>653</v>
+      </c>
+      <c r="D259" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="E259" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>655</v>
+      </c>
+      <c r="D260" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E260" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>700</v>
+      </c>
+      <c r="D261" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="E261" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>2428</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>557</v>
+      </c>
+      <c r="E262" s="5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D263" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D264" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="E264" s="5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D265" s="5" t="n">
+        <v>287</v>
+      </c>
+      <c r="E265" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D268" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="E268" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -273,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F653"/>
+  <dimension ref="A1:F713"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A624" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F639" activeCellId="0" sqref="F639"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A688" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F699" activeCellId="0" sqref="F699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5995,7 +5995,7 @@
       <c r="E593" s="5"/>
     </row>
     <row r="594" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="6" t="n">
+      <c r="A594" s="3" t="n">
         <v>43943</v>
       </c>
       <c r="B594" s="5" t="s">
@@ -6155,7 +6155,7 @@
       <c r="E608" s="5"/>
     </row>
     <row r="609" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="6" t="n">
+      <c r="A609" s="3" t="n">
         <v>43944</v>
       </c>
       <c r="B609" s="5" t="s">
@@ -6315,7 +6315,7 @@
       <c r="E623" s="5"/>
     </row>
     <row r="624" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="6" t="n">
+      <c r="A624" s="3" t="n">
         <v>43945</v>
       </c>
       <c r="B624" s="5" t="s">
@@ -6475,7 +6475,7 @@
       <c r="E638" s="5"/>
     </row>
     <row r="639" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="6" t="n">
+      <c r="A639" s="3" t="n">
         <v>43946</v>
       </c>
       <c r="B639" s="5" t="s">
@@ -6612,7 +6612,6 @@
         <v>1224</v>
       </c>
       <c r="D651" s="5"/>
-      <c r="E651" s="5"/>
     </row>
     <row r="652" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B652" s="5" t="s">
@@ -6633,6 +6632,646 @@
       </c>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
+    </row>
+    <row r="654" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="3" t="n">
+        <v>43947</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C654" s="5" t="n">
+        <v>705</v>
+      </c>
+      <c r="D654" s="5" t="n">
+        <v>49157</v>
+      </c>
+      <c r="E654" s="5" t="n">
+        <v>10324</v>
+      </c>
+      <c r="F654" s="5" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B655" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C655" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="D655" s="5"/>
+      <c r="E655" s="5"/>
+    </row>
+    <row r="656" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B656" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C656" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="D656" s="5"/>
+      <c r="E656" s="5"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B657" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C657" s="5" t="n">
+        <v>672</v>
+      </c>
+      <c r="D657" s="5"/>
+      <c r="E657" s="5"/>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B658" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C658" s="5" t="n">
+        <v>662</v>
+      </c>
+      <c r="D658" s="5"/>
+      <c r="E658" s="5"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B659" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C659" s="5" t="n">
+        <v>748</v>
+      </c>
+      <c r="D659" s="5"/>
+      <c r="E659" s="5"/>
+    </row>
+    <row r="660" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B660" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C660" s="5" t="n">
+        <v>2479</v>
+      </c>
+      <c r="D660" s="5"/>
+      <c r="E660" s="5"/>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B661" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C661" s="5" t="n">
+        <v>225</v>
+      </c>
+      <c r="D661" s="5"/>
+      <c r="E661" s="5"/>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B662" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C662" s="5" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D662" s="5"/>
+      <c r="E662" s="5"/>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B663" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C663" s="5" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D663" s="5"/>
+      <c r="E663" s="5"/>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B664" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C664" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D664" s="5"/>
+      <c r="E664" s="5"/>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B665" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C665" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D665" s="5"/>
+      <c r="E665" s="5"/>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B666" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C666" s="5" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D666" s="5"/>
+      <c r="E666" s="5"/>
+    </row>
+    <row r="667" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B667" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C667" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D667" s="5"/>
+      <c r="E667" s="5"/>
+    </row>
+    <row r="668" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B668" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C668" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D668" s="5"/>
+      <c r="E668" s="5"/>
+    </row>
+    <row r="669" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="3" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C669" s="5" t="n">
+        <v>721</v>
+      </c>
+      <c r="D669" s="5" t="n">
+        <v>50294</v>
+      </c>
+      <c r="E669" s="5" t="n">
+        <v>10521</v>
+      </c>
+      <c r="F669" s="5" t="n">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B670" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C670" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="D670" s="5"/>
+      <c r="E670" s="5"/>
+    </row>
+    <row r="671" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B671" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C671" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="D671" s="5"/>
+      <c r="E671" s="5"/>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B672" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" s="5" t="n">
+        <v>681</v>
+      </c>
+      <c r="D672" s="5"/>
+      <c r="E672" s="5"/>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B673" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C673" s="5" t="n">
+        <v>680</v>
+      </c>
+      <c r="D673" s="5"/>
+      <c r="E673" s="5"/>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B674" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C674" s="5" t="n">
+        <v>771</v>
+      </c>
+      <c r="D674" s="5"/>
+      <c r="E674" s="5"/>
+    </row>
+    <row r="675" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C675" s="5" t="n">
+        <v>2531</v>
+      </c>
+      <c r="D675" s="5"/>
+      <c r="E675" s="5"/>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B676" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C676" s="5" t="n">
+        <v>228</v>
+      </c>
+      <c r="D676" s="5"/>
+      <c r="E676" s="5"/>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B677" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C677" s="5" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D677" s="5"/>
+      <c r="E677" s="5"/>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B678" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C678" s="5" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D678" s="5"/>
+      <c r="E678" s="5"/>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B679" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C679" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D679" s="5"/>
+      <c r="E679" s="5"/>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B680" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C680" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D680" s="5"/>
+      <c r="E680" s="5"/>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B681" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C681" s="5" t="n">
+        <v>1261</v>
+      </c>
+      <c r="D681" s="5"/>
+      <c r="E681" s="5"/>
+    </row>
+    <row r="682" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B682" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C682" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D682" s="5"/>
+      <c r="E682" s="5"/>
+    </row>
+    <row r="683" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B683" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C683" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D683" s="5"/>
+      <c r="E683" s="5"/>
+    </row>
+    <row r="684" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="6" t="n">
+        <v>43949</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C684" s="5" t="n">
+        <v>738</v>
+      </c>
+      <c r="D684" s="5" t="n">
+        <v>51499</v>
+      </c>
+      <c r="E684" s="5" t="n">
+        <v>10721</v>
+      </c>
+      <c r="F684" s="5" t="n">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B685" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C685" s="5" t="n">
+        <v>272</v>
+      </c>
+      <c r="D685" s="5"/>
+      <c r="E685" s="5"/>
+    </row>
+    <row r="686" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B686" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C686" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="D686" s="5"/>
+      <c r="E686" s="5"/>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B687" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" s="5" t="n">
+        <v>692</v>
+      </c>
+      <c r="D687" s="5"/>
+      <c r="E687" s="5"/>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B688" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C688" s="5" t="n">
+        <v>689</v>
+      </c>
+      <c r="D688" s="5"/>
+      <c r="E688" s="5"/>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B689" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C689" s="5" t="n">
+        <v>782</v>
+      </c>
+      <c r="D689" s="5"/>
+      <c r="E689" s="5"/>
+    </row>
+    <row r="690" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B690" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C690" s="5" t="n">
+        <v>2604</v>
+      </c>
+      <c r="D690" s="5"/>
+      <c r="E690" s="5"/>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B691" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C691" s="5" t="n">
+        <v>232</v>
+      </c>
+      <c r="D691" s="5"/>
+      <c r="E691" s="5"/>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B692" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C692" s="5" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D692" s="5"/>
+      <c r="E692" s="5"/>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C693" s="5" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D693" s="5"/>
+      <c r="E693" s="5"/>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B694" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C694" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D694" s="5"/>
+      <c r="E694" s="5"/>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B695" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C695" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D695" s="5"/>
+      <c r="E695" s="5"/>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B696" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C696" s="5" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D696" s="5"/>
+      <c r="E696" s="5"/>
+    </row>
+    <row r="697" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B697" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C697" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D697" s="5"/>
+      <c r="E697" s="5"/>
+    </row>
+    <row r="698" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B698" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C698" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D698" s="5"/>
+      <c r="E698" s="5"/>
+    </row>
+    <row r="699" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="6" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B699" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C699" s="5" t="n">
+        <v>745</v>
+      </c>
+      <c r="D699" s="5" t="n">
+        <v>53082</v>
+      </c>
+      <c r="E699" s="5" t="n">
+        <v>11034</v>
+      </c>
+      <c r="F699" s="5" t="n">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B700" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C700" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="D700" s="5"/>
+      <c r="E700" s="5"/>
+    </row>
+    <row r="701" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B701" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C701" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="D701" s="5"/>
+      <c r="E701" s="5"/>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B702" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C702" s="5" t="n">
+        <v>712</v>
+      </c>
+      <c r="D702" s="5"/>
+      <c r="E702" s="5"/>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B703" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C703" s="5" t="n">
+        <v>717</v>
+      </c>
+      <c r="D703" s="5"/>
+      <c r="E703" s="5"/>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B704" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704" s="5" t="n">
+        <v>813</v>
+      </c>
+      <c r="D704" s="5"/>
+      <c r="E704" s="5"/>
+    </row>
+    <row r="705" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B705" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C705" s="5" t="n">
+        <v>2672</v>
+      </c>
+      <c r="D705" s="5"/>
+      <c r="E705" s="5"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B706" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C706" s="5" t="n">
+        <v>236</v>
+      </c>
+      <c r="D706" s="5"/>
+      <c r="E706" s="5"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B707" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C707" s="5" t="n">
+        <v>1329</v>
+      </c>
+      <c r="D707" s="5"/>
+      <c r="E707" s="5"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B708" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C708" s="5" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D708" s="5"/>
+      <c r="E708" s="5"/>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B709" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C709" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D709" s="5"/>
+      <c r="E709" s="5"/>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B710" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C710" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D710" s="5"/>
+      <c r="E710" s="5"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B711" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C711" s="5" t="n">
+        <v>1313</v>
+      </c>
+      <c r="D711" s="5"/>
+      <c r="E711" s="5"/>
+    </row>
+    <row r="712" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B712" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C712" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D712" s="5"/>
+      <c r="E712" s="5"/>
+    </row>
+    <row r="713" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B713" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C713" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D713" s="5"/>
+      <c r="E713" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6650,10 +7289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A257" activeCellId="0" sqref="A257"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A317" activeCellId="0" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9646,7 +10285,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="6" t="n">
+      <c r="A211" s="3" t="n">
         <v>43943</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -9859,7 +10498,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6" t="n">
+      <c r="A226" s="3" t="n">
         <v>43944</v>
       </c>
       <c r="B226" s="5" t="s">
@@ -10072,7 +10711,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6" t="n">
+      <c r="A241" s="3" t="n">
         <v>43945</v>
       </c>
       <c r="B241" s="5" t="s">
@@ -10285,7 +10924,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6" t="n">
+      <c r="A256" s="3" t="n">
         <v>43946</v>
       </c>
       <c r="B256" s="5" t="s">
@@ -10494,6 +11133,858 @@
         <v>27</v>
       </c>
       <c r="E270" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3" t="n">
+        <v>43947</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>705</v>
+      </c>
+      <c r="D271" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E271" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="D273" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>672</v>
+      </c>
+      <c r="D274" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="E274" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>662</v>
+      </c>
+      <c r="D275" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E275" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>748</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E276" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>2479</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>557</v>
+      </c>
+      <c r="E277" s="5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>225</v>
+      </c>
+      <c r="D278" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>241</v>
+      </c>
+      <c r="E279" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D280" s="5" t="n">
+        <v>301</v>
+      </c>
+      <c r="E280" s="5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D283" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="3" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>721</v>
+      </c>
+      <c r="D286" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="E286" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="D287" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="D288" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>681</v>
+      </c>
+      <c r="D289" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="E289" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>680</v>
+      </c>
+      <c r="D290" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="E290" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>771</v>
+      </c>
+      <c r="D291" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E291" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="5" t="n">
+        <v>2531</v>
+      </c>
+      <c r="D292" s="5" t="n">
+        <v>557</v>
+      </c>
+      <c r="E292" s="5" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="5" t="n">
+        <v>228</v>
+      </c>
+      <c r="D293" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" s="5" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D294" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="E294" s="5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="5" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D295" s="5" t="n">
+        <v>301</v>
+      </c>
+      <c r="E295" s="5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" s="5" t="n">
+        <v>1261</v>
+      </c>
+      <c r="D298" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C299" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="6" t="n">
+        <v>43949</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301" s="5" t="n">
+        <v>738</v>
+      </c>
+      <c r="D301" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="E301" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="5" t="n">
+        <v>272</v>
+      </c>
+      <c r="D302" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="D303" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" s="5" t="n">
+        <v>692</v>
+      </c>
+      <c r="D304" s="5" t="n">
+        <v>146</v>
+      </c>
+      <c r="E304" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="5" t="n">
+        <v>689</v>
+      </c>
+      <c r="D305" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="E305" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="5" t="n">
+        <v>782</v>
+      </c>
+      <c r="D306" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E306" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="5" t="n">
+        <v>2604</v>
+      </c>
+      <c r="D307" s="5" t="n">
+        <v>542</v>
+      </c>
+      <c r="E307" s="5" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308" s="5" t="n">
+        <v>232</v>
+      </c>
+      <c r="D308" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E308" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" s="5" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D309" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="E309" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="5" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D310" s="5" t="n">
+        <v>263</v>
+      </c>
+      <c r="E310" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C311" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C312" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="5" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D313" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C314" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="6" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="5" t="n">
+        <v>745</v>
+      </c>
+      <c r="D316" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E316" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C317" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="D317" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C318" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="D318" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319" s="5" t="n">
+        <v>712</v>
+      </c>
+      <c r="D319" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="E319" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B320" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="5" t="n">
+        <v>717</v>
+      </c>
+      <c r="D320" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="E320" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B321" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="5" t="n">
+        <v>813</v>
+      </c>
+      <c r="D321" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="E321" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" s="5" t="n">
+        <v>2672</v>
+      </c>
+      <c r="D322" s="5" t="n">
+        <v>555</v>
+      </c>
+      <c r="E322" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C323" s="5" t="n">
+        <v>236</v>
+      </c>
+      <c r="D323" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="5" t="n">
+        <v>1329</v>
+      </c>
+      <c r="D324" s="5" t="n">
+        <v>253</v>
+      </c>
+      <c r="E324" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="5" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D325" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="E325" s="5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C326" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" s="5" t="n">
+        <v>1313</v>
+      </c>
+      <c r="D328" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C329" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E330" s="5" t="s">
         <v>27</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -273,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F713"/>
+  <dimension ref="A1:F728"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A688" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F699" activeCellId="0" sqref="F699"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A706" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F714" activeCellId="0" sqref="F714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7272,6 +7272,166 @@
       </c>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
+    </row>
+    <row r="714" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="6" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C714" s="5" t="n">
+        <v>762</v>
+      </c>
+      <c r="D714" s="5" t="n">
+        <v>54639</v>
+      </c>
+      <c r="E714" s="5" t="n">
+        <v>11353</v>
+      </c>
+      <c r="F714" s="5" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B715" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C715" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="D715" s="5"/>
+      <c r="E715" s="5"/>
+    </row>
+    <row r="716" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B716" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C716" s="5" t="n">
+        <v>246</v>
+      </c>
+      <c r="D716" s="5"/>
+      <c r="E716" s="5"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B717" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C717" s="5" t="n">
+        <v>737</v>
+      </c>
+      <c r="D717" s="5"/>
+      <c r="E717" s="5"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B718" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C718" s="5" t="n">
+        <v>724</v>
+      </c>
+      <c r="D718" s="5"/>
+      <c r="E718" s="5"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B719" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C719" s="5" t="n">
+        <v>834</v>
+      </c>
+      <c r="D719" s="5"/>
+      <c r="E719" s="5"/>
+    </row>
+    <row r="720" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B720" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C720" s="5" t="n">
+        <v>2759</v>
+      </c>
+      <c r="D720" s="5"/>
+      <c r="E720" s="5"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B721" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C721" s="5" t="n">
+        <v>242</v>
+      </c>
+      <c r="D721" s="5"/>
+      <c r="E721" s="5"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B722" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C722" s="5" t="n">
+        <v>1374</v>
+      </c>
+      <c r="D722" s="5"/>
+      <c r="E722" s="5"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B723" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C723" s="5" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D723" s="5"/>
+      <c r="E723" s="5"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B724" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C724" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D724" s="5"/>
+      <c r="E724" s="5"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B725" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C725" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D725" s="5"/>
+      <c r="E725" s="5"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B726" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C726" s="5" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D726" s="5"/>
+      <c r="E726" s="5"/>
+    </row>
+    <row r="727" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B727" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C727" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D727" s="5"/>
+      <c r="E727" s="5"/>
+    </row>
+    <row r="728" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B728" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C728" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D728" s="5"/>
+      <c r="E728" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7289,10 +7449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A317" activeCellId="0" sqref="A317"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A310" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A332" activeCellId="0" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11988,6 +12148,219 @@
         <v>27</v>
       </c>
     </row>
+    <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="6" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C331" s="5" t="n">
+        <v>762</v>
+      </c>
+      <c r="D331" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E331" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C332" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="D332" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C333" s="5" t="n">
+        <v>246</v>
+      </c>
+      <c r="D333" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" s="5" t="n">
+        <v>737</v>
+      </c>
+      <c r="D334" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="E334" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="5" t="n">
+        <v>724</v>
+      </c>
+      <c r="D335" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E335" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" s="5" t="n">
+        <v>834</v>
+      </c>
+      <c r="D336" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="E336" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" s="5" t="n">
+        <v>2759</v>
+      </c>
+      <c r="D337" s="5" t="n">
+        <v>548</v>
+      </c>
+      <c r="E337" s="5" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C338" s="5" t="n">
+        <v>242</v>
+      </c>
+      <c r="D338" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" s="5" t="n">
+        <v>1374</v>
+      </c>
+      <c r="D339" s="5" t="n">
+        <v>263</v>
+      </c>
+      <c r="E339" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340" s="5" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D340" s="5" t="n">
+        <v>280</v>
+      </c>
+      <c r="E340" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C341" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" s="5" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D343" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C344" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -92,16 +92,19 @@
     <t xml:space="preserve">Golden Jubilee National Hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health board</t>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">Total confirmed cases to date</t>
+    <t xml:space="preserve">health_board</t>
   </si>
   <si>
-    <t xml:space="preserve">People in hospital at midnight (confirmed or suspected)</t>
+    <t xml:space="preserve">num_cases</t>
   </si>
   <si>
-    <t xml:space="preserve">People in intensive care at midnight (confirmed or suspected)</t>
+    <t xml:space="preserve">num_hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_icu</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -114,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">812**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *</t>
   </si>
   <si>
     <t xml:space="preserve">231**</t>
@@ -273,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F728"/>
+  <dimension ref="A1:F758"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A706" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F714" activeCellId="0" sqref="F714"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A747" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C771" activeCellId="0" sqref="C771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6954,7 +6954,7 @@
       <c r="E683" s="5"/>
     </row>
     <row r="684" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="6" t="n">
+      <c r="A684" s="3" t="n">
         <v>43949</v>
       </c>
       <c r="B684" s="5" t="s">
@@ -7114,7 +7114,7 @@
       <c r="E698" s="5"/>
     </row>
     <row r="699" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="6" t="n">
+      <c r="A699" s="3" t="n">
         <v>43950</v>
       </c>
       <c r="B699" s="5" t="s">
@@ -7274,7 +7274,7 @@
       <c r="E713" s="5"/>
     </row>
     <row r="714" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="6" t="n">
+      <c r="A714" s="3" t="n">
         <v>43951</v>
       </c>
       <c r="B714" s="5" t="s">
@@ -7432,6 +7432,326 @@
       </c>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
+    </row>
+    <row r="729" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="6" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B729" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C729" s="5" t="n">
+        <v>778</v>
+      </c>
+      <c r="D729" s="5" t="n">
+        <v>56702</v>
+      </c>
+      <c r="E729" s="5" t="n">
+        <v>11654</v>
+      </c>
+      <c r="F729" s="5" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B730" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C730" s="5" t="n">
+        <v>281</v>
+      </c>
+      <c r="D730" s="5"/>
+      <c r="E730" s="5"/>
+    </row>
+    <row r="731" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B731" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C731" s="5" t="n">
+        <v>249</v>
+      </c>
+      <c r="D731" s="5"/>
+      <c r="E731" s="5"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B732" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C732" s="5" t="n">
+        <v>750</v>
+      </c>
+      <c r="D732" s="5"/>
+      <c r="E732" s="5"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B733" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C733" s="5" t="n">
+        <v>747</v>
+      </c>
+      <c r="D733" s="5"/>
+      <c r="E733" s="5"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B734" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C734" s="5" t="n">
+        <v>866</v>
+      </c>
+      <c r="D734" s="5"/>
+      <c r="E734" s="5"/>
+    </row>
+    <row r="735" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B735" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C735" s="5" t="n">
+        <v>2864</v>
+      </c>
+      <c r="D735" s="5"/>
+      <c r="E735" s="5"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B736" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C736" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="D736" s="5"/>
+      <c r="E736" s="5"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B737" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C737" s="5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D737" s="5"/>
+      <c r="E737" s="5"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B738" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C738" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D738" s="5"/>
+      <c r="E738" s="5"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B739" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C739" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D739" s="5"/>
+      <c r="E739" s="5"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B740" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C740" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D740" s="5"/>
+      <c r="E740" s="5"/>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B741" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C741" s="5" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D741" s="5"/>
+      <c r="E741" s="5"/>
+    </row>
+    <row r="742" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B742" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C742" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D742" s="5"/>
+      <c r="E742" s="5"/>
+    </row>
+    <row r="743" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B743" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C743" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D743" s="5"/>
+      <c r="E743" s="5"/>
+    </row>
+    <row r="744" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="6" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B744" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C744" s="5" t="n">
+        <v>793</v>
+      </c>
+      <c r="D744" s="5" t="n">
+        <v>58833</v>
+      </c>
+      <c r="E744" s="5" t="n">
+        <v>11927</v>
+      </c>
+      <c r="F744" s="5" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B745" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C745" s="5" t="n">
+        <v>283</v>
+      </c>
+      <c r="D745" s="5"/>
+      <c r="E745" s="5"/>
+    </row>
+    <row r="746" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B746" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C746" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="D746" s="5"/>
+      <c r="E746" s="5"/>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C747" s="5" t="n">
+        <v>768</v>
+      </c>
+      <c r="D747" s="5"/>
+      <c r="E747" s="5"/>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B748" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C748" s="5" t="n">
+        <v>757</v>
+      </c>
+      <c r="D748" s="5"/>
+      <c r="E748" s="5"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B749" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C749" s="5" t="n">
+        <v>889</v>
+      </c>
+      <c r="D749" s="5"/>
+      <c r="E749" s="5"/>
+    </row>
+    <row r="750" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C750" s="5" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D750" s="5"/>
+      <c r="E750" s="5"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B751" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C751" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="D751" s="5"/>
+      <c r="E751" s="5"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B752" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C752" s="5" t="n">
+        <v>1436</v>
+      </c>
+      <c r="D752" s="5"/>
+      <c r="E752" s="5"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B753" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C753" s="5" t="n">
+        <v>2065</v>
+      </c>
+      <c r="D753" s="5"/>
+      <c r="E753" s="5"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B754" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C754" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D754" s="5"/>
+      <c r="E754" s="5"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B755" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C755" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D755" s="5"/>
+      <c r="E755" s="5"/>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B756" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C756" s="5" t="n">
+        <v>1392</v>
+      </c>
+      <c r="D756" s="5"/>
+      <c r="E756" s="5"/>
+    </row>
+    <row r="757" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B757" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C757" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D757" s="5"/>
+      <c r="E757" s="5"/>
+    </row>
+    <row r="758" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B758" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C758" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D758" s="5"/>
+      <c r="E758" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7449,10 +7769,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E345"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A310" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A332" activeCellId="0" sqref="A332"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A356" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G353" activeCellId="0" sqref="G353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7462,18 +7782,21 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7624,13 +7947,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,10 +7964,10 @@
         <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7666,13 +7989,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7826,10 +8149,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7840,10 +8163,10 @@
         <v>43</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,10 +8191,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,10 +8205,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8036,13 +8359,13 @@
         <v>20</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,10 +8376,10 @@
         <v>43</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8081,10 +8404,10 @@
         <v>6</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8098,7 +8421,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,10 +8575,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8266,10 +8589,10 @@
         <v>43</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8294,10 +8617,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8305,13 +8628,13 @@
         <v>22</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8465,10 +8788,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,10 +8802,10 @@
         <v>43</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,10 +8830,10 @@
         <v>6</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,13 +8841,13 @@
         <v>22</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8535,7 +8858,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>102</v>
@@ -8678,10 +9001,10 @@
         <v>5</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8692,10 +9015,10 @@
         <v>45</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8703,7 +9026,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>115</v>
@@ -8720,10 +9043,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,7 +9054,7 @@
         <v>22</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>5</v>
@@ -8891,10 +9214,10 @@
         <v>5</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8905,10 +9228,10 @@
         <v>45</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8933,10 +9256,10 @@
         <v>6</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8944,13 +9267,13 @@
         <v>22</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9104,10 +9427,10 @@
         <v>5</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9118,10 +9441,10 @@
         <v>45</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9146,10 +9469,10 @@
         <v>6</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,13 +9480,13 @@
         <v>22</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9317,10 +9640,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,10 +9654,10 @@
         <v>45</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9359,10 +9682,10 @@
         <v>6</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9370,13 +9693,13 @@
         <v>22</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9530,10 +9853,10 @@
         <v>5</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9544,10 +9867,10 @@
         <v>45</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9572,10 +9895,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9583,13 +9906,13 @@
         <v>22</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>9</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9662,7 +9985,7 @@
         <v>77</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9743,10 +10066,10 @@
         <v>5</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9757,10 +10080,10 @@
         <v>45</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9785,10 +10108,10 @@
         <v>6</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9796,13 +10119,13 @@
         <v>22</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>10</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9875,7 +10198,7 @@
         <v>78</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9956,10 +10279,10 @@
         <v>5</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9970,10 +10293,10 @@
         <v>51</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9998,10 +10321,10 @@
         <v>6</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10009,13 +10332,13 @@
         <v>22</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>10</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,7 +10411,7 @@
         <v>89</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,10 +10492,10 @@
         <v>6</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10183,10 +10506,10 @@
         <v>51</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10211,10 +10534,10 @@
         <v>6</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10222,13 +10545,13 @@
         <v>22</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>10</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,7 +10624,7 @@
         <v>91</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10382,10 +10705,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,7 +10722,7 @@
         <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,24 +10747,24 @@
         <v>6</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>12</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10486,7 +10809,7 @@
         <v>29</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10514,7 +10837,7 @@
         <v>84</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10595,10 +10918,10 @@
         <v>6</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10609,10 +10932,10 @@
         <v>54</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,10 +10960,10 @@
         <v>6</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10648,13 +10971,13 @@
         <v>22</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>12</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10685,7 +11008,7 @@
         <v>40</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10699,7 +11022,7 @@
         <v>36</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10769,7 +11092,7 @@
         <v>56</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10808,10 +11131,10 @@
         <v>6</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10822,10 +11145,10 @@
         <v>54</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10850,10 +11173,10 @@
         <v>6</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10861,13 +11184,13 @@
         <v>22</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D240" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10912,7 +11235,7 @@
         <v>28</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10940,7 +11263,7 @@
         <v>83</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10982,7 +11305,7 @@
         <v>55</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11021,10 +11344,10 @@
         <v>6</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,10 +11358,10 @@
         <v>54</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11063,10 +11386,10 @@
         <v>6</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11074,13 +11397,13 @@
         <v>22</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D255" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11125,7 +11448,7 @@
         <v>24</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11195,7 +11518,7 @@
         <v>52</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11234,10 +11557,10 @@
         <v>7</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11248,10 +11571,10 @@
         <v>54</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11276,10 +11599,10 @@
         <v>6</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11287,13 +11610,13 @@
         <v>22</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11324,7 +11647,7 @@
         <v>49</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11338,7 +11661,7 @@
         <v>22</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11408,7 +11731,7 @@
         <v>50</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11447,10 +11770,10 @@
         <v>7</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,10 +11784,10 @@
         <v>54</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11478,7 +11801,7 @@
         <v>91</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11489,10 +11812,10 @@
         <v>6</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11500,13 +11823,13 @@
         <v>22</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11537,7 +11860,7 @@
         <v>40</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11551,7 +11874,7 @@
         <v>28</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11621,7 +11944,7 @@
         <v>48</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11660,10 +11983,10 @@
         <v>7</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11674,10 +11997,10 @@
         <v>54</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11691,7 +12014,7 @@
         <v>95</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11702,10 +12025,10 @@
         <v>6</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11713,17 +12036,17 @@
         <v>22</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6" t="n">
+      <c r="A301" s="3" t="n">
         <v>43949</v>
       </c>
       <c r="B301" s="5" t="s">
@@ -11750,7 +12073,7 @@
         <v>49</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11764,7 +12087,7 @@
         <v>25</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11873,10 +12196,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11887,10 +12210,10 @@
         <v>54</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11904,7 +12227,7 @@
         <v>88</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11915,10 +12238,10 @@
         <v>6</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11926,17 +12249,17 @@
         <v>22</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="6" t="n">
+      <c r="A316" s="3" t="n">
         <v>43950</v>
       </c>
       <c r="B316" s="5" t="s">
@@ -11963,7 +12286,7 @@
         <v>37</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11977,7 +12300,7 @@
         <v>32</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12047,7 +12370,7 @@
         <v>43</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12086,10 +12409,10 @@
         <v>7</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12100,10 +12423,10 @@
         <v>54</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12117,7 +12440,7 @@
         <v>96</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12128,10 +12451,10 @@
         <v>6</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12139,17 +12462,17 @@
         <v>22</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="6" t="n">
+      <c r="A331" s="3" t="n">
         <v>43951</v>
       </c>
       <c r="B331" s="5" t="s">
@@ -12176,7 +12499,7 @@
         <v>43</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12190,7 +12513,7 @@
         <v>21</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12260,7 +12583,7 @@
         <v>42</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12299,10 +12622,10 @@
         <v>7</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12313,10 +12636,10 @@
         <v>54</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12330,7 +12653,7 @@
         <v>95</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,10 +12664,10 @@
         <v>6</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12352,13 +12675,439 @@
         <v>22</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="6" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C346" s="5" t="n">
+        <v>778</v>
+      </c>
+      <c r="D346" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="E346" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C347" s="5" t="n">
+        <v>281</v>
+      </c>
+      <c r="D347" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C348" s="5" t="n">
+        <v>249</v>
+      </c>
+      <c r="D348" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" s="5" t="n">
+        <v>750</v>
+      </c>
+      <c r="D349" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="E349" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" s="5" t="n">
+        <v>747</v>
+      </c>
+      <c r="D350" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E350" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" s="5" t="n">
+        <v>866</v>
+      </c>
+      <c r="D351" s="5" t="n">
+        <v>187</v>
+      </c>
+      <c r="E351" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" s="5" t="n">
+        <v>2864</v>
+      </c>
+      <c r="D352" s="5" t="n">
+        <v>538</v>
+      </c>
+      <c r="E352" s="5" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C353" s="5" t="n">
+        <v>259</v>
+      </c>
+      <c r="D353" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354" s="5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D354" s="5" t="n">
+        <v>258</v>
+      </c>
+      <c r="E354" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D355" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="E355" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C356" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C357" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" s="5" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D358" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C359" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="6" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C361" s="5" t="n">
+        <v>793</v>
+      </c>
+      <c r="D361" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E361" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C362" s="5" t="n">
+        <v>283</v>
+      </c>
+      <c r="D362" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C363" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="D363" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" s="5" t="n">
+        <v>768</v>
+      </c>
+      <c r="D364" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="E364" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" s="5" t="n">
+        <v>757</v>
+      </c>
+      <c r="D365" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="E365" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" s="5" t="n">
+        <v>889</v>
+      </c>
+      <c r="D366" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="E366" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367" s="5" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D367" s="5" t="n">
+        <v>530</v>
+      </c>
+      <c r="E367" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C368" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="D368" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C369" s="5" t="n">
+        <v>1436</v>
+      </c>
+      <c r="D369" s="5" t="n">
+        <v>247</v>
+      </c>
+      <c r="E369" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" s="5" t="n">
+        <v>2065</v>
+      </c>
+      <c r="D370" s="5" t="n">
+        <v>258</v>
+      </c>
+      <c r="E370" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C371" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C372" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" s="5" t="n">
+        <v>1392</v>
+      </c>
+      <c r="D373" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C374" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -273,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F758"/>
+  <dimension ref="A1:F773"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A747" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C771" activeCellId="0" sqref="C771"/>
+      <selection pane="topLeft" activeCell="F759" activeCellId="0" sqref="F759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7434,7 +7434,7 @@
       <c r="E728" s="5"/>
     </row>
     <row r="729" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="6" t="n">
+      <c r="A729" s="3" t="n">
         <v>43952</v>
       </c>
       <c r="B729" s="5" t="s">
@@ -7594,7 +7594,7 @@
       <c r="E743" s="5"/>
     </row>
     <row r="744" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="6" t="n">
+      <c r="A744" s="3" t="n">
         <v>43953</v>
       </c>
       <c r="B744" s="5" t="s">
@@ -7752,6 +7752,166 @@
       </c>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
+    </row>
+    <row r="759" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="6" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C759" s="5" t="n">
+        <v>799</v>
+      </c>
+      <c r="D759" s="5" t="n">
+        <v>60295</v>
+      </c>
+      <c r="E759" s="5" t="n">
+        <v>12097</v>
+      </c>
+      <c r="F759" s="5" t="n">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B760" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C760" s="5" t="n">
+        <v>284</v>
+      </c>
+      <c r="D760" s="5"/>
+      <c r="E760" s="5"/>
+    </row>
+    <row r="761" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B761" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C761" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="D761" s="5"/>
+      <c r="E761" s="5"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B762" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C762" s="5" t="n">
+        <v>776</v>
+      </c>
+      <c r="D762" s="5"/>
+      <c r="E762" s="5"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B763" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C763" s="5" t="n">
+        <v>788</v>
+      </c>
+      <c r="D763" s="5"/>
+      <c r="E763" s="5"/>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B764" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C764" s="5" t="n">
+        <v>898</v>
+      </c>
+      <c r="D764" s="5"/>
+      <c r="E764" s="5"/>
+    </row>
+    <row r="765" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B765" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C765" s="5" t="n">
+        <v>2985</v>
+      </c>
+      <c r="D765" s="5"/>
+      <c r="E765" s="5"/>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B766" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C766" s="5" t="n">
+        <v>297</v>
+      </c>
+      <c r="D766" s="5"/>
+      <c r="E766" s="5"/>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B767" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C767" s="5" t="n">
+        <v>1454</v>
+      </c>
+      <c r="D767" s="5"/>
+      <c r="E767" s="5"/>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B768" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C768" s="5" t="n">
+        <v>2089</v>
+      </c>
+      <c r="D768" s="5"/>
+      <c r="E768" s="5"/>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B769" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C769" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D769" s="5"/>
+      <c r="E769" s="5"/>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B770" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C770" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D770" s="5"/>
+      <c r="E770" s="5"/>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B771" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C771" s="5" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D771" s="5"/>
+      <c r="E771" s="5"/>
+    </row>
+    <row r="772" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B772" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C772" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D772" s="5"/>
+      <c r="E772" s="5"/>
+    </row>
+    <row r="773" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B773" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C773" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D773" s="5"/>
+      <c r="E773" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7769,10 +7929,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A356" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G353" activeCellId="0" sqref="G353"/>
+      <selection pane="topLeft" activeCell="A377" activeCellId="0" sqref="A377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12685,7 +12845,7 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="6" t="n">
+      <c r="A346" s="3" t="n">
         <v>43952</v>
       </c>
       <c r="B346" s="5" t="s">
@@ -12898,7 +13058,7 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="6" t="n">
+      <c r="A361" s="3" t="n">
         <v>43953</v>
       </c>
       <c r="B361" s="5" t="s">
@@ -13107,6 +13267,219 @@
         <v>28</v>
       </c>
       <c r="E375" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="6" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C376" s="5" t="n">
+        <v>799</v>
+      </c>
+      <c r="D376" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="E376" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C377" s="5" t="n">
+        <v>284</v>
+      </c>
+      <c r="D377" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="D378" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379" s="5" t="n">
+        <v>776</v>
+      </c>
+      <c r="D379" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="E379" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="5" t="n">
+        <v>788</v>
+      </c>
+      <c r="D380" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" s="5" t="n">
+        <v>898</v>
+      </c>
+      <c r="D381" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="E381" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" s="5" t="n">
+        <v>2985</v>
+      </c>
+      <c r="D382" s="5" t="n">
+        <v>526</v>
+      </c>
+      <c r="E382" s="5" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C383" s="5" t="n">
+        <v>297</v>
+      </c>
+      <c r="D383" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384" s="5" t="n">
+        <v>1454</v>
+      </c>
+      <c r="D384" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="E384" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" s="5" t="n">
+        <v>2089</v>
+      </c>
+      <c r="D385" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E385" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C386" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C387" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" s="5" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D388" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E390" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -273,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F773"/>
+  <dimension ref="A1:F788"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A747" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F759" activeCellId="0" sqref="F759"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A766" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C789" activeCellId="0" sqref="C789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7754,7 +7754,7 @@
       <c r="E758" s="5"/>
     </row>
     <row r="759" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="6" t="n">
+      <c r="A759" s="3" t="n">
         <v>43954</v>
       </c>
       <c r="B759" s="5" t="s">
@@ -7912,6 +7912,166 @@
       </c>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
+    </row>
+    <row r="774" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="6" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B774" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C774" s="5" t="n">
+        <v>818</v>
+      </c>
+      <c r="D774" s="5" t="n">
+        <v>61696</v>
+      </c>
+      <c r="E774" s="5" t="n">
+        <v>12266</v>
+      </c>
+      <c r="F774" s="5" t="n">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B775" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C775" s="5" t="n">
+        <v>284</v>
+      </c>
+      <c r="D775" s="5"/>
+      <c r="E775" s="5"/>
+    </row>
+    <row r="776" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B776" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C776" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="D776" s="5"/>
+      <c r="E776" s="5"/>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B777" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C777" s="5" t="n">
+        <v>778</v>
+      </c>
+      <c r="D777" s="5"/>
+      <c r="E777" s="5"/>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B778" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C778" s="5" t="n">
+        <v>794</v>
+      </c>
+      <c r="D778" s="5"/>
+      <c r="E778" s="5"/>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B779" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C779" s="5" t="n">
+        <v>931</v>
+      </c>
+      <c r="D779" s="5"/>
+      <c r="E779" s="5"/>
+    </row>
+    <row r="780" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B780" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C780" s="5" t="n">
+        <v>3029</v>
+      </c>
+      <c r="D780" s="5"/>
+      <c r="E780" s="5"/>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B781" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C781" s="5" t="n">
+        <v>299</v>
+      </c>
+      <c r="D781" s="5"/>
+      <c r="E781" s="5"/>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B782" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C782" s="5" t="n">
+        <v>1492</v>
+      </c>
+      <c r="D782" s="5"/>
+      <c r="E782" s="5"/>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B783" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C783" s="5" t="n">
+        <v>2113</v>
+      </c>
+      <c r="D783" s="5"/>
+      <c r="E783" s="5"/>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B784" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C784" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D784" s="5"/>
+      <c r="E784" s="5"/>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C785" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D785" s="5"/>
+      <c r="E785" s="5"/>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B786" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C786" s="5" t="n">
+        <v>1411</v>
+      </c>
+      <c r="D786" s="5"/>
+      <c r="E786" s="5"/>
+    </row>
+    <row r="787" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B787" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C787" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D787" s="5"/>
+      <c r="E787" s="5"/>
+    </row>
+    <row r="788" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B788" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C788" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D788" s="5"/>
+      <c r="E788" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7929,10 +8089,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A356" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A377" activeCellId="0" sqref="A377"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A375" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A392" activeCellId="0" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13271,7 +13431,7 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="6" t="n">
+      <c r="A376" s="3" t="n">
         <v>43954</v>
       </c>
       <c r="B376" s="5" t="s">
@@ -13480,6 +13640,219 @@
         <v>28</v>
       </c>
       <c r="E390" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="6" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C391" s="5" t="n">
+        <v>818</v>
+      </c>
+      <c r="D391" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E391" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C392" s="5" t="n">
+        <v>284</v>
+      </c>
+      <c r="D392" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="D393" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394" s="5" t="n">
+        <v>778</v>
+      </c>
+      <c r="D394" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="E394" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" s="5" t="n">
+        <v>794</v>
+      </c>
+      <c r="D395" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="E395" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C396" s="5" t="n">
+        <v>931</v>
+      </c>
+      <c r="D396" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="E396" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="5" t="n">
+        <v>3029</v>
+      </c>
+      <c r="D397" s="5" t="n">
+        <v>533</v>
+      </c>
+      <c r="E397" s="5" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C398" s="5" t="n">
+        <v>299</v>
+      </c>
+      <c r="D398" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C399" s="5" t="n">
+        <v>1492</v>
+      </c>
+      <c r="D399" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="E399" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" s="5" t="n">
+        <v>2113</v>
+      </c>
+      <c r="D400" s="5" t="n">
+        <v>327</v>
+      </c>
+      <c r="E400" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C401" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C402" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" s="5" t="n">
+        <v>1411</v>
+      </c>
+      <c r="D403" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C404" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E405" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="34">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -121,17 +121,21 @@
   <si>
     <t xml:space="preserve">231**</t>
   </si>
+  <si>
+    <t xml:space="preserve">2020-05-06</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -180,13 +184,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,8 +269,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -273,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F788"/>
+  <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A766" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C789" activeCellId="0" sqref="C789"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A768" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A790" activeCellId="0" sqref="A790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8072,6 +8105,172 @@
       </c>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
+    </row>
+    <row r="789" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="6" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B789" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C789" s="5" t="n">
+        <v>825</v>
+      </c>
+      <c r="D789" s="5" t="n">
+        <v>63311</v>
+      </c>
+      <c r="E789" s="5" t="n">
+        <v>12437</v>
+      </c>
+      <c r="F789" s="5" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="7"/>
+      <c r="B790" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C790" s="5" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="7"/>
+      <c r="B791" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C791" s="5" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="7"/>
+      <c r="B792" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C792" s="5" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="7"/>
+      <c r="B793" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C793" s="5" t="n">
+        <v>802</v>
+      </c>
+      <c r="D793" s="5"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="7"/>
+      <c r="B794" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C794" s="5" t="n">
+        <v>946</v>
+      </c>
+      <c r="D794" s="5"/>
+      <c r="E794" s="5"/>
+    </row>
+    <row r="795" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="7"/>
+      <c r="B795" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C795" s="5" t="n">
+        <v>3070</v>
+      </c>
+      <c r="D795" s="5"/>
+      <c r="E795" s="5"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="7"/>
+      <c r="B796" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C796" s="5" t="n">
+        <v>307</v>
+      </c>
+      <c r="D796" s="5"/>
+      <c r="E796" s="5"/>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="7"/>
+      <c r="B797" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C797" s="5" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D797" s="5"/>
+      <c r="E797" s="5"/>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="7"/>
+      <c r="B798" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C798" s="5" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D798" s="5"/>
+      <c r="E798" s="5"/>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="7"/>
+      <c r="B799" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C799" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D799" s="5"/>
+      <c r="E799" s="5"/>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="7"/>
+      <c r="B800" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C800" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D800" s="5"/>
+      <c r="E800" s="5"/>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="7"/>
+      <c r="B801" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C801" s="5" t="n">
+        <v>1429</v>
+      </c>
+      <c r="D801" s="5"/>
+      <c r="E801" s="5"/>
+    </row>
+    <row r="802" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="7"/>
+      <c r="B802" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C802" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D802" s="5"/>
+      <c r="E802" s="5"/>
+    </row>
+    <row r="803" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B803" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C803" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D803" s="5"/>
+      <c r="E803" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8089,10 +8288,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:P424"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A375" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A392" activeCellId="0" sqref="A392"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A396" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B423" activeCellId="0" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8106,16 +8305,16 @@
       <c r="A1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13855,6 +14054,249 @@
       <c r="E405" s="5" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="406" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" s="5" t="n">
+        <v>846</v>
+      </c>
+      <c r="D406" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E406" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="7"/>
+      <c r="B407" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C407" s="5" t="n">
+        <v>285</v>
+      </c>
+      <c r="D407" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E407" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="7"/>
+      <c r="B408" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C408" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D408" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="7"/>
+      <c r="B409" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C409" s="5" t="n">
+        <v>792</v>
+      </c>
+      <c r="D409" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="E409" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="7"/>
+      <c r="B410" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" s="5" t="n">
+        <v>809</v>
+      </c>
+      <c r="D410" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E410" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="7"/>
+      <c r="B411" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C411" s="5" t="n">
+        <v>957</v>
+      </c>
+      <c r="D411" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="E411" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="7"/>
+      <c r="B412" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C412" s="5" t="n">
+        <v>3203</v>
+      </c>
+      <c r="D412" s="5" t="n">
+        <v>523</v>
+      </c>
+      <c r="E412" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="7"/>
+      <c r="B413" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C413" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="D413" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="7"/>
+      <c r="B414" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C414" s="5" t="n">
+        <v>1541</v>
+      </c>
+      <c r="D414" s="5" t="n">
+        <v>223</v>
+      </c>
+      <c r="E414" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="7"/>
+      <c r="B415" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C415" s="5" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D415" s="5" t="n">
+        <v>274</v>
+      </c>
+      <c r="E415" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="7"/>
+      <c r="B416" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C416" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="7"/>
+      <c r="B417" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C417" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="7"/>
+      <c r="B418" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="5" t="n">
+        <v>1445</v>
+      </c>
+      <c r="D418" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="7"/>
+      <c r="B419" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C419" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C420" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="10"/>
+      <c r="C424" s="10"/>
+      <c r="D424" s="10"/>
+      <c r="E424" s="10"/>
+      <c r="F424" s="10"/>
+      <c r="G424" s="10"/>
+      <c r="H424" s="10"/>
+      <c r="I424" s="10"/>
+      <c r="J424" s="10"/>
+      <c r="K424" s="10"/>
+      <c r="L424" s="11"/>
+      <c r="M424" s="11"/>
+      <c r="N424" s="10"/>
+      <c r="O424" s="11"/>
+      <c r="P424" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -121,19 +121,15 @@
   <si>
     <t xml:space="preserve">231**</t>
   </si>
-  <si>
-    <t xml:space="preserve">2020-05-06</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -240,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,10 +273,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F803"/>
+  <dimension ref="A1:F818"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A768" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A790" activeCellId="0" sqref="A790"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A779" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F804" activeCellId="0" sqref="F804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8271,6 +8263,166 @@
       </c>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
+    </row>
+    <row r="804" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="6" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B804" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C804" s="5" t="n">
+        <v>846</v>
+      </c>
+      <c r="D804" s="5" t="n">
+        <v>65125</v>
+      </c>
+      <c r="E804" s="5" t="n">
+        <v>12709</v>
+      </c>
+      <c r="F804" s="5" t="n">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B805" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C805" s="5" t="n">
+        <v>285</v>
+      </c>
+      <c r="D805" s="5"/>
+      <c r="E805" s="5"/>
+    </row>
+    <row r="806" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B806" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C806" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D806" s="5"/>
+      <c r="E806" s="5"/>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B807" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C807" s="5" t="n">
+        <v>792</v>
+      </c>
+      <c r="D807" s="5"/>
+      <c r="E807" s="5"/>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B808" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C808" s="5" t="n">
+        <v>809</v>
+      </c>
+      <c r="D808" s="5"/>
+      <c r="E808" s="5"/>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B809" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C809" s="5" t="n">
+        <v>957</v>
+      </c>
+      <c r="D809" s="5"/>
+      <c r="E809" s="5"/>
+    </row>
+    <row r="810" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B810" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C810" s="5" t="n">
+        <v>3203</v>
+      </c>
+      <c r="D810" s="5"/>
+      <c r="E810" s="5"/>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B811" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C811" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="D811" s="5"/>
+      <c r="E811" s="5"/>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B812" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C812" s="5" t="n">
+        <v>1541</v>
+      </c>
+      <c r="D812" s="5"/>
+      <c r="E812" s="5"/>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B813" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C813" s="5" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D813" s="5"/>
+      <c r="E813" s="5"/>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B814" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C814" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D814" s="5"/>
+      <c r="E814" s="5"/>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B815" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C815" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D815" s="5"/>
+      <c r="E815" s="5"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B816" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C816" s="5" t="n">
+        <v>1445</v>
+      </c>
+      <c r="D816" s="5"/>
+      <c r="E816" s="5"/>
+    </row>
+    <row r="817" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B817" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C817" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D817" s="5"/>
+      <c r="E817" s="5"/>
+    </row>
+    <row r="818" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B818" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C818" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D818" s="5"/>
+      <c r="E818" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8288,10 +8440,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P424"/>
+  <dimension ref="A1:P435"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A396" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B423" activeCellId="0" sqref="B423"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F437" activeCellId="0" sqref="F437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14056,8 +14208,8 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="9" t="s">
-        <v>33</v>
+      <c r="A406" s="6" t="n">
+        <v>43956</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>19</v>
@@ -14281,22 +14433,229 @@
         <v>28</v>
       </c>
     </row>
+    <row r="421" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="6" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C421" s="5" t="n">
+        <v>846</v>
+      </c>
+      <c r="D421" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="E421" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C422" s="5" t="n">
+        <v>285</v>
+      </c>
+      <c r="D422" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C423" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D423" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B424" s="10"/>
-      <c r="C424" s="10"/>
-      <c r="D424" s="10"/>
-      <c r="E424" s="10"/>
-      <c r="F424" s="10"/>
-      <c r="G424" s="10"/>
-      <c r="H424" s="10"/>
-      <c r="I424" s="10"/>
-      <c r="J424" s="10"/>
-      <c r="K424" s="10"/>
-      <c r="L424" s="11"/>
-      <c r="M424" s="11"/>
-      <c r="N424" s="10"/>
-      <c r="O424" s="11"/>
-      <c r="P424" s="11"/>
+      <c r="B424" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" s="5" t="n">
+        <v>792</v>
+      </c>
+      <c r="D424" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F424" s="9"/>
+      <c r="G424" s="9"/>
+      <c r="H424" s="9"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="9"/>
+      <c r="K424" s="9"/>
+      <c r="L424" s="10"/>
+      <c r="M424" s="10"/>
+      <c r="N424" s="9"/>
+      <c r="O424" s="10"/>
+      <c r="P424" s="10"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" s="5" t="n">
+        <v>809</v>
+      </c>
+      <c r="D425" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C426" s="5" t="n">
+        <v>957</v>
+      </c>
+      <c r="D426" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="E426" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427" s="5" t="n">
+        <v>3203</v>
+      </c>
+      <c r="D427" s="5" t="n">
+        <v>509</v>
+      </c>
+      <c r="E427" s="5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C428" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="D428" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C429" s="5" t="n">
+        <v>1541</v>
+      </c>
+      <c r="D429" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="E429" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C430" s="5" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D430" s="5" t="n">
+        <v>274</v>
+      </c>
+      <c r="E430" s="5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C431" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C432" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" s="5" t="n">
+        <v>1445</v>
+      </c>
+      <c r="D433" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C434" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F818"/>
+  <dimension ref="A1:F833"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A779" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F804" activeCellId="0" sqref="F804"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A810" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F819" activeCellId="0" sqref="F819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8423,6 +8423,166 @@
       </c>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
+    </row>
+    <row r="819" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="6" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B819" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C819" s="5" t="n">
+        <v>853</v>
+      </c>
+      <c r="D819" s="5" t="n">
+        <v>67097</v>
+      </c>
+      <c r="E819" s="5" t="n">
+        <v>12924</v>
+      </c>
+      <c r="F819" s="5" t="n">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B820" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C820" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D820" s="5"/>
+      <c r="E820" s="5"/>
+    </row>
+    <row r="821" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B821" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C821" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D821" s="5"/>
+      <c r="E821" s="5"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B822" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C822" s="5" t="n">
+        <v>801</v>
+      </c>
+      <c r="D822" s="5"/>
+      <c r="E822" s="5"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B823" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C823" s="5" t="n">
+        <v>818</v>
+      </c>
+      <c r="D823" s="5"/>
+      <c r="E823" s="5"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B824" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C824" s="5" t="n">
+        <v>973</v>
+      </c>
+      <c r="D824" s="5"/>
+      <c r="E824" s="5"/>
+    </row>
+    <row r="825" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B825" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C825" s="5" t="n">
+        <v>3277</v>
+      </c>
+      <c r="D825" s="5"/>
+      <c r="E825" s="5"/>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B826" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C826" s="5" t="n">
+        <v>313</v>
+      </c>
+      <c r="D826" s="5"/>
+      <c r="E826" s="5"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B827" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C827" s="5" t="n">
+        <v>1576</v>
+      </c>
+      <c r="D827" s="5"/>
+      <c r="E827" s="5"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B828" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C828" s="5" t="n">
+        <v>2241</v>
+      </c>
+      <c r="D828" s="5"/>
+      <c r="E828" s="5"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B829" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C829" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D829" s="5"/>
+      <c r="E829" s="5"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B830" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C830" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D830" s="5"/>
+      <c r="E830" s="5"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B831" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C831" s="5" t="n">
+        <v>1465</v>
+      </c>
+      <c r="D831" s="5"/>
+      <c r="E831" s="5"/>
+    </row>
+    <row r="832" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B832" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C832" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D832" s="5"/>
+      <c r="E832" s="5"/>
+    </row>
+    <row r="833" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B833" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C833" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D833" s="5"/>
+      <c r="E833" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8440,10 +8600,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P435"/>
+  <dimension ref="A1:P450"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F437" activeCellId="0" sqref="F437"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A430" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F445" activeCellId="0" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14657,6 +14817,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="436" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="6" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C436" s="5" t="n">
+        <v>853</v>
+      </c>
+      <c r="D436" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E436" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C437" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D437" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C438" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" s="5" t="n">
+        <v>801</v>
+      </c>
+      <c r="D439" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C440" s="5" t="n">
+        <v>818</v>
+      </c>
+      <c r="D440" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C441" s="5" t="n">
+        <v>973</v>
+      </c>
+      <c r="D441" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="E441" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C442" s="5" t="n">
+        <v>3277</v>
+      </c>
+      <c r="D442" s="5" t="n">
+        <v>506</v>
+      </c>
+      <c r="E442" s="5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C443" s="5" t="n">
+        <v>313</v>
+      </c>
+      <c r="D443" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C444" s="5" t="n">
+        <v>1576</v>
+      </c>
+      <c r="D444" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="E444" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C445" s="5" t="n">
+        <v>2241</v>
+      </c>
+      <c r="D445" s="5" t="n">
+        <v>302</v>
+      </c>
+      <c r="E445" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C446" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C447" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E447" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" s="5" t="n">
+        <v>1465</v>
+      </c>
+      <c r="D448" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C449" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E449" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B450" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D450" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -261,11 +261,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F833"/>
+  <dimension ref="A1:F863"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A810" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F819" activeCellId="0" sqref="F819"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A846" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C864" activeCellId="0" sqref="C864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7939,7 +7939,7 @@
       <c r="E773" s="5"/>
     </row>
     <row r="774" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="6" t="n">
+      <c r="A774" s="3" t="n">
         <v>43955</v>
       </c>
       <c r="B774" s="5" t="s">
@@ -8099,7 +8099,7 @@
       <c r="E788" s="5"/>
     </row>
     <row r="789" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="6" t="n">
+      <c r="A789" s="3" t="n">
         <v>43956</v>
       </c>
       <c r="B789" s="5" t="s">
@@ -8119,7 +8119,7 @@
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="7"/>
+      <c r="A790" s="6"/>
       <c r="B790" s="5" t="s">
         <v>16</v>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
     </row>
     <row r="791" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="7"/>
+      <c r="A791" s="6"/>
       <c r="B791" s="5" t="s">
         <v>18</v>
       </c>
@@ -8137,7 +8137,7 @@
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="7"/>
+      <c r="A792" s="6"/>
       <c r="B792" s="5" t="s">
         <v>11</v>
       </c>
@@ -8146,7 +8146,7 @@
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="7"/>
+      <c r="A793" s="6"/>
       <c r="B793" s="5" t="s">
         <v>8</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="D793" s="5"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="7"/>
+      <c r="A794" s="6"/>
       <c r="B794" s="5" t="s">
         <v>10</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="E794" s="5"/>
     </row>
     <row r="795" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="7"/>
+      <c r="A795" s="6"/>
       <c r="B795" s="5" t="s">
         <v>9</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="E795" s="5"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="7"/>
+      <c r="A796" s="6"/>
       <c r="B796" s="5" t="s">
         <v>17</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="E796" s="5"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="7"/>
+      <c r="A797" s="6"/>
       <c r="B797" s="5" t="s">
         <v>13</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="E797" s="5"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="7"/>
+      <c r="A798" s="6"/>
       <c r="B798" s="5" t="s">
         <v>12</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="E798" s="5"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="7"/>
+      <c r="A799" s="6"/>
       <c r="B799" s="5" t="s">
         <v>20</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="E799" s="5"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="7"/>
+      <c r="A800" s="6"/>
       <c r="B800" s="5" t="s">
         <v>15</v>
       </c>
@@ -8233,7 +8233,7 @@
       <c r="E800" s="5"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="7"/>
+      <c r="A801" s="6"/>
       <c r="B801" s="5" t="s">
         <v>6</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="E801" s="5"/>
     </row>
     <row r="802" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="7"/>
+      <c r="A802" s="6"/>
       <c r="B802" s="5" t="s">
         <v>21</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="E803" s="5"/>
     </row>
     <row r="804" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="6" t="n">
+      <c r="A804" s="3" t="n">
         <v>43957</v>
       </c>
       <c r="B804" s="5" t="s">
@@ -8425,7 +8425,7 @@
       <c r="E818" s="5"/>
     </row>
     <row r="819" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="6" t="n">
+      <c r="A819" s="3" t="n">
         <v>43958</v>
       </c>
       <c r="B819" s="5" t="s">
@@ -8583,6 +8583,326 @@
       </c>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
+    </row>
+    <row r="834" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="7" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B834" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C834" s="5" t="n">
+        <v>885</v>
+      </c>
+      <c r="D834" s="5" t="n">
+        <v>69191</v>
+      </c>
+      <c r="E834" s="5" t="n">
+        <v>13149</v>
+      </c>
+      <c r="F834" s="5" t="n">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B835" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C835" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D835" s="5"/>
+      <c r="E835" s="5"/>
+    </row>
+    <row r="836" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B836" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C836" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D836" s="5"/>
+      <c r="E836" s="5"/>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B837" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C837" s="5" t="n">
+        <v>804</v>
+      </c>
+      <c r="D837" s="5"/>
+      <c r="E837" s="5"/>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B838" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C838" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="D838" s="5"/>
+      <c r="E838" s="5"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B839" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C839" s="5" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D839" s="5"/>
+      <c r="E839" s="5"/>
+    </row>
+    <row r="840" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B840" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C840" s="5" t="n">
+        <v>3333</v>
+      </c>
+      <c r="D840" s="5"/>
+      <c r="E840" s="5"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B841" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C841" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="D841" s="5"/>
+      <c r="E841" s="5"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B842" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C842" s="5" t="n">
+        <v>1628</v>
+      </c>
+      <c r="D842" s="5"/>
+      <c r="E842" s="5"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B843" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C843" s="5" t="n">
+        <v>2274</v>
+      </c>
+      <c r="D843" s="5"/>
+      <c r="E843" s="5"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B844" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C844" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D844" s="5"/>
+      <c r="E844" s="5"/>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B845" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C845" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D845" s="5"/>
+      <c r="E845" s="5"/>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B846" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C846" s="5" t="n">
+        <v>1471</v>
+      </c>
+      <c r="D846" s="5"/>
+      <c r="E846" s="5"/>
+    </row>
+    <row r="847" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B847" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C847" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D847" s="5"/>
+      <c r="E847" s="5"/>
+    </row>
+    <row r="848" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B848" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C848" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D848" s="5"/>
+      <c r="E848" s="5"/>
+    </row>
+    <row r="849" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="7" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B849" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C849" s="5" t="n">
+        <v>895</v>
+      </c>
+      <c r="D849" s="5" t="n">
+        <v>71092</v>
+      </c>
+      <c r="E849" s="5" t="n">
+        <v>13305</v>
+      </c>
+      <c r="F849" s="5" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B850" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C850" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D850" s="5"/>
+      <c r="E850" s="5"/>
+    </row>
+    <row r="851" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B851" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C851" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D851" s="5"/>
+      <c r="E851" s="5"/>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B852" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C852" s="5" t="n">
+        <v>810</v>
+      </c>
+      <c r="D852" s="5"/>
+      <c r="E852" s="5"/>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B853" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C853" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="D853" s="5"/>
+      <c r="E853" s="5"/>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B854" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C854" s="5" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D854" s="5"/>
+      <c r="E854" s="5"/>
+    </row>
+    <row r="855" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B855" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C855" s="5" t="n">
+        <v>3367</v>
+      </c>
+      <c r="D855" s="5"/>
+      <c r="E855" s="5"/>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B856" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C856" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="D856" s="5"/>
+      <c r="E856" s="5"/>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B857" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C857" s="5" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D857" s="5"/>
+      <c r="E857" s="5"/>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B858" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C858" s="5" t="n">
+        <v>2324</v>
+      </c>
+      <c r="D858" s="5"/>
+      <c r="E858" s="5"/>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B859" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C859" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D859" s="5"/>
+      <c r="E859" s="5"/>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B860" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C860" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D860" s="5"/>
+      <c r="E860" s="5"/>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B861" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C861" s="5" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D861" s="5"/>
+      <c r="E861" s="5"/>
+    </row>
+    <row r="862" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B862" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C862" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D862" s="5"/>
+      <c r="E862" s="5"/>
+    </row>
+    <row r="863" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B863" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C863" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D863" s="5"/>
+      <c r="E863" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8600,10 +8920,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P450"/>
+  <dimension ref="A1:P480"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A430" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F445" activeCellId="0" sqref="F445"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D467" activeCellId="0" sqref="D467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14155,7 +14475,7 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="6" t="n">
+      <c r="A391" s="3" t="n">
         <v>43955</v>
       </c>
       <c r="B391" s="5" t="s">
@@ -14368,7 +14688,7 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="6" t="n">
+      <c r="A406" s="3" t="n">
         <v>43956</v>
       </c>
       <c r="B406" s="5" t="s">
@@ -14385,7 +14705,7 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="7"/>
+      <c r="A407" s="6"/>
       <c r="B407" s="5" t="s">
         <v>16</v>
       </c>
@@ -14400,7 +14720,7 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="7"/>
+      <c r="A408" s="6"/>
       <c r="B408" s="5" t="s">
         <v>18</v>
       </c>
@@ -14415,7 +14735,7 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="7"/>
+      <c r="A409" s="6"/>
       <c r="B409" s="5" t="s">
         <v>11</v>
       </c>
@@ -14430,7 +14750,7 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="7"/>
+      <c r="A410" s="6"/>
       <c r="B410" s="5" t="s">
         <v>8</v>
       </c>
@@ -14445,7 +14765,7 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="7"/>
+      <c r="A411" s="6"/>
       <c r="B411" s="5" t="s">
         <v>10</v>
       </c>
@@ -14460,7 +14780,7 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="7"/>
+      <c r="A412" s="6"/>
       <c r="B412" s="5" t="s">
         <v>9</v>
       </c>
@@ -14475,7 +14795,7 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="7"/>
+      <c r="A413" s="6"/>
       <c r="B413" s="5" t="s">
         <v>17</v>
       </c>
@@ -14490,7 +14810,7 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="7"/>
+      <c r="A414" s="6"/>
       <c r="B414" s="5" t="s">
         <v>13</v>
       </c>
@@ -14505,7 +14825,7 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="7"/>
+      <c r="A415" s="6"/>
       <c r="B415" s="5" t="s">
         <v>12</v>
       </c>
@@ -14520,7 +14840,7 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="7"/>
+      <c r="A416" s="6"/>
       <c r="B416" s="5" t="s">
         <v>20</v>
       </c>
@@ -14535,7 +14855,7 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="7"/>
+      <c r="A417" s="6"/>
       <c r="B417" s="5" t="s">
         <v>15</v>
       </c>
@@ -14550,7 +14870,7 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="7"/>
+      <c r="A418" s="6"/>
       <c r="B418" s="5" t="s">
         <v>6</v>
       </c>
@@ -14565,7 +14885,7 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="7"/>
+      <c r="A419" s="6"/>
       <c r="B419" s="5" t="s">
         <v>21</v>
       </c>
@@ -14594,7 +14914,7 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="6" t="n">
+      <c r="A421" s="3" t="n">
         <v>43957</v>
       </c>
       <c r="B421" s="5" t="s">
@@ -14818,7 +15138,7 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="6" t="n">
+      <c r="A436" s="3" t="n">
         <v>43958</v>
       </c>
       <c r="B436" s="5" t="s">
@@ -15027,6 +15347,432 @@
         <v>28</v>
       </c>
       <c r="E450" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="7" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C451" s="5" t="n">
+        <v>885</v>
+      </c>
+      <c r="D451" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E451" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B452" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C452" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D452" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B453" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C453" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D453" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E453" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" s="5" t="n">
+        <v>804</v>
+      </c>
+      <c r="D454" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B455" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="D455" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E455" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B456" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456" s="5" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D456" s="5" t="n">
+        <v>138</v>
+      </c>
+      <c r="E456" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C457" s="5" t="n">
+        <v>3333</v>
+      </c>
+      <c r="D457" s="5" t="n">
+        <v>502</v>
+      </c>
+      <c r="E457" s="5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B458" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C458" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="D458" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C459" s="5" t="n">
+        <v>1628</v>
+      </c>
+      <c r="D459" s="5" t="n">
+        <v>206</v>
+      </c>
+      <c r="E459" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B460" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C460" s="5" t="n">
+        <v>2274</v>
+      </c>
+      <c r="D460" s="5" t="n">
+        <v>287</v>
+      </c>
+      <c r="E460" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B461" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C461" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D461" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B462" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C462" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" s="5" t="n">
+        <v>1471</v>
+      </c>
+      <c r="D463" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="E463" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B464" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C464" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D465" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E465" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="7" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C466" s="5" t="n">
+        <v>895</v>
+      </c>
+      <c r="D466" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E466" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C467" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D467" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C468" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469" s="5" t="n">
+        <v>810</v>
+      </c>
+      <c r="D469" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="E469" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="D470" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C471" s="5" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D471" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="E471" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C472" s="5" t="n">
+        <v>3367</v>
+      </c>
+      <c r="D472" s="5" t="n">
+        <v>496</v>
+      </c>
+      <c r="E472" s="5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C473" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="D473" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C474" s="5" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D474" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E474" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" s="5" t="n">
+        <v>2324</v>
+      </c>
+      <c r="D475" s="5" t="n">
+        <v>323</v>
+      </c>
+      <c r="E475" s="5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C476" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C477" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D477" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E477" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C478" s="5" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D478" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C479" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D479" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E480" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F863"/>
+  <dimension ref="A1:F878"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A846" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C864" activeCellId="0" sqref="C864"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A856" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E870" activeCellId="0" sqref="E870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8585,7 +8585,7 @@
       <c r="E833" s="5"/>
     </row>
     <row r="834" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="7" t="n">
+      <c r="A834" s="3" t="n">
         <v>43959</v>
       </c>
       <c r="B834" s="5" t="s">
@@ -8745,7 +8745,7 @@
       <c r="E848" s="5"/>
     </row>
     <row r="849" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="7" t="n">
+      <c r="A849" s="3" t="n">
         <v>43960</v>
       </c>
       <c r="B849" s="5" t="s">
@@ -8903,6 +8903,166 @@
       </c>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
+    </row>
+    <row r="864" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="7" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B864" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C864" s="5" t="n">
+        <v>904</v>
+      </c>
+      <c r="D864" s="5" t="n">
+        <v>72683</v>
+      </c>
+      <c r="E864" s="5" t="n">
+        <v>13486</v>
+      </c>
+      <c r="F864" s="5" t="n">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B865" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C865" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D865" s="5"/>
+      <c r="E865" s="5"/>
+    </row>
+    <row r="866" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B866" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C866" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D866" s="5"/>
+      <c r="E866" s="5"/>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B867" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C867" s="5" t="n">
+        <v>811</v>
+      </c>
+      <c r="D867" s="5"/>
+      <c r="E867" s="5"/>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B868" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C868" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="D868" s="5"/>
+      <c r="E868" s="5"/>
+    </row>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B869" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C869" s="5" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D869" s="5"/>
+      <c r="E869" s="5"/>
+    </row>
+    <row r="870" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B870" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C870" s="5" t="n">
+        <v>3449</v>
+      </c>
+      <c r="D870" s="5"/>
+      <c r="E870" s="5"/>
+    </row>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B871" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C871" s="5" t="n">
+        <v>320</v>
+      </c>
+      <c r="D871" s="5"/>
+      <c r="E871" s="5"/>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B872" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C872" s="5" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D872" s="5"/>
+      <c r="E872" s="5"/>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B873" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C873" s="5" t="n">
+        <v>2359</v>
+      </c>
+      <c r="D873" s="5"/>
+      <c r="E873" s="5"/>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B874" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C874" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D874" s="5"/>
+      <c r="E874" s="5"/>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B875" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C875" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D875" s="5"/>
+      <c r="E875" s="5"/>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B876" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C876" s="5" t="n">
+        <v>1497</v>
+      </c>
+      <c r="D876" s="5"/>
+      <c r="E876" s="5"/>
+    </row>
+    <row r="877" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B877" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C877" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D877" s="5"/>
+      <c r="E877" s="5"/>
+    </row>
+    <row r="878" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B878" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C878" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D878" s="5"/>
+      <c r="E878" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8920,10 +9080,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P480"/>
+  <dimension ref="A1:P495"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D467" activeCellId="0" sqref="D467"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A470" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F499" activeCellId="0" sqref="F499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15351,7 +15511,7 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="7" t="n">
+      <c r="A451" s="3" t="n">
         <v>43959</v>
       </c>
       <c r="B451" s="5" t="s">
@@ -15564,7 +15724,7 @@
       </c>
     </row>
     <row r="466" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="7" t="n">
+      <c r="A466" s="3" t="n">
         <v>43960</v>
       </c>
       <c r="B466" s="5" t="s">
@@ -15773,6 +15933,219 @@
         <v>28</v>
       </c>
       <c r="E480" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="7" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C481" s="5" t="n">
+        <v>904</v>
+      </c>
+      <c r="D481" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E481" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C482" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D482" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C483" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D483" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C484" s="5" t="n">
+        <v>811</v>
+      </c>
+      <c r="D484" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C485" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="D485" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C486" s="5" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D486" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E486" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C487" s="5" t="n">
+        <v>3449</v>
+      </c>
+      <c r="D487" s="5" t="n">
+        <v>492</v>
+      </c>
+      <c r="E487" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C488" s="5" t="n">
+        <v>320</v>
+      </c>
+      <c r="D488" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C489" s="5" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D489" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="E489" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" s="5" t="n">
+        <v>2359</v>
+      </c>
+      <c r="D490" s="5" t="n">
+        <v>292</v>
+      </c>
+      <c r="E490" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C491" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C492" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C493" s="5" t="n">
+        <v>1497</v>
+      </c>
+      <c r="D493" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C494" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E495" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F878"/>
+  <dimension ref="A1:F908"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A856" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E870" activeCellId="0" sqref="E870"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A893" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F894" activeCellId="0" sqref="F894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8905,7 +8905,7 @@
       <c r="E863" s="5"/>
     </row>
     <row r="864" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="7" t="n">
+      <c r="A864" s="3" t="n">
         <v>43961</v>
       </c>
       <c r="B864" s="5" t="s">
@@ -9063,6 +9063,326 @@
       </c>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
+    </row>
+    <row r="879" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="3" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B879" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C879" s="5" t="n">
+        <v>912</v>
+      </c>
+      <c r="D879" s="5" t="n">
+        <v>74063</v>
+      </c>
+      <c r="E879" s="5" t="n">
+        <v>13627</v>
+      </c>
+      <c r="F879" s="5" t="n">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B880" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C880" s="5" t="n">
+        <v>292</v>
+      </c>
+      <c r="D880" s="5"/>
+      <c r="E880" s="5"/>
+    </row>
+    <row r="881" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B881" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C881" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D881" s="5"/>
+      <c r="E881" s="5"/>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B882" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C882" s="5" t="n">
+        <v>813</v>
+      </c>
+      <c r="D882" s="5"/>
+      <c r="E882" s="5"/>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B883" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C883" s="5" t="n">
+        <v>839</v>
+      </c>
+      <c r="D883" s="5"/>
+      <c r="E883" s="5"/>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B884" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C884" s="5" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D884" s="5"/>
+      <c r="E884" s="5"/>
+    </row>
+    <row r="885" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B885" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C885" s="5" t="n">
+        <v>3479</v>
+      </c>
+      <c r="D885" s="5"/>
+      <c r="E885" s="5"/>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B886" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C886" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D886" s="5"/>
+      <c r="E886" s="5"/>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B887" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C887" s="5" t="n">
+        <v>1693</v>
+      </c>
+      <c r="D887" s="5"/>
+      <c r="E887" s="5"/>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B888" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C888" s="5" t="n">
+        <v>2380</v>
+      </c>
+      <c r="D888" s="5"/>
+      <c r="E888" s="5"/>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B889" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C889" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D889" s="5"/>
+      <c r="E889" s="5"/>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B890" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C890" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D890" s="5"/>
+      <c r="E890" s="5"/>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B891" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C891" s="5" t="n">
+        <v>1497</v>
+      </c>
+      <c r="D891" s="5"/>
+      <c r="E891" s="5"/>
+    </row>
+    <row r="892" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B892" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C892" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D892" s="5"/>
+      <c r="E892" s="5"/>
+    </row>
+    <row r="893" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B893" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C893" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D893" s="5"/>
+      <c r="E893" s="5"/>
+    </row>
+    <row r="894" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="7" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B894" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C894" s="5" t="n">
+        <v>925</v>
+      </c>
+      <c r="D894" s="5" t="n">
+        <v>75570</v>
+      </c>
+      <c r="E894" s="5" t="n">
+        <v>13763</v>
+      </c>
+      <c r="F894" s="5" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B895" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C895" s="5" t="n">
+        <v>294</v>
+      </c>
+      <c r="D895" s="5"/>
+      <c r="E895" s="5"/>
+    </row>
+    <row r="896" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B896" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C896" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D896" s="5"/>
+      <c r="E896" s="5"/>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B897" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C897" s="5" t="n">
+        <v>813</v>
+      </c>
+      <c r="D897" s="5"/>
+      <c r="E897" s="5"/>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B898" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C898" s="5" t="n">
+        <v>856</v>
+      </c>
+      <c r="D898" s="5"/>
+      <c r="E898" s="5"/>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B899" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C899" s="5" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D899" s="5"/>
+      <c r="E899" s="5"/>
+    </row>
+    <row r="900" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B900" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C900" s="5" t="n">
+        <v>3510</v>
+      </c>
+      <c r="D900" s="5"/>
+      <c r="E900" s="5"/>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B901" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C901" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D901" s="5"/>
+      <c r="E901" s="5"/>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B902" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C902" s="5" t="n">
+        <v>1715</v>
+      </c>
+      <c r="D902" s="5"/>
+      <c r="E902" s="5"/>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B903" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C903" s="5" t="n">
+        <v>2397</v>
+      </c>
+      <c r="D903" s="5"/>
+      <c r="E903" s="5"/>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B904" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C904" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D904" s="5"/>
+      <c r="E904" s="5"/>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B905" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C905" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D905" s="5"/>
+      <c r="E905" s="5"/>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B906" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C906" s="5" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D906" s="5"/>
+      <c r="E906" s="5"/>
+    </row>
+    <row r="907" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B907" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C907" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D907" s="5"/>
+      <c r="E907" s="5"/>
+    </row>
+    <row r="908" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B908" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C908" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D908" s="5"/>
+      <c r="E908" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9080,10 +9400,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P495"/>
+  <dimension ref="A1:P525"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A470" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F499" activeCellId="0" sqref="F499"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G521" activeCellId="0" sqref="G521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15937,7 +16257,7 @@
       </c>
     </row>
     <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="7" t="n">
+      <c r="A481" s="3" t="n">
         <v>43961</v>
       </c>
       <c r="B481" s="5" t="s">
@@ -16146,6 +16466,432 @@
         <v>28</v>
       </c>
       <c r="E495" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="3" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C496" s="5" t="n">
+        <v>912</v>
+      </c>
+      <c r="D496" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E496" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C497" s="5" t="n">
+        <v>292</v>
+      </c>
+      <c r="D497" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B498" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C498" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B499" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C499" s="5" t="n">
+        <v>813</v>
+      </c>
+      <c r="D499" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B500" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C500" s="5" t="n">
+        <v>839</v>
+      </c>
+      <c r="D500" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="E500" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C501" s="5" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D501" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="E501" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B502" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C502" s="5" t="n">
+        <v>3479</v>
+      </c>
+      <c r="D502" s="5" t="n">
+        <v>497</v>
+      </c>
+      <c r="E502" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B503" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C503" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D503" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B504" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C504" s="5" t="n">
+        <v>1693</v>
+      </c>
+      <c r="D504" s="5" t="n">
+        <v>174</v>
+      </c>
+      <c r="E504" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B505" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C505" s="5" t="n">
+        <v>2380</v>
+      </c>
+      <c r="D505" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="E505" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B506" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C506" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B507" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C507" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B508" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C508" s="5" t="n">
+        <v>1497</v>
+      </c>
+      <c r="D508" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B509" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C509" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D510" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="7" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C511" s="5" t="n">
+        <v>925</v>
+      </c>
+      <c r="D511" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E511" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B512" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C512" s="5" t="n">
+        <v>294</v>
+      </c>
+      <c r="D512" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B513" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C513" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D513" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B514" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C514" s="5" t="n">
+        <v>813</v>
+      </c>
+      <c r="D514" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515" s="5" t="n">
+        <v>856</v>
+      </c>
+      <c r="D515" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E515" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B516" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C516" s="5" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D516" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="E516" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B517" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C517" s="5" t="n">
+        <v>3510</v>
+      </c>
+      <c r="D517" s="5" t="n">
+        <v>619</v>
+      </c>
+      <c r="E517" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B518" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C518" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D518" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B519" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C519" s="5" t="n">
+        <v>1715</v>
+      </c>
+      <c r="D519" s="5" t="n">
+        <v>114</v>
+      </c>
+      <c r="E519" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C520" s="5" t="n">
+        <v>2397</v>
+      </c>
+      <c r="D520" s="5" t="n">
+        <v>234</v>
+      </c>
+      <c r="E520" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B521" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C521" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E521" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C522" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B523" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C523" s="5" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D523" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E523" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B524" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C524" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D524" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B525" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D525" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E525" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F908"/>
+  <dimension ref="A1:F983"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A893" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F894" activeCellId="0" sqref="F894"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A954" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F969" activeCellId="0" sqref="F969"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9225,7 +9225,7 @@
       <c r="E893" s="5"/>
     </row>
     <row r="894" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="7" t="n">
+      <c r="A894" s="3" t="n">
         <v>43963</v>
       </c>
       <c r="B894" s="5" t="s">
@@ -9383,6 +9383,806 @@
       </c>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
+    </row>
+    <row r="909" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="3" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B909" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C909" s="5" t="n">
+        <v>946</v>
+      </c>
+      <c r="D909" s="5" t="n">
+        <v>77750</v>
+      </c>
+      <c r="E909" s="5" t="n">
+        <v>13929</v>
+      </c>
+      <c r="F909" s="5" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B910" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C910" s="5" t="n">
+        <v>297</v>
+      </c>
+      <c r="D910" s="5"/>
+      <c r="E910" s="5"/>
+    </row>
+    <row r="911" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B911" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C911" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D911" s="5"/>
+      <c r="E911" s="5"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B912" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C912" s="5" t="n">
+        <v>816</v>
+      </c>
+      <c r="D912" s="5"/>
+      <c r="E912" s="5"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B913" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C913" s="5" t="n">
+        <v>859</v>
+      </c>
+      <c r="D913" s="5"/>
+      <c r="E913" s="5"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B914" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C914" s="5" t="n">
+        <v>1123</v>
+      </c>
+      <c r="D914" s="5"/>
+      <c r="E914" s="5"/>
+    </row>
+    <row r="915" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B915" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C915" s="5" t="n">
+        <v>3579</v>
+      </c>
+      <c r="D915" s="5"/>
+      <c r="E915" s="5"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B916" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C916" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D916" s="5"/>
+      <c r="E916" s="5"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B917" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C917" s="5" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D917" s="5"/>
+      <c r="E917" s="5"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B918" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C918" s="5" t="n">
+        <v>2428</v>
+      </c>
+      <c r="D918" s="5"/>
+      <c r="E918" s="5"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B919" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C919" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D919" s="5"/>
+      <c r="E919" s="5"/>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B920" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C920" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D920" s="5"/>
+      <c r="E920" s="5"/>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B921" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C921" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="D921" s="5"/>
+      <c r="E921" s="5"/>
+    </row>
+    <row r="922" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B922" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C922" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D922" s="5"/>
+      <c r="E922" s="5"/>
+    </row>
+    <row r="923" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B923" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C923" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D923" s="5"/>
+      <c r="E923" s="5"/>
+    </row>
+    <row r="924" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="3" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B924" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C924" s="5" t="n">
+        <v>952</v>
+      </c>
+      <c r="D924" s="5" t="n">
+        <v>80275</v>
+      </c>
+      <c r="E924" s="5" t="n">
+        <v>14117</v>
+      </c>
+      <c r="F924" s="5" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B925" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C925" s="5" t="n">
+        <v>298</v>
+      </c>
+      <c r="D925" s="5"/>
+      <c r="E925" s="5"/>
+    </row>
+    <row r="926" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B926" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C926" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D926" s="5"/>
+      <c r="E926" s="5"/>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B927" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C927" s="5" t="n">
+        <v>823</v>
+      </c>
+      <c r="D927" s="5"/>
+      <c r="E927" s="5"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B928" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C928" s="5" t="n">
+        <v>863</v>
+      </c>
+      <c r="D928" s="5"/>
+      <c r="E928" s="5"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B929" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C929" s="5" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D929" s="5"/>
+      <c r="E929" s="5"/>
+    </row>
+    <row r="930" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B930" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C930" s="5" t="n">
+        <v>3628</v>
+      </c>
+      <c r="D930" s="5"/>
+      <c r="E930" s="5"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B931" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C931" s="5" t="n">
+        <v>328</v>
+      </c>
+      <c r="D931" s="5"/>
+      <c r="E931" s="5"/>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B932" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C932" s="5" t="n">
+        <v>1762</v>
+      </c>
+      <c r="D932" s="5"/>
+      <c r="E932" s="5"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B933" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C933" s="5" t="n">
+        <v>2459</v>
+      </c>
+      <c r="D933" s="5"/>
+      <c r="E933" s="5"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B934" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C934" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D934" s="5"/>
+      <c r="E934" s="5"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B935" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C935" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D935" s="5"/>
+      <c r="E935" s="5"/>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B936" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C936" s="5" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D936" s="5"/>
+      <c r="E936" s="5"/>
+    </row>
+    <row r="937" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B937" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C937" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D937" s="5"/>
+      <c r="E937" s="5"/>
+    </row>
+    <row r="938" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B938" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C938" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D938" s="5"/>
+      <c r="E938" s="5"/>
+    </row>
+    <row r="939" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="7" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B939" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C939" s="5" t="n">
+        <v>964</v>
+      </c>
+      <c r="D939" s="5" t="n">
+        <v>82266</v>
+      </c>
+      <c r="E939" s="5" t="n">
+        <v>14260</v>
+      </c>
+      <c r="F939" s="5" t="n">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B940" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C940" s="5" t="n">
+        <v>304</v>
+      </c>
+      <c r="D940" s="5"/>
+      <c r="E940" s="5"/>
+    </row>
+    <row r="941" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B941" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C941" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D941" s="5"/>
+      <c r="E941" s="5"/>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B942" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C942" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D942" s="5"/>
+      <c r="E942" s="5"/>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B943" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C943" s="5" t="n">
+        <v>867</v>
+      </c>
+      <c r="D943" s="5"/>
+      <c r="E943" s="5"/>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B944" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C944" s="5" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D944" s="5"/>
+      <c r="E944" s="5"/>
+    </row>
+    <row r="945" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B945" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C945" s="5" t="n">
+        <v>3663</v>
+      </c>
+      <c r="D945" s="5"/>
+      <c r="E945" s="5"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B946" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C946" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D946" s="5"/>
+      <c r="E946" s="5"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B947" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C947" s="5" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D947" s="5"/>
+      <c r="E947" s="5"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B948" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C948" s="5" t="n">
+        <v>2497</v>
+      </c>
+      <c r="D948" s="5"/>
+      <c r="E948" s="5"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B949" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C949" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D949" s="5"/>
+      <c r="E949" s="5"/>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B950" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C950" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D950" s="5"/>
+      <c r="E950" s="5"/>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B951" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C951" s="5" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D951" s="5"/>
+      <c r="E951" s="5"/>
+    </row>
+    <row r="952" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B952" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C952" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D952" s="5"/>
+      <c r="E952" s="5"/>
+    </row>
+    <row r="953" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B953" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C953" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D953" s="5"/>
+      <c r="E953" s="5"/>
+    </row>
+    <row r="954" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="7" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B954" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C954" s="5" t="n">
+        <v>966</v>
+      </c>
+      <c r="D954" s="5" t="n">
+        <v>85604</v>
+      </c>
+      <c r="E954" s="5" t="n">
+        <v>14447</v>
+      </c>
+      <c r="F954" s="5" t="n">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B955" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C955" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="D955" s="5"/>
+      <c r="E955" s="5"/>
+    </row>
+    <row r="956" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B956" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C956" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D956" s="5"/>
+      <c r="E956" s="5"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B957" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C957" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D957" s="5"/>
+      <c r="E957" s="5"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B958" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C958" s="5" t="n">
+        <v>871</v>
+      </c>
+      <c r="D958" s="5"/>
+      <c r="E958" s="5"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B959" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C959" s="5" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D959" s="5"/>
+      <c r="E959" s="5"/>
+    </row>
+    <row r="960" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B960" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C960" s="5" t="n">
+        <v>3707</v>
+      </c>
+      <c r="D960" s="5"/>
+      <c r="E960" s="5"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B961" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C961" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D961" s="5"/>
+      <c r="E961" s="5"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B962" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C962" s="5" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D962" s="5"/>
+      <c r="E962" s="5"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B963" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C963" s="5" t="n">
+        <v>2539</v>
+      </c>
+      <c r="D963" s="5"/>
+      <c r="E963" s="5"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B964" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C964" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D964" s="5"/>
+      <c r="E964" s="5"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B965" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C965" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D965" s="5"/>
+      <c r="E965" s="5"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B966" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C966" s="5" t="n">
+        <v>1582</v>
+      </c>
+      <c r="D966" s="5"/>
+      <c r="E966" s="5"/>
+    </row>
+    <row r="967" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D967" s="5"/>
+      <c r="E967" s="5"/>
+    </row>
+    <row r="968" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B968" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C968" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D968" s="5"/>
+      <c r="E968" s="5"/>
+    </row>
+    <row r="969" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="7" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B969" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C969" s="5" t="n">
+        <v>974</v>
+      </c>
+      <c r="D969" s="5" t="n">
+        <v>87660</v>
+      </c>
+      <c r="E969" s="5" t="n">
+        <v>14537</v>
+      </c>
+      <c r="F969" s="5" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B970" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C970" s="5" t="n">
+        <v>313</v>
+      </c>
+      <c r="D970" s="5"/>
+      <c r="E970" s="5"/>
+    </row>
+    <row r="971" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B971" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C971" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D971" s="5"/>
+      <c r="E971" s="5"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B972" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C972" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D972" s="5"/>
+      <c r="E972" s="5"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B973" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C973" s="5" t="n">
+        <v>873</v>
+      </c>
+      <c r="D973" s="5"/>
+      <c r="E973" s="5"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B974" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C974" s="5" t="n">
+        <v>1189</v>
+      </c>
+      <c r="D974" s="5"/>
+      <c r="E974" s="5"/>
+    </row>
+    <row r="975" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B975" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C975" s="5" t="n">
+        <v>3731</v>
+      </c>
+      <c r="D975" s="5"/>
+      <c r="E975" s="5"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B976" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C976" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D976" s="5"/>
+      <c r="E976" s="5"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B977" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C977" s="5" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D977" s="5"/>
+      <c r="E977" s="5"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B978" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C978" s="5" t="n">
+        <v>2561</v>
+      </c>
+      <c r="D978" s="5"/>
+      <c r="E978" s="5"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B979" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C979" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D979" s="5"/>
+      <c r="E979" s="5"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B980" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C980" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D980" s="5"/>
+      <c r="E980" s="5"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B981" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C981" s="5" t="n">
+        <v>1589</v>
+      </c>
+      <c r="D981" s="5"/>
+      <c r="E981" s="5"/>
+    </row>
+    <row r="982" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C982" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D982" s="5"/>
+      <c r="E982" s="5"/>
+    </row>
+    <row r="983" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B983" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C983" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D983" s="5"/>
+      <c r="E983" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9400,10 +10200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P525"/>
+  <dimension ref="A1:P600"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G521" activeCellId="0" sqref="G521"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A577" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B601" activeCellId="0" sqref="B601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16683,7 +17483,7 @@
       </c>
     </row>
     <row r="511" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="7" t="n">
+      <c r="A511" s="3" t="n">
         <v>43963</v>
       </c>
       <c r="B511" s="5" t="s">
@@ -16892,6 +17692,1071 @@
         <v>5</v>
       </c>
       <c r="E525" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="3" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C526" s="5" t="n">
+        <v>946</v>
+      </c>
+      <c r="D526" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="E526" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B527" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C527" s="5" t="n">
+        <v>297</v>
+      </c>
+      <c r="D527" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B528" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C528" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="D528" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B529" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C529" s="5" t="n">
+        <v>816</v>
+      </c>
+      <c r="D529" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E529" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B530" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C530" s="5" t="n">
+        <v>859</v>
+      </c>
+      <c r="D530" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B531" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C531" s="5" t="n">
+        <v>1123</v>
+      </c>
+      <c r="D531" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="E531" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B532" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532" s="5" t="n">
+        <v>3579</v>
+      </c>
+      <c r="D532" s="5" t="n">
+        <v>486</v>
+      </c>
+      <c r="E532" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C533" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D533" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E533" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B534" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C534" s="5" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D534" s="5" t="n">
+        <v>190</v>
+      </c>
+      <c r="E534" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B535" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C535" s="5" t="n">
+        <v>2428</v>
+      </c>
+      <c r="D535" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="E535" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B536" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C536" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B537" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C537" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D537" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E537" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C538" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="D538" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C539" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D539" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E539" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B540" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D540" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E540" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="3" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C541" s="5" t="n">
+        <v>952</v>
+      </c>
+      <c r="D541" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="E541" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B542" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C542" s="5" t="n">
+        <v>298</v>
+      </c>
+      <c r="D542" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B543" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C543" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D543" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E543" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B544" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C544" s="5" t="n">
+        <v>823</v>
+      </c>
+      <c r="D544" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B545" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C545" s="5" t="n">
+        <v>863</v>
+      </c>
+      <c r="D545" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="E545" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B546" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C546" s="5" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D546" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="E546" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B547" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547" s="5" t="n">
+        <v>3628</v>
+      </c>
+      <c r="D547" s="5" t="n">
+        <v>473</v>
+      </c>
+      <c r="E547" s="5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B548" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C548" s="5" t="n">
+        <v>328</v>
+      </c>
+      <c r="D548" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B549" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C549" s="5" t="n">
+        <v>1762</v>
+      </c>
+      <c r="D549" s="5" t="n">
+        <v>183</v>
+      </c>
+      <c r="E549" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B550" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C550" s="5" t="n">
+        <v>2459</v>
+      </c>
+      <c r="D550" s="5" t="n">
+        <v>291</v>
+      </c>
+      <c r="E550" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B551" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C551" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E551" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B552" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C552" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B553" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C553" s="5" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D553" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E553" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B554" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C554" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B555" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D555" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E555" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="7" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C556" s="5" t="n">
+        <v>964</v>
+      </c>
+      <c r="D556" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B557" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C557" s="5" t="n">
+        <v>304</v>
+      </c>
+      <c r="D557" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E557" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B558" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C558" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="D558" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B559" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C559" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D559" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E559" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B560" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C560" s="5" t="n">
+        <v>867</v>
+      </c>
+      <c r="D560" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B561" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C561" s="5" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D561" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="E561" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B562" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C562" s="5" t="n">
+        <v>3663</v>
+      </c>
+      <c r="D562" s="5" t="n">
+        <v>460</v>
+      </c>
+      <c r="E562" s="5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B563" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C563" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D563" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E563" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C564" s="5" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D564" s="5" t="n">
+        <v>197</v>
+      </c>
+      <c r="E564" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C565" s="5" t="n">
+        <v>2497</v>
+      </c>
+      <c r="D565" s="5" t="n">
+        <v>287</v>
+      </c>
+      <c r="E565" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C566" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D566" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B567" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C567" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D567" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E567" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B568" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C568" s="5" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D568" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B569" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C569" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D569" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B570" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D570" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="7" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C571" s="5" t="n">
+        <v>966</v>
+      </c>
+      <c r="D571" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B572" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C572" s="5" t="n">
+        <v>310</v>
+      </c>
+      <c r="D572" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B573" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C573" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D573" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B574" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C574" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D574" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B575" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C575" s="5" t="n">
+        <v>871</v>
+      </c>
+      <c r="D575" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E575" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B576" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C576" s="5" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D576" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="E576" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B577" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" s="5" t="n">
+        <v>3707</v>
+      </c>
+      <c r="D577" s="5" t="n">
+        <v>433</v>
+      </c>
+      <c r="E577" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B578" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C578" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D578" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B579" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C579" s="5" t="n">
+        <v>1812</v>
+      </c>
+      <c r="D579" s="5" t="n">
+        <v>181</v>
+      </c>
+      <c r="E579" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B580" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C580" s="5" t="n">
+        <v>2539</v>
+      </c>
+      <c r="D580" s="5" t="n">
+        <v>323</v>
+      </c>
+      <c r="E580" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B581" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C581" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D581" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E581" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B582" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C582" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D582" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B583" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C583" s="5" t="n">
+        <v>1582</v>
+      </c>
+      <c r="D583" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E583" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C584" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D584" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D585" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E585" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="7" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C586" s="5" t="n">
+        <v>974</v>
+      </c>
+      <c r="D586" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="E586" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C587" s="5" t="n">
+        <v>313</v>
+      </c>
+      <c r="D587" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E587" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B588" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C588" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D588" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B589" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C589" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D589" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="E589" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B590" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590" s="5" t="n">
+        <v>873</v>
+      </c>
+      <c r="D590" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C591" s="5" t="n">
+        <v>1189</v>
+      </c>
+      <c r="D591" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="E591" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B592" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C592" s="5" t="n">
+        <v>3731</v>
+      </c>
+      <c r="D592" s="5" t="n">
+        <v>432</v>
+      </c>
+      <c r="E592" s="5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B593" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C593" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D593" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E593" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B594" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C594" s="5" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D594" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="E594" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B595" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C595" s="5" t="n">
+        <v>2561</v>
+      </c>
+      <c r="D595" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="E595" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B596" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C596" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B597" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C597" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E597" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B598" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C598" s="5" t="n">
+        <v>1589</v>
+      </c>
+      <c r="D598" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B599" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C599" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E599" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B600" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D600" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E600" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F983"/>
+  <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A954" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F969" activeCellId="0" sqref="F969"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A973" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F984" activeCellId="0" sqref="F984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10183,6 +10183,166 @@
       </c>
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
+    </row>
+    <row r="984" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="7" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B984" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C984" s="5" t="n">
+        <v>976</v>
+      </c>
+      <c r="D984" s="5" t="n">
+        <v>88940</v>
+      </c>
+      <c r="E984" s="5" t="n">
+        <v>14594</v>
+      </c>
+      <c r="F984" s="5" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B985" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C985" s="5" t="n">
+        <v>316</v>
+      </c>
+      <c r="D985" s="5"/>
+      <c r="E985" s="5"/>
+    </row>
+    <row r="986" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B986" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C986" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D986" s="5"/>
+      <c r="E986" s="5"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B987" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C987" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D987" s="5"/>
+      <c r="E987" s="5"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B988" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C988" s="5" t="n">
+        <v>880</v>
+      </c>
+      <c r="D988" s="5"/>
+      <c r="E988" s="5"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B989" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C989" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D989" s="5"/>
+      <c r="E989" s="5"/>
+    </row>
+    <row r="990" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B990" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C990" s="5" t="n">
+        <v>3742</v>
+      </c>
+      <c r="D990" s="5"/>
+      <c r="E990" s="5"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B991" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C991" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D991" s="5"/>
+      <c r="E991" s="5"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B992" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C992" s="5" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D992" s="5"/>
+      <c r="E992" s="5"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B993" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C993" s="5" t="n">
+        <v>2568</v>
+      </c>
+      <c r="D993" s="5"/>
+      <c r="E993" s="5"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B994" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C994" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D994" s="5"/>
+      <c r="E994" s="5"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B995" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C995" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D995" s="5"/>
+      <c r="E995" s="5"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B996" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C996" s="5" t="n">
+        <v>1593</v>
+      </c>
+      <c r="D996" s="5"/>
+      <c r="E996" s="5"/>
+    </row>
+    <row r="997" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C997" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D997" s="5"/>
+      <c r="E997" s="5"/>
+    </row>
+    <row r="998" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B998" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C998" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D998" s="5"/>
+      <c r="E998" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10200,10 +10360,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P600"/>
+  <dimension ref="A1:P615"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A577" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B601" activeCellId="0" sqref="B601"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A589" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E618" activeCellId="0" sqref="E618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18760,6 +18920,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="601" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="7" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B601" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C601" s="5" t="n">
+        <v>976</v>
+      </c>
+      <c r="D601" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="E601" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B602" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C602" s="5" t="n">
+        <v>316</v>
+      </c>
+      <c r="D602" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E602" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B603" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C603" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D603" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E603" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B604" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C604" s="5" t="n">
+        <v>824</v>
+      </c>
+      <c r="D604" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E604" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B605" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C605" s="5" t="n">
+        <v>880</v>
+      </c>
+      <c r="D605" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E605" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B606" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C606" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D606" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="E606" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B607" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C607" s="5" t="n">
+        <v>3742</v>
+      </c>
+      <c r="D607" s="5" t="n">
+        <v>434</v>
+      </c>
+      <c r="E607" s="5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B608" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C608" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="D608" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E608" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B609" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C609" s="5" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D609" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="E609" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B610" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C610" s="5" t="n">
+        <v>2568</v>
+      </c>
+      <c r="D610" s="5" t="n">
+        <v>282</v>
+      </c>
+      <c r="E610" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B611" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C611" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D611" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E611" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B612" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C612" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D612" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B613" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C613" s="5" t="n">
+        <v>1593</v>
+      </c>
+      <c r="D613" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E613" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B614" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C614" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D614" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B615" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C615" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D615" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E615" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F998"/>
+  <dimension ref="A1:F1013"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A973" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F984" activeCellId="0" sqref="F984"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A988" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1007" activeCellId="0" sqref="E1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10343,6 +10343,166 @@
       </c>
       <c r="D998" s="5"/>
       <c r="E998" s="5"/>
+    </row>
+    <row r="999" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="7" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B999" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C999" s="5" t="n">
+        <v>981</v>
+      </c>
+      <c r="D999" s="5" t="n">
+        <v>90421</v>
+      </c>
+      <c r="E999" s="5" t="n">
+        <v>14655</v>
+      </c>
+      <c r="F999" s="5" t="n">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1000" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1000" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="D1000" s="5"/>
+      <c r="E1000" s="5"/>
+    </row>
+    <row r="1001" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1001" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1001" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1002" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1002" s="5" t="n">
+        <v>825</v>
+      </c>
+      <c r="D1002" s="5"/>
+      <c r="E1002" s="5"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1003" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1003" s="5" t="n">
+        <v>883</v>
+      </c>
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1004" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1004" s="5" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D1004" s="5"/>
+      <c r="E1004" s="5"/>
+    </row>
+    <row r="1005" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1005" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1005" s="5" t="n">
+        <v>3759</v>
+      </c>
+      <c r="D1005" s="5"/>
+      <c r="E1005" s="5"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1006" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1006" s="5" t="n">
+        <v>333</v>
+      </c>
+      <c r="D1006" s="5"/>
+      <c r="E1006" s="5"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1007" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1007" s="5" t="n">
+        <v>1853</v>
+      </c>
+      <c r="D1007" s="5"/>
+      <c r="E1007" s="5"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1008" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1008" s="5" t="n">
+        <v>2575</v>
+      </c>
+      <c r="D1008" s="5"/>
+      <c r="E1008" s="5"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1009" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1009" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1009" s="5"/>
+      <c r="E1009" s="5"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1010" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1010" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1010" s="5"/>
+      <c r="E1010" s="5"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1011" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1011" s="5" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D1011" s="5"/>
+      <c r="E1011" s="5"/>
+    </row>
+    <row r="1012" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1012" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1012" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1012" s="5"/>
+      <c r="E1012" s="5"/>
+    </row>
+    <row r="1013" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1013" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1013" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1013" s="5"/>
+      <c r="E1013" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10360,10 +10520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P615"/>
+  <dimension ref="A1:P630"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A589" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E618" activeCellId="0" sqref="E618"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A606" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G630" activeCellId="0" sqref="G630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19133,6 +19293,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="616" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="7" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C616" s="5" t="n">
+        <v>981</v>
+      </c>
+      <c r="D616" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B617" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C617" s="5" t="n">
+        <v>317</v>
+      </c>
+      <c r="D617" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E617" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B618" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C618" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D618" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B619" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C619" s="5" t="n">
+        <v>825</v>
+      </c>
+      <c r="D619" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="E619" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B620" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C620" s="5" t="n">
+        <v>883</v>
+      </c>
+      <c r="D620" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B621" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C621" s="5" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D621" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="E621" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B622" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C622" s="5" t="n">
+        <v>3759</v>
+      </c>
+      <c r="D622" s="5" t="n">
+        <v>428</v>
+      </c>
+      <c r="E622" s="5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B623" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C623" s="5" t="n">
+        <v>333</v>
+      </c>
+      <c r="D623" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E623" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B624" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C624" s="5" t="n">
+        <v>1853</v>
+      </c>
+      <c r="D624" s="5" t="n">
+        <v>172</v>
+      </c>
+      <c r="E624" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B625" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C625" s="5" t="n">
+        <v>2575</v>
+      </c>
+      <c r="D625" s="5" t="n">
+        <v>274</v>
+      </c>
+      <c r="E625" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B626" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C626" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D626" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E626" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B627" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C627" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E627" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B628" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628" s="5" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D628" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B629" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C629" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D629" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E629" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B630" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D630" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1013"/>
+  <dimension ref="A1:F1043"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A988" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1007" activeCellId="0" sqref="E1007"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1017" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1036" activeCellId="0" sqref="E1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10503,6 +10503,326 @@
       </c>
       <c r="D1013" s="5"/>
       <c r="E1013" s="5"/>
+    </row>
+    <row r="1014" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="7" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B1014" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1014" s="5" t="n">
+        <v>987</v>
+      </c>
+      <c r="D1014" s="5" t="n">
+        <v>92594</v>
+      </c>
+      <c r="E1014" s="5" t="n">
+        <v>14751</v>
+      </c>
+      <c r="F1014" s="5" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1015" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1015" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D1015" s="5"/>
+      <c r="E1015" s="5"/>
+    </row>
+    <row r="1016" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1016" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1016" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D1016" s="5"/>
+      <c r="E1016" s="5"/>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1017" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1017" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D1017" s="5"/>
+      <c r="E1017" s="5"/>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1018" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1018" s="5" t="n">
+        <v>894</v>
+      </c>
+      <c r="D1018" s="5"/>
+      <c r="E1018" s="5"/>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1019" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1019" s="5" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D1019" s="5"/>
+      <c r="E1019" s="5"/>
+    </row>
+    <row r="1020" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1020" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1020" s="5" t="n">
+        <v>3780</v>
+      </c>
+      <c r="D1020" s="5"/>
+      <c r="E1020" s="5"/>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1021" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1021" s="5" t="n">
+        <v>334</v>
+      </c>
+      <c r="D1021" s="5"/>
+      <c r="E1021" s="5"/>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1022" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1022" s="5" t="n">
+        <v>1867</v>
+      </c>
+      <c r="D1022" s="5"/>
+      <c r="E1022" s="5"/>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1023" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1023" s="5" t="n">
+        <v>2584</v>
+      </c>
+      <c r="D1023" s="5"/>
+      <c r="E1023" s="5"/>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1024" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1024" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1024" s="5"/>
+      <c r="E1024" s="5"/>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1025" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1025" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1025" s="5"/>
+      <c r="E1025" s="5"/>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1026" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1026" s="5" t="n">
+        <v>1617</v>
+      </c>
+      <c r="D1026" s="5"/>
+      <c r="E1026" s="5"/>
+    </row>
+    <row r="1027" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1027" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1027" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1027" s="5"/>
+      <c r="E1027" s="5"/>
+    </row>
+    <row r="1028" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1028" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1028" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1028" s="5"/>
+      <c r="E1028" s="5"/>
+    </row>
+    <row r="1029" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="7" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B1029" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1029" s="5" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1029" s="5" t="n">
+        <v>95173</v>
+      </c>
+      <c r="E1029" s="5" t="n">
+        <v>14856</v>
+      </c>
+      <c r="F1029" s="5" t="n">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1030" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1030" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D1030" s="5"/>
+      <c r="E1030" s="5"/>
+    </row>
+    <row r="1031" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1031" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1031" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D1031" s="5"/>
+      <c r="E1031" s="5"/>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1032" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1032" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D1032" s="5"/>
+      <c r="E1032" s="5"/>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1033" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1033" s="5" t="n">
+        <v>896</v>
+      </c>
+      <c r="D1033" s="5"/>
+      <c r="E1033" s="5"/>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1034" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1034" s="5" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D1034" s="5"/>
+      <c r="E1034" s="5"/>
+    </row>
+    <row r="1035" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1035" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1035" s="5" t="n">
+        <v>3806</v>
+      </c>
+      <c r="D1035" s="5"/>
+      <c r="E1035" s="5"/>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1036" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1036" s="5" t="n">
+        <v>334</v>
+      </c>
+      <c r="D1036" s="5"/>
+      <c r="E1036" s="5"/>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1037" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1037" s="5" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D1037" s="5"/>
+      <c r="E1037" s="5"/>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1038" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1038" s="5" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D1038" s="5"/>
+      <c r="E1038" s="5"/>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1039" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1039" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1039" s="5"/>
+      <c r="E1039" s="5"/>
+    </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1040" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1040" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1040" s="5"/>
+      <c r="E1040" s="5"/>
+    </row>
+    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1041" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1041" s="5" t="n">
+        <v>1632</v>
+      </c>
+      <c r="D1041" s="5"/>
+      <c r="E1041" s="5"/>
+    </row>
+    <row r="1042" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1042" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1042" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1042" s="5"/>
+      <c r="E1042" s="5"/>
+    </row>
+    <row r="1043" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1043" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1043" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1043" s="5"/>
+      <c r="E1043" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10520,10 +10840,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P630"/>
+  <dimension ref="A1:P660"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A606" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G630" activeCellId="0" sqref="G630"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A640" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G653" activeCellId="0" sqref="G653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19506,6 +19826,432 @@
         <v>28</v>
       </c>
     </row>
+    <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="7" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B631" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C631" s="5" t="n">
+        <v>987</v>
+      </c>
+      <c r="D631" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="E631" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B632" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C632" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D632" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B633" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C633" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D633" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E633" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B634" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C634" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D634" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E634" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B635" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C635" s="5" t="n">
+        <v>894</v>
+      </c>
+      <c r="D635" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E635" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B636" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C636" s="5" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D636" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E636" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B637" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C637" s="5" t="n">
+        <v>3780</v>
+      </c>
+      <c r="D637" s="5" t="n">
+        <v>412</v>
+      </c>
+      <c r="E637" s="5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B638" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C638" s="5" t="n">
+        <v>334</v>
+      </c>
+      <c r="D638" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E638" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B639" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C639" s="5" t="n">
+        <v>1867</v>
+      </c>
+      <c r="D639" s="5" t="n">
+        <v>191</v>
+      </c>
+      <c r="E639" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B640" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C640" s="5" t="n">
+        <v>2584</v>
+      </c>
+      <c r="D640" s="5" t="n">
+        <v>307</v>
+      </c>
+      <c r="E640" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B641" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C641" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D641" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E641" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B642" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C642" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D642" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B643" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643" s="5" t="n">
+        <v>1617</v>
+      </c>
+      <c r="D643" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E643" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B644" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C644" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B645" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D645" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E645" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="7" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C646" s="5" t="n">
+        <v>995</v>
+      </c>
+      <c r="D646" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="E646" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B647" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C647" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D647" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E647" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B648" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C648" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D648" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E648" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B649" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C649" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D649" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E649" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B650" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" s="5" t="n">
+        <v>896</v>
+      </c>
+      <c r="D650" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E650" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B651" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C651" s="5" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D651" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="E651" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B652" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C652" s="5" t="n">
+        <v>3806</v>
+      </c>
+      <c r="D652" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="E652" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B653" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C653" s="5" t="n">
+        <v>334</v>
+      </c>
+      <c r="D653" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E653" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B654" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C654" s="5" t="n">
+        <v>1892</v>
+      </c>
+      <c r="D654" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="E654" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B655" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C655" s="5" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D655" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="E655" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B656" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C656" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E656" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B657" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C657" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D657" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E657" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B658" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C658" s="5" t="n">
+        <v>1632</v>
+      </c>
+      <c r="D658" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E658" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B659" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C659" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D659" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E659" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B660" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E660" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -298,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1043"/>
+  <dimension ref="A1:F1058"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1017" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1036" activeCellId="0" sqref="E1036"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1029" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1044" activeCellId="0" sqref="F1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10823,6 +10823,166 @@
       </c>
       <c r="D1043" s="5"/>
       <c r="E1043" s="5"/>
+    </row>
+    <row r="1044" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="7" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B1044" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1044" s="5" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D1044" s="5" t="n">
+        <v>97607</v>
+      </c>
+      <c r="E1044" s="5" t="n">
+        <v>14969</v>
+      </c>
+      <c r="F1044" s="5" t="n">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1045" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1045" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D1045" s="5"/>
+      <c r="E1045" s="5"/>
+    </row>
+    <row r="1046" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1046" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1046" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D1046" s="5"/>
+      <c r="E1046" s="5"/>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1047" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1047" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D1047" s="5"/>
+      <c r="E1047" s="5"/>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1048" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1048" s="5" t="n">
+        <v>909</v>
+      </c>
+      <c r="D1048" s="5"/>
+      <c r="E1048" s="5"/>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1049" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1049" s="5" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D1049" s="5"/>
+      <c r="E1049" s="5"/>
+    </row>
+    <row r="1050" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1050" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1050" s="5" t="n">
+        <v>3841</v>
+      </c>
+      <c r="D1050" s="5"/>
+      <c r="E1050" s="5"/>
+    </row>
+    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1051" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1051" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="D1051" s="5"/>
+      <c r="E1051" s="5"/>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1052" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1052" s="5" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D1052" s="5"/>
+      <c r="E1052" s="5"/>
+    </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1053" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1053" s="5" t="n">
+        <v>2634</v>
+      </c>
+      <c r="D1053" s="5"/>
+      <c r="E1053" s="5"/>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1054" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1054" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1054" s="5"/>
+      <c r="E1054" s="5"/>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1055" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1055" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1055" s="5"/>
+      <c r="E1055" s="5"/>
+    </row>
+    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1056" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1056" s="5" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D1056" s="5"/>
+      <c r="E1056" s="5"/>
+    </row>
+    <row r="1057" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1057" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1057" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1057" s="5"/>
+      <c r="E1057" s="5"/>
+    </row>
+    <row r="1058" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1058" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1058" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1058" s="5"/>
+      <c r="E1058" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10840,10 +11000,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P660"/>
+  <dimension ref="A1:P675"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A640" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G653" activeCellId="0" sqref="G653"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A648" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H675" activeCellId="0" sqref="H675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20252,6 +20412,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="661" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="7" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C661" s="5" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D661" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E661" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B662" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C662" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="D662" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E662" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B663" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C663" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D663" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E663" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B664" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C664" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D664" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="E664" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B665" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C665" s="5" t="n">
+        <v>909</v>
+      </c>
+      <c r="D665" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="E665" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B666" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C666" s="5" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D666" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="E666" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B667" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C667" s="5" t="n">
+        <v>3841</v>
+      </c>
+      <c r="D667" s="5" t="n">
+        <v>389</v>
+      </c>
+      <c r="E667" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B668" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C668" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="D668" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E668" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B669" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C669" s="5" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D669" s="5" t="n">
+        <v>173</v>
+      </c>
+      <c r="E669" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B670" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C670" s="5" t="n">
+        <v>2634</v>
+      </c>
+      <c r="D670" s="5" t="n">
+        <v>262</v>
+      </c>
+      <c r="E670" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B671" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C671" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D671" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E671" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B672" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C672" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D672" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E672" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B673" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C673" s="5" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D673" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E673" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B674" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C674" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D674" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E674" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E675" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -236,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,6 +273,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1073"/>
+  <dimension ref="A1:F1088"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1052" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1070" activeCellId="0" sqref="E1070"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1061" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1080" activeCellId="0" sqref="E1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10985,7 +10993,7 @@
       <c r="E1058" s="6"/>
     </row>
     <row r="1059" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="8" t="n">
+      <c r="A1059" s="4" t="n">
         <v>43974</v>
       </c>
       <c r="B1059" s="6" t="s">
@@ -11143,6 +11151,166 @@
       </c>
       <c r="D1073" s="6"/>
       <c r="E1073" s="6"/>
+    </row>
+    <row r="1074" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="8" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B1074" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1074" s="10" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D1074" s="9" t="n">
+        <v>101713</v>
+      </c>
+      <c r="E1074" s="9" t="n">
+        <v>15101</v>
+      </c>
+      <c r="F1074" s="9" t="n">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1075" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1075" s="10" t="n">
+        <v>322</v>
+      </c>
+      <c r="D1075" s="10"/>
+      <c r="E1075" s="10"/>
+    </row>
+    <row r="1076" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1076" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1076" s="10" t="n">
+        <v>258</v>
+      </c>
+      <c r="D1076" s="10"/>
+      <c r="E1076" s="10"/>
+    </row>
+    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1077" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1077" s="10" t="n">
+        <v>826</v>
+      </c>
+      <c r="D1077" s="10"/>
+      <c r="E1077" s="10"/>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1078" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1078" s="10" t="n">
+        <v>917</v>
+      </c>
+      <c r="D1078" s="10"/>
+      <c r="E1078" s="10"/>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1079" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1079" s="10" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D1079" s="10"/>
+      <c r="E1079" s="10"/>
+    </row>
+    <row r="1080" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1080" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1080" s="10" t="n">
+        <v>3876</v>
+      </c>
+      <c r="D1080" s="10"/>
+      <c r="E1080" s="10"/>
+    </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1081" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1081" s="10" t="n">
+        <v>335</v>
+      </c>
+      <c r="D1081" s="10"/>
+      <c r="E1081" s="10"/>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1082" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1082" s="10" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D1082" s="10"/>
+      <c r="E1082" s="10"/>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1083" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1083" s="10" t="n">
+        <v>2665</v>
+      </c>
+      <c r="D1083" s="10"/>
+      <c r="E1083" s="10"/>
+    </row>
+    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1084" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1084" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1084" s="10"/>
+      <c r="E1084" s="10"/>
+    </row>
+    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1085" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1085" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1085" s="10"/>
+      <c r="E1085" s="10"/>
+    </row>
+    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1086" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1086" s="10" t="n">
+        <v>1658</v>
+      </c>
+      <c r="D1086" s="10"/>
+      <c r="E1086" s="10"/>
+    </row>
+    <row r="1087" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1087" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1087" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1087" s="10"/>
+      <c r="E1087" s="10"/>
+    </row>
+    <row r="1088" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1088" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1088" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1088" s="10"/>
+      <c r="E1088" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11160,10 +11328,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P690"/>
+  <dimension ref="A1:P705"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A664" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F689" activeCellId="0" sqref="F689"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A677" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G705" activeCellId="0" sqref="G705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11177,16 +11345,16 @@
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17211,17 +17379,17 @@
       <c r="E424" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F424" s="10"/>
-      <c r="G424" s="10"/>
-      <c r="H424" s="10"/>
-      <c r="I424" s="10"/>
-      <c r="J424" s="10"/>
-      <c r="K424" s="10"/>
-      <c r="L424" s="10"/>
-      <c r="M424" s="10"/>
-      <c r="N424" s="10"/>
-      <c r="O424" s="10"/>
-      <c r="P424" s="10"/>
+      <c r="F424" s="12"/>
+      <c r="G424" s="12"/>
+      <c r="H424" s="12"/>
+      <c r="I424" s="12"/>
+      <c r="J424" s="12"/>
+      <c r="K424" s="12"/>
+      <c r="L424" s="12"/>
+      <c r="M424" s="12"/>
+      <c r="N424" s="12"/>
+      <c r="O424" s="12"/>
+      <c r="P424" s="12"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="6" t="s">
@@ -20786,7 +20954,7 @@
       </c>
     </row>
     <row r="676" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="8" t="n">
+      <c r="A676" s="4" t="n">
         <v>43974</v>
       </c>
       <c r="B676" s="6" t="s">
@@ -20995,6 +21163,219 @@
         <v>28</v>
       </c>
       <c r="E690" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="8" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B691" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C691" s="10" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D691" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="E691" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B692" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C692" s="10" t="n">
+        <v>322</v>
+      </c>
+      <c r="D692" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E692" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C693" s="10" t="n">
+        <v>258</v>
+      </c>
+      <c r="D693" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E693" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B694" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C694" s="10" t="n">
+        <v>826</v>
+      </c>
+      <c r="D694" s="10" t="n">
+        <v>102</v>
+      </c>
+      <c r="E694" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B695" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C695" s="10" t="n">
+        <v>917</v>
+      </c>
+      <c r="D695" s="10" t="n">
+        <v>69</v>
+      </c>
+      <c r="E695" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B696" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C696" s="10" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D696" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="E696" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B697" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C697" s="10" t="n">
+        <v>3876</v>
+      </c>
+      <c r="D697" s="10" t="n">
+        <v>379</v>
+      </c>
+      <c r="E697" s="10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B698" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C698" s="10" t="n">
+        <v>335</v>
+      </c>
+      <c r="D698" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E698" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B699" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C699" s="10" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D699" s="10" t="n">
+        <v>152</v>
+      </c>
+      <c r="E699" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B700" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C700" s="10" t="n">
+        <v>2665</v>
+      </c>
+      <c r="D700" s="10" t="n">
+        <v>352</v>
+      </c>
+      <c r="E700" s="10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B701" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C701" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D701" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E701" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B702" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C702" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="D702" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E702" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B703" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C703" s="10" t="n">
+        <v>1658</v>
+      </c>
+      <c r="D703" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E703" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B704" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C704" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D704" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E704" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B705" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C705" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D705" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E705" s="10" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -269,16 +269,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1088"/>
+  <dimension ref="A1:F1103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1061" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1080" activeCellId="0" sqref="E1080"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1075" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1104" activeCellId="1" sqref="H706:I723 C1104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11153,164 +11153,324 @@
       <c r="E1073" s="6"/>
     </row>
     <row r="1074" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="8" t="n">
+      <c r="A1074" s="4" t="n">
         <v>43975</v>
       </c>
-      <c r="B1074" s="9" t="s">
+      <c r="B1074" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1074" s="10" t="n">
+      <c r="C1074" s="9" t="n">
         <v>1019</v>
       </c>
-      <c r="D1074" s="9" t="n">
+      <c r="D1074" s="8" t="n">
         <v>101713</v>
       </c>
-      <c r="E1074" s="9" t="n">
+      <c r="E1074" s="8" t="n">
         <v>15101</v>
       </c>
-      <c r="F1074" s="9" t="n">
+      <c r="F1074" s="8" t="n">
         <v>2270</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1075" s="9" t="s">
+      <c r="B1075" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1075" s="10" t="n">
+      <c r="C1075" s="9" t="n">
         <v>322</v>
       </c>
-      <c r="D1075" s="10"/>
-      <c r="E1075" s="10"/>
+      <c r="D1075" s="9"/>
+      <c r="E1075" s="9"/>
     </row>
     <row r="1076" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1076" s="9" t="s">
+      <c r="B1076" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1076" s="10" t="n">
+      <c r="C1076" s="9" t="n">
         <v>258</v>
       </c>
-      <c r="D1076" s="10"/>
-      <c r="E1076" s="10"/>
+      <c r="D1076" s="9"/>
+      <c r="E1076" s="9"/>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1077" s="9" t="s">
+      <c r="B1077" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1077" s="10" t="n">
+      <c r="C1077" s="9" t="n">
         <v>826</v>
       </c>
-      <c r="D1077" s="10"/>
-      <c r="E1077" s="10"/>
+      <c r="D1077" s="9"/>
+      <c r="E1077" s="9"/>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1078" s="9" t="s">
+      <c r="B1078" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1078" s="10" t="n">
+      <c r="C1078" s="9" t="n">
         <v>917</v>
       </c>
-      <c r="D1078" s="10"/>
-      <c r="E1078" s="10"/>
+      <c r="D1078" s="9"/>
+      <c r="E1078" s="9"/>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1079" s="9" t="s">
+      <c r="B1079" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1079" s="10" t="n">
+      <c r="C1079" s="9" t="n">
         <v>1224</v>
       </c>
-      <c r="D1079" s="10"/>
-      <c r="E1079" s="10"/>
+      <c r="D1079" s="9"/>
+      <c r="E1079" s="9"/>
     </row>
     <row r="1080" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1080" s="9" t="s">
+      <c r="B1080" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1080" s="10" t="n">
+      <c r="C1080" s="9" t="n">
         <v>3876</v>
       </c>
-      <c r="D1080" s="10"/>
-      <c r="E1080" s="10"/>
+      <c r="D1080" s="9"/>
+      <c r="E1080" s="9"/>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1081" s="9" t="s">
+      <c r="B1081" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1081" s="10" t="n">
+      <c r="C1081" s="9" t="n">
         <v>335</v>
       </c>
-      <c r="D1081" s="10"/>
-      <c r="E1081" s="10"/>
+      <c r="D1081" s="9"/>
+      <c r="E1081" s="9"/>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1082" s="9" t="s">
+      <c r="B1082" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1082" s="10" t="n">
+      <c r="C1082" s="9" t="n">
         <v>1934</v>
       </c>
-      <c r="D1082" s="10"/>
-      <c r="E1082" s="10"/>
+      <c r="D1082" s="9"/>
+      <c r="E1082" s="9"/>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1083" s="9" t="s">
+      <c r="B1083" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1083" s="10" t="n">
+      <c r="C1083" s="9" t="n">
         <v>2665</v>
       </c>
-      <c r="D1083" s="10"/>
-      <c r="E1083" s="10"/>
+      <c r="D1083" s="9"/>
+      <c r="E1083" s="9"/>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1084" s="9" t="s">
+      <c r="B1084" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1084" s="10" t="n">
+      <c r="C1084" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="D1084" s="10"/>
-      <c r="E1084" s="10"/>
+      <c r="D1084" s="9"/>
+      <c r="E1084" s="9"/>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1085" s="9" t="s">
+      <c r="B1085" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1085" s="10" t="n">
+      <c r="C1085" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="D1085" s="10"/>
-      <c r="E1085" s="10"/>
+      <c r="D1085" s="9"/>
+      <c r="E1085" s="9"/>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1086" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1086" s="10" t="n">
+      <c r="B1086" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1086" s="9" t="n">
         <v>1658</v>
       </c>
-      <c r="D1086" s="10"/>
-      <c r="E1086" s="10"/>
+      <c r="D1086" s="9"/>
+      <c r="E1086" s="9"/>
     </row>
     <row r="1087" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1087" s="9" t="s">
+      <c r="B1087" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1087" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D1087" s="10"/>
-      <c r="E1087" s="10"/>
+      <c r="C1087" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1087" s="9"/>
+      <c r="E1087" s="9"/>
     </row>
     <row r="1088" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1088" s="9" t="s">
+      <c r="B1088" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1088" s="10" t="n">
+      <c r="C1088" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D1088" s="10"/>
-      <c r="E1088" s="10"/>
+      <c r="D1088" s="9"/>
+      <c r="E1088" s="9"/>
+    </row>
+    <row r="1089" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="10" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B1089" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1089" s="8" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D1089" s="8" t="n">
+        <v>103508</v>
+      </c>
+      <c r="E1089" s="8" t="n">
+        <v>15156</v>
+      </c>
+      <c r="F1089" s="8" t="n">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1090" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1090" s="8" t="n">
+        <v>322</v>
+      </c>
+      <c r="D1090" s="8"/>
+      <c r="E1090" s="8"/>
+    </row>
+    <row r="1091" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1091" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1091" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1091" s="8"/>
+      <c r="E1091" s="8"/>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1092" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1092" s="8" t="n">
+        <v>827</v>
+      </c>
+      <c r="D1092" s="8"/>
+      <c r="E1092" s="8"/>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1093" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1093" s="8" t="n">
+        <v>917</v>
+      </c>
+      <c r="D1093" s="8"/>
+      <c r="E1093" s="8"/>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1094" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1094" s="8" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D1094" s="8"/>
+      <c r="E1094" s="8"/>
+    </row>
+    <row r="1095" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1095" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1095" s="8" t="n">
+        <v>3892</v>
+      </c>
+      <c r="D1095" s="8"/>
+      <c r="E1095" s="8"/>
+    </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1096" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1096" s="8" t="n">
+        <v>335</v>
+      </c>
+      <c r="D1096" s="8"/>
+      <c r="E1096" s="8"/>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1097" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1097" s="8" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D1097" s="8"/>
+      <c r="E1097" s="8"/>
+    </row>
+    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1098" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1098" s="8" t="n">
+        <v>2669</v>
+      </c>
+      <c r="D1098" s="8"/>
+      <c r="E1098" s="8"/>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1099" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1099" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1099" s="8"/>
+      <c r="E1099" s="8"/>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1100" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1100" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1100" s="8"/>
+      <c r="E1100" s="8"/>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1101" s="8" t="n">
+        <v>1659</v>
+      </c>
+      <c r="D1101" s="8"/>
+      <c r="E1101" s="8"/>
+    </row>
+    <row r="1102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1102" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1102" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1102" s="8"/>
+      <c r="E1102" s="8"/>
+    </row>
+    <row r="1103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1103" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1103" s="8"/>
+      <c r="E1103" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11328,10 +11488,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P705"/>
+  <dimension ref="A1:P720"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A677" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G705" activeCellId="0" sqref="G705"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A694" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H706" activeCellId="0" sqref="H706:I723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21167,215 +21327,428 @@
       </c>
     </row>
     <row r="691" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="8" t="n">
+      <c r="A691" s="4" t="n">
         <v>43975</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C691" s="10" t="n">
+      <c r="C691" s="9" t="n">
         <v>1019</v>
       </c>
-      <c r="D691" s="10" t="n">
+      <c r="D691" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="E691" s="10" t="s">
+      <c r="E691" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C692" s="10" t="n">
+      <c r="C692" s="9" t="n">
         <v>322</v>
       </c>
-      <c r="D692" s="10" t="n">
+      <c r="D692" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="E692" s="10" t="s">
+      <c r="E692" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="9" t="s">
+      <c r="B693" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C693" s="10" t="n">
+      <c r="C693" s="9" t="n">
         <v>258</v>
       </c>
-      <c r="D693" s="10" t="n">
+      <c r="D693" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E693" s="10" t="s">
+      <c r="E693" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C694" s="10" t="n">
+      <c r="C694" s="9" t="n">
         <v>826</v>
       </c>
-      <c r="D694" s="10" t="n">
+      <c r="D694" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="E694" s="10" t="s">
+      <c r="E694" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="9" t="s">
+      <c r="B695" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C695" s="10" t="n">
+      <c r="C695" s="9" t="n">
         <v>917</v>
       </c>
-      <c r="D695" s="10" t="n">
+      <c r="D695" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="E695" s="10" t="s">
+      <c r="E695" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C696" s="10" t="n">
+      <c r="C696" s="9" t="n">
         <v>1224</v>
       </c>
-      <c r="D696" s="10" t="n">
+      <c r="D696" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="E696" s="10" t="s">
+      <c r="E696" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B697" s="9" t="s">
+      <c r="B697" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C697" s="10" t="n">
+      <c r="C697" s="9" t="n">
         <v>3876</v>
       </c>
-      <c r="D697" s="10" t="n">
+      <c r="D697" s="9" t="n">
         <v>379</v>
       </c>
-      <c r="E697" s="10" t="n">
+      <c r="E697" s="9" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B698" s="9" t="s">
+      <c r="B698" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C698" s="10" t="n">
+      <c r="C698" s="9" t="n">
         <v>335</v>
       </c>
-      <c r="D698" s="10" t="n">
+      <c r="D698" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="E698" s="10" t="s">
+      <c r="E698" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B699" s="9" t="s">
+      <c r="B699" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C699" s="10" t="n">
+      <c r="C699" s="9" t="n">
         <v>1934</v>
       </c>
-      <c r="D699" s="10" t="n">
+      <c r="D699" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="E699" s="10" t="s">
+      <c r="E699" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B700" s="9" t="s">
+      <c r="B700" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C700" s="10" t="n">
+      <c r="C700" s="9" t="n">
         <v>2665</v>
       </c>
-      <c r="D700" s="10" t="n">
+      <c r="D700" s="9" t="n">
         <v>352</v>
       </c>
-      <c r="E700" s="10" t="n">
+      <c r="E700" s="9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B701" s="9" t="s">
+      <c r="B701" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C701" s="10" t="n">
+      <c r="C701" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="D701" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E701" s="10" t="s">
+      <c r="D701" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E701" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B702" s="9" t="s">
+      <c r="B702" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C702" s="10" t="n">
+      <c r="C702" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="D702" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E702" s="10" t="s">
+      <c r="D702" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E702" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B703" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C703" s="10" t="n">
+      <c r="B703" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C703" s="9" t="n">
         <v>1658</v>
       </c>
-      <c r="D703" s="10" t="n">
+      <c r="D703" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="E703" s="10" t="s">
+      <c r="E703" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B704" s="9" t="s">
+      <c r="B704" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C704" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D704" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E704" s="10" t="s">
+      <c r="C704" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D704" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E704" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B705" s="9" t="s">
+      <c r="B705" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C705" s="10" t="n">
+      <c r="C705" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D705" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E705" s="10" t="s">
+      <c r="D705" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E705" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="10" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B706" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C706" s="8" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D706" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E706" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B707" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C707" s="8" t="n">
+        <v>322</v>
+      </c>
+      <c r="D707" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E707" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B708" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C708" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D708" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E708" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B709" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C709" s="8" t="n">
+        <v>827</v>
+      </c>
+      <c r="D709" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="E709" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B710" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C710" s="8" t="n">
+        <v>917</v>
+      </c>
+      <c r="D710" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E710" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B711" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C711" s="8" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D711" s="8" t="n">
+        <v>84</v>
+      </c>
+      <c r="E711" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B712" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C712" s="8" t="n">
+        <v>3892</v>
+      </c>
+      <c r="D712" s="8" t="n">
+        <v>384</v>
+      </c>
+      <c r="E712" s="8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B713" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C713" s="8" t="n">
+        <v>335</v>
+      </c>
+      <c r="D713" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E713" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B714" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C714" s="8" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D714" s="8" t="n">
+        <v>156</v>
+      </c>
+      <c r="E714" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B715" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C715" s="8" t="n">
+        <v>2669</v>
+      </c>
+      <c r="D715" s="8" t="n">
+        <v>342</v>
+      </c>
+      <c r="E715" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B716" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C716" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D716" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E716" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B717" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C717" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D717" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E717" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B718" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C718" s="8" t="n">
+        <v>1659</v>
+      </c>
+      <c r="D718" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E718" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B719" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C719" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D719" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E719" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B720" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C720" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D720" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E720" s="8" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1103"/>
+  <dimension ref="A1:F1118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1075" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1104" activeCellId="1" sqref="H706:I723 C1104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1093" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1104" activeCellId="0" sqref="F1104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11471,6 +11471,166 @@
       </c>
       <c r="D1103" s="8"/>
       <c r="E1103" s="8"/>
+    </row>
+    <row r="1104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="10" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B1104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1104" s="8" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D1104" s="8" t="n">
+        <v>104880</v>
+      </c>
+      <c r="E1104" s="8" t="n">
+        <v>15185</v>
+      </c>
+      <c r="F1104" s="8" t="n">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1105" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1105" s="8" t="n">
+        <v>323</v>
+      </c>
+      <c r="D1105" s="8"/>
+      <c r="E1105" s="8"/>
+    </row>
+    <row r="1106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1106" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1106" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1106" s="8"/>
+      <c r="E1106" s="8"/>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1107" s="8" t="n">
+        <v>828</v>
+      </c>
+      <c r="D1107" s="8"/>
+      <c r="E1107" s="8"/>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1108" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1108" s="8" t="n">
+        <v>918</v>
+      </c>
+      <c r="D1108" s="8"/>
+      <c r="E1108" s="8"/>
+    </row>
+    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1109" s="8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D1109" s="8"/>
+      <c r="E1109" s="8"/>
+    </row>
+    <row r="1110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1110" s="8" t="n">
+        <v>3898</v>
+      </c>
+      <c r="D1110" s="8"/>
+      <c r="E1110" s="8"/>
+    </row>
+    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1111" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1111" s="8" t="n">
+        <v>336</v>
+      </c>
+      <c r="D1111" s="8"/>
+      <c r="E1111" s="8"/>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1112" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1112" s="8" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D1112" s="8"/>
+      <c r="E1112" s="8"/>
+    </row>
+    <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1113" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1113" s="8" t="n">
+        <v>2675</v>
+      </c>
+      <c r="D1113" s="8"/>
+      <c r="E1113" s="8"/>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1114" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1114" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1114" s="8"/>
+      <c r="E1114" s="8"/>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1115" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1115" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1115" s="8"/>
+      <c r="E1115" s="8"/>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1116" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1116" s="8" t="n">
+        <v>1659</v>
+      </c>
+      <c r="D1116" s="8"/>
+      <c r="E1116" s="8"/>
+    </row>
+    <row r="1117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1117" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1117" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1117" s="8"/>
+      <c r="E1117" s="8"/>
+    </row>
+    <row r="1118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1118" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1118" s="8"/>
+      <c r="E1118" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11488,10 +11648,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P720"/>
+  <dimension ref="A1:P735"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A694" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H706" activeCellId="0" sqref="H706:I723"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A707" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C736" activeCellId="0" sqref="C736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21752,6 +21912,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="721" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="10" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B721" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C721" s="8" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D721" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E721" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B722" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C722" s="8" t="n">
+        <v>323</v>
+      </c>
+      <c r="D722" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="E722" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B723" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C723" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D723" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E723" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B724" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C724" s="8" t="n">
+        <v>828</v>
+      </c>
+      <c r="D724" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E724" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B725" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C725" s="8" t="n">
+        <v>918</v>
+      </c>
+      <c r="D725" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="E725" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B726" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C726" s="8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D726" s="8" t="n">
+        <v>88</v>
+      </c>
+      <c r="E726" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B727" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C727" s="8" t="n">
+        <v>3898</v>
+      </c>
+      <c r="D727" s="8" t="n">
+        <v>382</v>
+      </c>
+      <c r="E727" s="8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B728" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C728" s="8" t="n">
+        <v>336</v>
+      </c>
+      <c r="D728" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="E728" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B729" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C729" s="8" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D729" s="8" t="n">
+        <v>168</v>
+      </c>
+      <c r="E729" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B730" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C730" s="8" t="n">
+        <v>2675</v>
+      </c>
+      <c r="D730" s="8" t="n">
+        <v>272</v>
+      </c>
+      <c r="E730" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B731" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C731" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D731" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E731" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B732" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C732" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D732" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E732" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B733" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C733" s="8" t="n">
+        <v>1659</v>
+      </c>
+      <c r="D733" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="E733" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B734" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C734" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D734" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E734" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B735" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C735" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D735" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E735" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1118"/>
+  <dimension ref="A1:F1148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1093" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1104" activeCellId="0" sqref="F1104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1134" activeCellId="0" sqref="F1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11631,6 +11631,326 @@
       </c>
       <c r="D1118" s="8"/>
       <c r="E1118" s="8"/>
+    </row>
+    <row r="1119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="10" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B1119" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1119" s="8" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D1119" s="8" t="n">
+        <v>106984</v>
+      </c>
+      <c r="E1119" s="8" t="n">
+        <v>15240</v>
+      </c>
+      <c r="F1119" s="8" t="n">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1120" s="8" t="n">
+        <v>323</v>
+      </c>
+      <c r="D1120" s="8"/>
+      <c r="E1120" s="8"/>
+    </row>
+    <row r="1121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1121" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1121" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1121" s="8"/>
+      <c r="E1121" s="8"/>
+    </row>
+    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1122" s="8" t="n">
+        <v>830</v>
+      </c>
+      <c r="D1122" s="8"/>
+      <c r="E1122" s="8"/>
+    </row>
+    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1123" s="8" t="n">
+        <v>919</v>
+      </c>
+      <c r="D1123" s="8"/>
+      <c r="E1123" s="8"/>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1124" s="8" t="n">
+        <v>1256</v>
+      </c>
+      <c r="D1124" s="8"/>
+      <c r="E1124" s="8"/>
+    </row>
+    <row r="1125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1125" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1125" s="8" t="n">
+        <v>3916</v>
+      </c>
+      <c r="D1125" s="8"/>
+      <c r="E1125" s="8"/>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1126" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1126" s="8" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1126" s="8"/>
+      <c r="E1126" s="8"/>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1127" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1127" s="8" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D1127" s="8"/>
+      <c r="E1127" s="8"/>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1128" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1128" s="8" t="n">
+        <v>2685</v>
+      </c>
+      <c r="D1128" s="8"/>
+      <c r="E1128" s="8"/>
+    </row>
+    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1129" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1129" s="8"/>
+      <c r="E1129" s="8"/>
+    </row>
+    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1130" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1130" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1130" s="8"/>
+      <c r="E1130" s="8"/>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1131" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1131" s="8" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D1131" s="8"/>
+      <c r="E1131" s="8"/>
+    </row>
+    <row r="1132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1132" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1132" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1132" s="8"/>
+      <c r="E1132" s="8"/>
+    </row>
+    <row r="1133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1133" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1133" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1133" s="8"/>
+      <c r="E1133" s="8"/>
+    </row>
+    <row r="1134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="10" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B1134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1134" s="8" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D1134" s="8" t="n">
+        <v>109031</v>
+      </c>
+      <c r="E1134" s="8" t="n">
+        <v>15288</v>
+      </c>
+      <c r="F1134" s="8" t="n">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1135" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1135" s="8" t="n">
+        <v>323</v>
+      </c>
+      <c r="D1135" s="8"/>
+      <c r="E1135" s="8"/>
+    </row>
+    <row r="1136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1136" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1136" s="8"/>
+      <c r="E1136" s="8"/>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1137" s="8" t="n">
+        <v>830</v>
+      </c>
+      <c r="D1137" s="8"/>
+      <c r="E1137" s="8"/>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1138" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1138" s="8" t="n">
+        <v>919</v>
+      </c>
+      <c r="D1138" s="8"/>
+      <c r="E1138" s="8"/>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1139" s="8" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D1139" s="8"/>
+      <c r="E1139" s="8"/>
+    </row>
+    <row r="1140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1140" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1140" s="8" t="n">
+        <v>3934</v>
+      </c>
+      <c r="D1140" s="8"/>
+      <c r="E1140" s="8"/>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1141" s="8" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1141" s="8"/>
+      <c r="E1141" s="8"/>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1142" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1142" s="8" t="n">
+        <v>1968</v>
+      </c>
+      <c r="D1142" s="8"/>
+      <c r="E1142" s="8"/>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1143" s="8" t="n">
+        <v>2691</v>
+      </c>
+      <c r="D1143" s="8"/>
+      <c r="E1143" s="8"/>
+    </row>
+    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1144" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1144" s="8"/>
+      <c r="E1144" s="8"/>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1145" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1145" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1145" s="8"/>
+      <c r="E1145" s="8"/>
+    </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1146" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1146" s="8" t="n">
+        <v>1665</v>
+      </c>
+      <c r="D1146" s="8"/>
+      <c r="E1146" s="8"/>
+    </row>
+    <row r="1147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1147" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1147" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1147" s="8"/>
+      <c r="E1147" s="8"/>
+    </row>
+    <row r="1148" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1148" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1148" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1148" s="8"/>
+      <c r="E1148" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11648,10 +11968,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P735"/>
+  <dimension ref="A1:P765"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A707" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C736" activeCellId="0" sqref="C736"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A742" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C766" activeCellId="0" sqref="C766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22125,6 +22445,432 @@
         <v>28</v>
       </c>
     </row>
+    <row r="736" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="10" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B736" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C736" s="8" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D736" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="E736" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B737" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C737" s="8" t="n">
+        <v>323</v>
+      </c>
+      <c r="D737" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E737" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B738" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C738" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D738" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E738" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B739" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C739" s="8" t="n">
+        <v>830</v>
+      </c>
+      <c r="D739" s="8" t="n">
+        <v>88</v>
+      </c>
+      <c r="E739" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B740" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C740" s="8" t="n">
+        <v>919</v>
+      </c>
+      <c r="D740" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E740" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B741" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C741" s="8" t="n">
+        <v>1256</v>
+      </c>
+      <c r="D741" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E741" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B742" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C742" s="8" t="n">
+        <v>3916</v>
+      </c>
+      <c r="D742" s="8" t="n">
+        <v>378</v>
+      </c>
+      <c r="E742" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B743" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C743" s="8" t="n">
+        <v>337</v>
+      </c>
+      <c r="D743" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="E743" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B744" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C744" s="8" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D744" s="8" t="n">
+        <v>164</v>
+      </c>
+      <c r="E744" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B745" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C745" s="8" t="n">
+        <v>2685</v>
+      </c>
+      <c r="D745" s="8" t="n">
+        <v>342</v>
+      </c>
+      <c r="E745" s="8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B746" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C746" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D746" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E746" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C747" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D747" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E747" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B748" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C748" s="8" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D748" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="E748" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B749" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C749" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D749" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E749" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C750" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D750" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E750" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="10" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B751" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C751" s="8" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D751" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E751" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B752" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C752" s="8" t="n">
+        <v>323</v>
+      </c>
+      <c r="D752" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="E752" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B753" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C753" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D753" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E753" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B754" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C754" s="8" t="n">
+        <v>830</v>
+      </c>
+      <c r="D754" s="8" t="n">
+        <v>82</v>
+      </c>
+      <c r="E754" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B755" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C755" s="8" t="n">
+        <v>919</v>
+      </c>
+      <c r="D755" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="E755" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B756" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C756" s="8" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D756" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="E756" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B757" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C757" s="8" t="n">
+        <v>3934</v>
+      </c>
+      <c r="D757" s="8" t="n">
+        <v>369</v>
+      </c>
+      <c r="E757" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B758" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C758" s="8" t="n">
+        <v>337</v>
+      </c>
+      <c r="D758" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="E758" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B759" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C759" s="8" t="n">
+        <v>1968</v>
+      </c>
+      <c r="D759" s="8" t="n">
+        <v>146</v>
+      </c>
+      <c r="E759" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B760" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C760" s="8" t="n">
+        <v>2691</v>
+      </c>
+      <c r="D760" s="8" t="n">
+        <v>340</v>
+      </c>
+      <c r="E760" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B761" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C761" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D761" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E761" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B762" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C762" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D762" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E762" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B763" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C763" s="8" t="n">
+        <v>1665</v>
+      </c>
+      <c r="D763" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E763" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B764" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C764" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D764" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E764" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B765" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C765" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D765" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E765" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1148"/>
+  <dimension ref="A1:F1163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1134" activeCellId="0" sqref="F1134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1149" activeCellId="0" sqref="F1149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11951,6 +11951,166 @@
       </c>
       <c r="D1148" s="8"/>
       <c r="E1148" s="8"/>
+    </row>
+    <row r="1149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="10" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1149" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1149" s="8" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D1149" s="8" t="n">
+        <v>111085</v>
+      </c>
+      <c r="E1149" s="8" t="n">
+        <v>15327</v>
+      </c>
+      <c r="F1149" s="8" t="n">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1150" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1150" s="8" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1150" s="8"/>
+      <c r="E1150" s="8"/>
+    </row>
+    <row r="1151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1151" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1151" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1151" s="8"/>
+      <c r="E1151" s="8"/>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1152" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1152" s="8" t="n">
+        <v>831</v>
+      </c>
+      <c r="D1152" s="8"/>
+      <c r="E1152" s="8"/>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1153" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1153" s="8" t="n">
+        <v>919</v>
+      </c>
+      <c r="D1153" s="8"/>
+      <c r="E1153" s="8"/>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1154" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1154" s="8" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D1154" s="8"/>
+      <c r="E1154" s="8"/>
+    </row>
+    <row r="1155" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1155" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1155" s="8" t="n">
+        <v>3939</v>
+      </c>
+      <c r="D1155" s="8"/>
+      <c r="E1155" s="8"/>
+    </row>
+    <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1156" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1156" s="8" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1156" s="8"/>
+      <c r="E1156" s="8"/>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1157" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1157" s="8" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D1157" s="8"/>
+      <c r="E1157" s="8"/>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1158" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1158" s="8" t="n">
+        <v>2698</v>
+      </c>
+      <c r="D1158" s="8"/>
+      <c r="E1158" s="8"/>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1159" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1159" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1159" s="8"/>
+      <c r="E1159" s="8"/>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1160" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1160" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1160" s="8"/>
+      <c r="E1160" s="8"/>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1161" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1161" s="8" t="n">
+        <v>1668</v>
+      </c>
+      <c r="D1161" s="8"/>
+      <c r="E1161" s="8"/>
+    </row>
+    <row r="1162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1162" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1162" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1162" s="8"/>
+      <c r="E1162" s="8"/>
+    </row>
+    <row r="1163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1163" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1163" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1163" s="8"/>
+      <c r="E1163" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11968,10 +12128,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P765"/>
+  <dimension ref="A1:P780"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A742" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C766" activeCellId="0" sqref="C766"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A756" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C781" activeCellId="0" sqref="C781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22871,6 +23031,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="766" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="10" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B766" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C766" s="8" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D766" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="E766" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B767" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C767" s="8" t="n">
+        <v>325</v>
+      </c>
+      <c r="D767" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E767" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B768" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C768" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D768" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E768" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B769" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C769" s="8" t="n">
+        <v>831</v>
+      </c>
+      <c r="D769" s="8" t="n">
+        <v>94</v>
+      </c>
+      <c r="E769" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B770" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C770" s="8" t="n">
+        <v>919</v>
+      </c>
+      <c r="D770" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="E770" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B771" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C771" s="8" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D771" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="E771" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B772" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C772" s="8" t="n">
+        <v>3939</v>
+      </c>
+      <c r="D772" s="8" t="n">
+        <v>354</v>
+      </c>
+      <c r="E772" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B773" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C773" s="8" t="n">
+        <v>337</v>
+      </c>
+      <c r="D773" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E773" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B774" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C774" s="8" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D774" s="8" t="n">
+        <v>143</v>
+      </c>
+      <c r="E774" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B775" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C775" s="8" t="n">
+        <v>2698</v>
+      </c>
+      <c r="D775" s="8" t="n">
+        <v>343</v>
+      </c>
+      <c r="E775" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B776" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C776" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D776" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E776" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B777" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C777" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D777" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E777" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B778" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C778" s="8" t="n">
+        <v>1668</v>
+      </c>
+      <c r="D778" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E778" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B779" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C779" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D779" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E779" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B780" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C780" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D780" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E780" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1163"/>
+  <dimension ref="A1:F1193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1149" activeCellId="0" sqref="F1149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1179" activeCellId="0" sqref="F1179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12111,6 +12111,326 @@
       </c>
       <c r="D1163" s="8"/>
       <c r="E1163" s="8"/>
+    </row>
+    <row r="1164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="10" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1164" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1164" s="9" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D1164" s="8" t="n">
+        <v>112984</v>
+      </c>
+      <c r="E1164" s="8" t="n">
+        <v>15382</v>
+      </c>
+      <c r="F1164" s="8" t="n">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1165" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1165" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1165" s="9"/>
+      <c r="E1165" s="9"/>
+    </row>
+    <row r="1166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1166" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1166" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1166" s="9"/>
+      <c r="E1166" s="9"/>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1167" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1167" s="9" t="n">
+        <v>834</v>
+      </c>
+      <c r="D1167" s="9"/>
+      <c r="E1167" s="9"/>
+    </row>
+    <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1168" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1168" s="9" t="n">
+        <v>924</v>
+      </c>
+      <c r="D1168" s="9"/>
+      <c r="E1168" s="9"/>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1169" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1169" s="9" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D1169" s="9"/>
+      <c r="E1169" s="9"/>
+    </row>
+    <row r="1170" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1170" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1170" s="9" t="n">
+        <v>3943</v>
+      </c>
+      <c r="D1170" s="9"/>
+      <c r="E1170" s="9"/>
+    </row>
+    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1171" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1171" s="9" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1171" s="9"/>
+      <c r="E1171" s="9"/>
+    </row>
+    <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1172" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1172" s="9" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D1172" s="9"/>
+      <c r="E1172" s="9"/>
+    </row>
+    <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1173" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1173" s="9" t="n">
+        <v>2706</v>
+      </c>
+      <c r="D1173" s="9"/>
+      <c r="E1173" s="9"/>
+    </row>
+    <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1174" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1174" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1174" s="9"/>
+      <c r="E1174" s="9"/>
+    </row>
+    <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1175" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1175" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1175" s="9"/>
+      <c r="E1175" s="9"/>
+    </row>
+    <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1176" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1176" s="9" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D1176" s="9"/>
+      <c r="E1176" s="9"/>
+    </row>
+    <row r="1177" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1177" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1177" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1177" s="9"/>
+      <c r="E1177" s="9"/>
+    </row>
+    <row r="1178" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1178" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1178" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1178" s="9"/>
+      <c r="E1178" s="9"/>
+    </row>
+    <row r="1179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="10" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1179" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1179" s="9" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1179" s="8" t="n">
+        <v>114322</v>
+      </c>
+      <c r="E1179" s="8" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F1179" s="8" t="n">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1180" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1180" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1180" s="9"/>
+      <c r="E1180" s="9"/>
+    </row>
+    <row r="1181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1181" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1181" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1181" s="9"/>
+      <c r="E1181" s="9"/>
+    </row>
+    <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1182" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1182" s="9" t="n">
+        <v>835</v>
+      </c>
+      <c r="D1182" s="9"/>
+      <c r="E1182" s="9"/>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1183" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1183" s="9" t="n">
+        <v>928</v>
+      </c>
+      <c r="D1183" s="9"/>
+      <c r="E1183" s="9"/>
+    </row>
+    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1184" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1184" s="9" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D1184" s="9"/>
+      <c r="E1184" s="9"/>
+    </row>
+    <row r="1185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1185" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1185" s="9" t="n">
+        <v>3946</v>
+      </c>
+      <c r="D1185" s="9"/>
+      <c r="E1185" s="9"/>
+    </row>
+    <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1186" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1186" s="9" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1186" s="9"/>
+      <c r="E1186" s="9"/>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1187" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1187" s="9" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D1187" s="9"/>
+      <c r="E1187" s="9"/>
+    </row>
+    <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1188" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1188" s="9" t="n">
+        <v>2709</v>
+      </c>
+      <c r="D1188" s="9"/>
+      <c r="E1188" s="9"/>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1189" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1189" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1189" s="9"/>
+      <c r="E1189" s="9"/>
+    </row>
+    <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1190" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1190" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1190" s="9"/>
+      <c r="E1190" s="9"/>
+    </row>
+    <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1191" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1191" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D1191" s="9"/>
+      <c r="E1191" s="9"/>
+    </row>
+    <row r="1192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1192" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1192" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1192" s="9"/>
+      <c r="E1192" s="9"/>
+    </row>
+    <row r="1193" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1193" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1193" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1193" s="9"/>
+      <c r="E1193" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12128,10 +12448,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P780"/>
+  <dimension ref="A1:P810"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A756" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C781" activeCellId="0" sqref="C781"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A782" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C796" activeCellId="0" sqref="C796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23244,6 +23564,432 @@
         <v>28</v>
       </c>
     </row>
+    <row r="781" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="10" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B781" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C781" s="9" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D781" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E781" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B782" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C782" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D782" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E782" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B783" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C783" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D783" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E783" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B784" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C784" s="9" t="n">
+        <v>834</v>
+      </c>
+      <c r="D784" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="E784" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C785" s="9" t="n">
+        <v>924</v>
+      </c>
+      <c r="D785" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="E785" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B786" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C786" s="9" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D786" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="E786" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B787" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C787" s="9" t="n">
+        <v>3943</v>
+      </c>
+      <c r="D787" s="9" t="n">
+        <v>343</v>
+      </c>
+      <c r="E787" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B788" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C788" s="9" t="n">
+        <v>337</v>
+      </c>
+      <c r="D788" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="E788" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B789" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C789" s="9" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D789" s="9" t="n">
+        <v>137</v>
+      </c>
+      <c r="E789" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B790" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C790" s="9" t="n">
+        <v>2706</v>
+      </c>
+      <c r="D790" s="9" t="n">
+        <v>283</v>
+      </c>
+      <c r="E790" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B791" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C791" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D791" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E791" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B792" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C792" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D792" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E792" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B793" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C793" s="9" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D793" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E793" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B794" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C794" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D794" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E794" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B795" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C795" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D795" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E795" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="10" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B796" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C796" s="9" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D796" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="E796" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B797" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C797" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D797" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E797" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B798" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C798" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D798" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E798" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B799" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C799" s="9" t="n">
+        <v>835</v>
+      </c>
+      <c r="D799" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="E799" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B800" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C800" s="9" t="n">
+        <v>928</v>
+      </c>
+      <c r="D800" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="E800" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B801" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C801" s="9" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D801" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E801" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B802" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C802" s="9" t="n">
+        <v>3946</v>
+      </c>
+      <c r="D802" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="E802" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B803" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C803" s="9" t="n">
+        <v>337</v>
+      </c>
+      <c r="D803" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E803" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B804" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C804" s="9" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D804" s="9" t="n">
+        <v>135</v>
+      </c>
+      <c r="E804" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B805" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C805" s="9" t="n">
+        <v>2709</v>
+      </c>
+      <c r="D805" s="9" t="n">
+        <v>276</v>
+      </c>
+      <c r="E805" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B806" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C806" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D806" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E806" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B807" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C807" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D807" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E807" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B808" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C808" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D808" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E808" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B809" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C809" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D809" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E809" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B810" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C810" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D810" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E810" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1193"/>
+  <dimension ref="A1:F1223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1179" activeCellId="0" sqref="F1179"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1209" activeCellId="0" sqref="F1209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11313,7 +11313,7 @@
       <c r="E1088" s="9"/>
     </row>
     <row r="1089" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="10" t="n">
+      <c r="A1089" s="4" t="n">
         <v>43976</v>
       </c>
       <c r="B1089" s="8" t="s">
@@ -11473,7 +11473,7 @@
       <c r="E1103" s="8"/>
     </row>
     <row r="1104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="10" t="n">
+      <c r="A1104" s="4" t="n">
         <v>43977</v>
       </c>
       <c r="B1104" s="8" t="s">
@@ -11633,7 +11633,7 @@
       <c r="E1118" s="8"/>
     </row>
     <row r="1119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="10" t="n">
+      <c r="A1119" s="4" t="n">
         <v>43978</v>
       </c>
       <c r="B1119" s="8" t="s">
@@ -11793,7 +11793,7 @@
       <c r="E1133" s="8"/>
     </row>
     <row r="1134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1134" s="10" t="n">
+      <c r="A1134" s="4" t="n">
         <v>43979</v>
       </c>
       <c r="B1134" s="8" t="s">
@@ -11953,7 +11953,7 @@
       <c r="E1148" s="8"/>
     </row>
     <row r="1149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1149" s="10" t="n">
+      <c r="A1149" s="4" t="n">
         <v>43980</v>
       </c>
       <c r="B1149" s="8" t="s">
@@ -12113,7 +12113,7 @@
       <c r="E1163" s="8"/>
     </row>
     <row r="1164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1164" s="10" t="n">
+      <c r="A1164" s="4" t="n">
         <v>43981</v>
       </c>
       <c r="B1164" s="8" t="s">
@@ -12273,7 +12273,7 @@
       <c r="E1178" s="9"/>
     </row>
     <row r="1179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1179" s="10" t="n">
+      <c r="A1179" s="4" t="n">
         <v>43982</v>
       </c>
       <c r="B1179" s="8" t="s">
@@ -12431,6 +12431,326 @@
       </c>
       <c r="D1193" s="9"/>
       <c r="E1193" s="9"/>
+    </row>
+    <row r="1194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="10" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B1194" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1194" s="9" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D1194" s="8" t="n">
+        <v>115259</v>
+      </c>
+      <c r="E1194" s="8" t="n">
+        <v>15418</v>
+      </c>
+      <c r="F1194" s="8" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1195" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1195" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1195" s="9"/>
+      <c r="E1195" s="9"/>
+    </row>
+    <row r="1196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1196" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1196" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1196" s="9"/>
+      <c r="E1196" s="9"/>
+    </row>
+    <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1197" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1197" s="9" t="n">
+        <v>836</v>
+      </c>
+      <c r="D1197" s="9"/>
+      <c r="E1197" s="9"/>
+    </row>
+    <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1198" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1198" s="9" t="n">
+        <v>931</v>
+      </c>
+      <c r="D1198" s="9"/>
+      <c r="E1198" s="9"/>
+    </row>
+    <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1199" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1199" s="9" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D1199" s="9"/>
+      <c r="E1199" s="9"/>
+    </row>
+    <row r="1200" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1200" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1200" s="9" t="n">
+        <v>3949</v>
+      </c>
+      <c r="D1200" s="9"/>
+      <c r="E1200" s="9"/>
+    </row>
+    <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1201" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1201" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1201" s="9"/>
+      <c r="E1201" s="9"/>
+    </row>
+    <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1202" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1202" s="9" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D1202" s="9"/>
+      <c r="E1202" s="9"/>
+    </row>
+    <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1203" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1203" s="9" t="n">
+        <v>2714</v>
+      </c>
+      <c r="D1203" s="9"/>
+      <c r="E1203" s="9"/>
+    </row>
+    <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1204" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1204" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1204" s="9"/>
+      <c r="E1204" s="9"/>
+    </row>
+    <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1205" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1205" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1205" s="9"/>
+      <c r="E1205" s="9"/>
+    </row>
+    <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1206" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1206" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D1206" s="9"/>
+      <c r="E1206" s="9"/>
+    </row>
+    <row r="1207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1207" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1207" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1207" s="9"/>
+      <c r="E1207" s="9"/>
+    </row>
+    <row r="1208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1208" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1208" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1208" s="9"/>
+      <c r="E1208" s="9"/>
+    </row>
+    <row r="1209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="10" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B1209" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1209" s="9" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D1209" s="8" t="n">
+        <v>116848</v>
+      </c>
+      <c r="E1209" s="8" t="n">
+        <v>15471</v>
+      </c>
+      <c r="F1209" s="8" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1210" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1210" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1210" s="9"/>
+      <c r="E1210" s="9"/>
+    </row>
+    <row r="1211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1211" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1211" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1211" s="9"/>
+      <c r="E1211" s="9"/>
+    </row>
+    <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1212" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1212" s="9" t="n">
+        <v>871</v>
+      </c>
+      <c r="D1212" s="9"/>
+      <c r="E1212" s="9"/>
+    </row>
+    <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1213" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1213" s="9" t="n">
+        <v>935</v>
+      </c>
+      <c r="D1213" s="9"/>
+      <c r="E1213" s="9"/>
+    </row>
+    <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1214" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1214" s="9" t="n">
+        <v>1281</v>
+      </c>
+      <c r="D1214" s="9"/>
+      <c r="E1214" s="9"/>
+    </row>
+    <row r="1215" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1215" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1215" s="9" t="n">
+        <v>3950</v>
+      </c>
+      <c r="D1215" s="9"/>
+      <c r="E1215" s="9"/>
+    </row>
+    <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1216" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1216" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1216" s="9"/>
+      <c r="E1216" s="9"/>
+    </row>
+    <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1217" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1217" s="9" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D1217" s="9"/>
+      <c r="E1217" s="9"/>
+    </row>
+    <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1218" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1218" s="9" t="n">
+        <v>2716</v>
+      </c>
+      <c r="D1218" s="9"/>
+      <c r="E1218" s="9"/>
+    </row>
+    <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1219" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1219" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1219" s="9"/>
+      <c r="E1219" s="9"/>
+    </row>
+    <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1220" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1220" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1220" s="9"/>
+      <c r="E1220" s="9"/>
+    </row>
+    <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1221" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1221" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D1221" s="9"/>
+      <c r="E1221" s="9"/>
+    </row>
+    <row r="1222" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1222" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1222" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1222" s="9"/>
+      <c r="E1222" s="9"/>
+    </row>
+    <row r="1223" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1223" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1223" s="9"/>
+      <c r="E1223" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12448,10 +12768,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P810"/>
+  <dimension ref="A1:P840"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A782" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C796" activeCellId="0" sqref="C796"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A813" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H834" activeCellId="0" sqref="H834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22500,7 +22820,7 @@
       </c>
     </row>
     <row r="706" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="10" t="n">
+      <c r="A706" s="4" t="n">
         <v>43976</v>
       </c>
       <c r="B706" s="8" t="s">
@@ -22713,7 +23033,7 @@
       </c>
     </row>
     <row r="721" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="10" t="n">
+      <c r="A721" s="4" t="n">
         <v>43977</v>
       </c>
       <c r="B721" s="8" t="s">
@@ -22926,7 +23246,7 @@
       </c>
     </row>
     <row r="736" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="10" t="n">
+      <c r="A736" s="4" t="n">
         <v>43978</v>
       </c>
       <c r="B736" s="8" t="s">
@@ -23139,7 +23459,7 @@
       </c>
     </row>
     <row r="751" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="10" t="n">
+      <c r="A751" s="4" t="n">
         <v>43979</v>
       </c>
       <c r="B751" s="8" t="s">
@@ -23352,7 +23672,7 @@
       </c>
     </row>
     <row r="766" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="10" t="n">
+      <c r="A766" s="4" t="n">
         <v>43980</v>
       </c>
       <c r="B766" s="8" t="s">
@@ -23565,7 +23885,7 @@
       </c>
     </row>
     <row r="781" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="10" t="n">
+      <c r="A781" s="4" t="n">
         <v>43981</v>
       </c>
       <c r="B781" s="8" t="s">
@@ -23778,7 +24098,7 @@
       </c>
     </row>
     <row r="796" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="10" t="n">
+      <c r="A796" s="4" t="n">
         <v>43982</v>
       </c>
       <c r="B796" s="8" t="s">
@@ -23987,6 +24307,432 @@
         <v>28</v>
       </c>
       <c r="E810" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="10" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B811" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C811" s="9" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D811" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="E811" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B812" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C812" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D812" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E812" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B813" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C813" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D813" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E813" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B814" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C814" s="9" t="n">
+        <v>836</v>
+      </c>
+      <c r="D814" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E814" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B815" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C815" s="9" t="n">
+        <v>931</v>
+      </c>
+      <c r="D815" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="E815" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B816" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C816" s="9" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D816" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E816" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B817" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C817" s="9" t="n">
+        <v>3949</v>
+      </c>
+      <c r="D817" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="E817" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B818" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C818" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D818" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E818" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B819" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C819" s="9" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D819" s="9" t="n">
+        <v>125</v>
+      </c>
+      <c r="E819" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B820" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C820" s="9" t="n">
+        <v>2714</v>
+      </c>
+      <c r="D820" s="9" t="n">
+        <v>239</v>
+      </c>
+      <c r="E820" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B821" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C821" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D821" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E821" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B822" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C822" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D822" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E822" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B823" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C823" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D823" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E823" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B824" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C824" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D824" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E824" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B825" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C825" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D825" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E825" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="10" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B826" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C826" s="9" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D826" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="E826" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B827" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C827" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D827" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E827" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B828" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C828" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D828" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E828" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B829" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C829" s="9" t="n">
+        <v>871</v>
+      </c>
+      <c r="D829" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="E829" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B830" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C830" s="9" t="n">
+        <v>935</v>
+      </c>
+      <c r="D830" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="E830" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B831" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C831" s="9" t="n">
+        <v>1281</v>
+      </c>
+      <c r="D831" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="E831" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B832" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C832" s="9" t="n">
+        <v>3950</v>
+      </c>
+      <c r="D832" s="9" t="n">
+        <v>332</v>
+      </c>
+      <c r="E832" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B833" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C833" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D833" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="E833" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B834" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C834" s="9" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D834" s="9" t="n">
+        <v>134</v>
+      </c>
+      <c r="E834" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B835" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C835" s="9" t="n">
+        <v>2716</v>
+      </c>
+      <c r="D835" s="9" t="n">
+        <v>302</v>
+      </c>
+      <c r="E835" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B836" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C836" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D836" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E836" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B837" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C837" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D837" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E837" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B838" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C838" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D838" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="E838" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B839" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C839" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E839" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B840" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C840" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D840" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E840" s="9" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1223"/>
+  <dimension ref="A1:F1238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1209" activeCellId="0" sqref="F1209"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1236" activeCellId="0" sqref="E1236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12751,6 +12751,166 @@
       </c>
       <c r="D1223" s="9"/>
       <c r="E1223" s="9"/>
+    </row>
+    <row r="1224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="10" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B1224" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1224" s="9" t="n">
+        <v>1066</v>
+      </c>
+      <c r="D1224" s="8" t="n">
+        <v>118573</v>
+      </c>
+      <c r="E1224" s="8" t="n">
+        <v>15504</v>
+      </c>
+      <c r="F1224" s="8" t="n">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1225" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1225" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1225" s="9"/>
+      <c r="E1225" s="9"/>
+    </row>
+    <row r="1226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1226" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1226" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1226" s="9"/>
+      <c r="E1226" s="9"/>
+    </row>
+    <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1227" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1227" s="9" t="n">
+        <v>876</v>
+      </c>
+      <c r="D1227" s="9"/>
+      <c r="E1227" s="9"/>
+    </row>
+    <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1228" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1228" s="9" t="n">
+        <v>942</v>
+      </c>
+      <c r="D1228" s="9"/>
+      <c r="E1228" s="9"/>
+    </row>
+    <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1229" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1229" s="9" t="n">
+        <v>1282</v>
+      </c>
+      <c r="D1229" s="9"/>
+      <c r="E1229" s="9"/>
+    </row>
+    <row r="1230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1230" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1230" s="9" t="n">
+        <v>3954</v>
+      </c>
+      <c r="D1230" s="9"/>
+      <c r="E1230" s="9"/>
+    </row>
+    <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1231" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1231" s="9" t="n">
+        <v>339</v>
+      </c>
+      <c r="D1231" s="9"/>
+      <c r="E1231" s="9"/>
+    </row>
+    <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1232" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1232" s="9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D1232" s="9"/>
+      <c r="E1232" s="9"/>
+    </row>
+    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1233" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1233" s="9" t="n">
+        <v>2723</v>
+      </c>
+      <c r="D1233" s="9"/>
+      <c r="E1233" s="9"/>
+    </row>
+    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1234" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1234" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1234" s="9"/>
+      <c r="E1234" s="9"/>
+    </row>
+    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1235" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1235" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1235" s="9"/>
+      <c r="E1235" s="9"/>
+    </row>
+    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1236" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1236" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D1236" s="9"/>
+      <c r="E1236" s="9"/>
+    </row>
+    <row r="1237" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1237" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1237" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1237" s="9"/>
+      <c r="E1237" s="9"/>
+    </row>
+    <row r="1238" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1238" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1238" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1238" s="9"/>
+      <c r="E1238" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12768,10 +12928,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P840"/>
+  <dimension ref="A1:P855"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A813" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H834" activeCellId="0" sqref="H834"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A828" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C856" activeCellId="0" sqref="C856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24722,7 +24882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="840" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="8" t="s">
         <v>22</v>
       </c>
@@ -24733,6 +24893,219 @@
         <v>28</v>
       </c>
       <c r="E840" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="10" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B841" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C841" s="9" t="n">
+        <v>1066</v>
+      </c>
+      <c r="D841" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="E841" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B842" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C842" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D842" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E842" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B843" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C843" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="D843" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E843" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B844" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C844" s="9" t="n">
+        <v>876</v>
+      </c>
+      <c r="D844" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="E844" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B845" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C845" s="9" t="n">
+        <v>942</v>
+      </c>
+      <c r="D845" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="E845" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B846" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C846" s="9" t="n">
+        <v>1282</v>
+      </c>
+      <c r="D846" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E846" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B847" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C847" s="9" t="n">
+        <v>3954</v>
+      </c>
+      <c r="D847" s="9" t="n">
+        <v>332</v>
+      </c>
+      <c r="E847" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B848" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C848" s="9" t="n">
+        <v>339</v>
+      </c>
+      <c r="D848" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="E848" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B849" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C849" s="9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D849" s="9" t="n">
+        <v>151</v>
+      </c>
+      <c r="E849" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B850" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C850" s="9" t="n">
+        <v>2723</v>
+      </c>
+      <c r="D850" s="9" t="n">
+        <v>304</v>
+      </c>
+      <c r="E850" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B851" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C851" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D851" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E851" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B852" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C852" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D852" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E852" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B853" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C853" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D853" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E853" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B854" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C854" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D854" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E854" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B855" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C855" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D855" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E855" s="9" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1238"/>
+  <dimension ref="A1:F1268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1236" activeCellId="0" sqref="E1236"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1254" activeCellId="0" sqref="F1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12433,7 +12433,7 @@
       <c r="E1193" s="9"/>
     </row>
     <row r="1194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1194" s="10" t="n">
+      <c r="A1194" s="4" t="n">
         <v>43983</v>
       </c>
       <c r="B1194" s="8" t="s">
@@ -12593,7 +12593,7 @@
       <c r="E1208" s="9"/>
     </row>
     <row r="1209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1209" s="10" t="n">
+      <c r="A1209" s="4" t="n">
         <v>43984</v>
       </c>
       <c r="B1209" s="8" t="s">
@@ -12753,7 +12753,7 @@
       <c r="E1223" s="9"/>
     </row>
     <row r="1224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1224" s="10" t="n">
+      <c r="A1224" s="4" t="n">
         <v>43985</v>
       </c>
       <c r="B1224" s="8" t="s">
@@ -12911,6 +12911,326 @@
       </c>
       <c r="D1238" s="9"/>
       <c r="E1238" s="9"/>
+    </row>
+    <row r="1239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1239" s="4" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B1239" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1239" s="9" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D1239" s="8" t="n">
+        <v>120601</v>
+      </c>
+      <c r="E1239" s="8" t="n">
+        <v>15553</v>
+      </c>
+      <c r="F1239" s="8" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1240" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1240" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1240" s="9"/>
+      <c r="E1240" s="9"/>
+    </row>
+    <row r="1241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1241" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1241" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1241" s="9"/>
+      <c r="E1241" s="9"/>
+    </row>
+    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1242" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1242" s="9" t="n">
+        <v>877</v>
+      </c>
+      <c r="D1242" s="9"/>
+      <c r="E1242" s="9"/>
+    </row>
+    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1243" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1243" s="9" t="n">
+        <v>944</v>
+      </c>
+      <c r="D1243" s="9"/>
+      <c r="E1243" s="9"/>
+    </row>
+    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1244" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1244" s="9" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D1244" s="9"/>
+      <c r="E1244" s="9"/>
+    </row>
+    <row r="1245" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1245" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1245" s="9" t="n">
+        <v>3961</v>
+      </c>
+      <c r="D1245" s="9"/>
+      <c r="E1245" s="9"/>
+    </row>
+    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1246" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1246" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1246" s="9"/>
+      <c r="E1246" s="9"/>
+    </row>
+    <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1247" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1247" s="9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D1247" s="9"/>
+      <c r="E1247" s="9"/>
+    </row>
+    <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1248" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1248" s="9" t="n">
+        <v>2752</v>
+      </c>
+      <c r="D1248" s="9"/>
+      <c r="E1248" s="9"/>
+    </row>
+    <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1249" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1249" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1249" s="9"/>
+      <c r="E1249" s="9"/>
+    </row>
+    <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1250" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1250" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1250" s="9"/>
+      <c r="E1250" s="9"/>
+    </row>
+    <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1251" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1251" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D1251" s="9"/>
+      <c r="E1251" s="9"/>
+    </row>
+    <row r="1252" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1252" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1252" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1252" s="9"/>
+      <c r="E1252" s="9"/>
+    </row>
+    <row r="1253" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1253" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1253" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1253" s="9"/>
+      <c r="E1253" s="9"/>
+    </row>
+    <row r="1254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="10" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B1254" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1254" s="9" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D1254" s="8" t="n">
+        <v>122762</v>
+      </c>
+      <c r="E1254" s="8" t="n">
+        <v>15582</v>
+      </c>
+      <c r="F1254" s="8" t="n">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1255" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1255" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D1255" s="9"/>
+      <c r="E1255" s="9"/>
+    </row>
+    <row r="1256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1256" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1256" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1256" s="9"/>
+      <c r="E1256" s="9"/>
+    </row>
+    <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1257" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1257" s="9" t="n">
+        <v>877</v>
+      </c>
+      <c r="D1257" s="9"/>
+      <c r="E1257" s="9"/>
+    </row>
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1258" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1258" s="9" t="n">
+        <v>946</v>
+      </c>
+      <c r="D1258" s="9"/>
+      <c r="E1258" s="9"/>
+    </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1259" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1259" s="9" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D1259" s="9"/>
+      <c r="E1259" s="9"/>
+    </row>
+    <row r="1260" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1260" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1260" s="9" t="n">
+        <v>3968</v>
+      </c>
+      <c r="D1260" s="9"/>
+      <c r="E1260" s="9"/>
+    </row>
+    <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1261" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1261" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1261" s="9"/>
+      <c r="E1261" s="9"/>
+    </row>
+    <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1262" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1262" s="9" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D1262" s="9"/>
+      <c r="E1262" s="9"/>
+    </row>
+    <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1263" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1263" s="9" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D1263" s="9"/>
+      <c r="E1263" s="9"/>
+    </row>
+    <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1264" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1264" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1264" s="9"/>
+      <c r="E1264" s="9"/>
+    </row>
+    <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1265" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1265" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1265" s="9"/>
+      <c r="E1265" s="9"/>
+    </row>
+    <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1266" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1266" s="9" t="n">
+        <v>1673</v>
+      </c>
+      <c r="D1266" s="9"/>
+      <c r="E1266" s="9"/>
+    </row>
+    <row r="1267" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1267" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1267" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1267" s="9"/>
+      <c r="E1267" s="9"/>
+    </row>
+    <row r="1268" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1268" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1268" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1268" s="9"/>
+      <c r="E1268" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12928,10 +13248,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P855"/>
+  <dimension ref="A1:P885"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A828" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C856" activeCellId="0" sqref="C856"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A861" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D886" activeCellId="0" sqref="D886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24471,7 +24791,7 @@
       </c>
     </row>
     <row r="811" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="10" t="n">
+      <c r="A811" s="4" t="n">
         <v>43983</v>
       </c>
       <c r="B811" s="8" t="s">
@@ -24684,7 +25004,7 @@
       </c>
     </row>
     <row r="826" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="10" t="n">
+      <c r="A826" s="4" t="n">
         <v>43984</v>
       </c>
       <c r="B826" s="8" t="s">
@@ -24897,7 +25217,7 @@
       </c>
     </row>
     <row r="841" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="10" t="n">
+      <c r="A841" s="4" t="n">
         <v>43985</v>
       </c>
       <c r="B841" s="8" t="s">
@@ -25106,6 +25426,432 @@
         <v>28</v>
       </c>
       <c r="E855" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="4" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B856" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C856" s="9" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D856" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E856" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B857" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C857" s="9" t="n">
+        <v>325</v>
+      </c>
+      <c r="D857" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E857" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B858" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C858" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D858" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E858" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B859" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C859" s="9" t="n">
+        <v>877</v>
+      </c>
+      <c r="D859" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="E859" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B860" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C860" s="9" t="n">
+        <v>944</v>
+      </c>
+      <c r="D860" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E860" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B861" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C861" s="9" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D861" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="E861" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B862" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C862" s="9" t="n">
+        <v>3961</v>
+      </c>
+      <c r="D862" s="9" t="n">
+        <v>317</v>
+      </c>
+      <c r="E862" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B863" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C863" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D863" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E863" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B864" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C864" s="9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D864" s="9" t="n">
+        <v>145</v>
+      </c>
+      <c r="E864" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B865" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C865" s="9" t="n">
+        <v>2752</v>
+      </c>
+      <c r="D865" s="9" t="n">
+        <v>246</v>
+      </c>
+      <c r="E865" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B866" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C866" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D866" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E866" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B867" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C867" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D867" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E867" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B868" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C868" s="9" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D868" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E868" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B869" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C869" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D869" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E869" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B870" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C870" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D870" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E870" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="10" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B871" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C871" s="9" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D871" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="E871" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B872" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C872" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D872" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E872" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B873" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C873" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D873" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E873" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B874" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C874" s="9" t="n">
+        <v>877</v>
+      </c>
+      <c r="D874" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E874" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B875" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C875" s="9" t="n">
+        <v>946</v>
+      </c>
+      <c r="D875" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="E875" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B876" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C876" s="9" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D876" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="E876" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B877" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C877" s="9" t="n">
+        <v>3968</v>
+      </c>
+      <c r="D877" s="9" t="n">
+        <v>311</v>
+      </c>
+      <c r="E877" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B878" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C878" s="9" t="n">
+        <v>338</v>
+      </c>
+      <c r="D878" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E878" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B879" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C879" s="9" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D879" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="E879" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B880" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C880" s="9" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D880" s="9" t="n">
+        <v>219</v>
+      </c>
+      <c r="E880" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B881" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C881" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D881" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E881" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B882" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C882" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D882" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E882" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B883" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C883" s="9" t="n">
+        <v>1673</v>
+      </c>
+      <c r="D883" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E883" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B884" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C884" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D884" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E884" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B885" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C885" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D885" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E885" s="9" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1268"/>
+  <dimension ref="A1:F1283"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1254" activeCellId="0" sqref="F1254"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1269" activeCellId="0" sqref="F1269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13231,6 +13231,166 @@
       </c>
       <c r="D1268" s="9"/>
       <c r="E1268" s="9"/>
+    </row>
+    <row r="1269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1269" s="10" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B1269" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1269" s="9" t="n">
+        <v>1077</v>
+      </c>
+      <c r="D1269" s="8" t="n">
+        <v>124543</v>
+      </c>
+      <c r="E1269" s="8" t="n">
+        <v>15603</v>
+      </c>
+      <c r="F1269" s="8" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1270" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1270" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D1270" s="9"/>
+      <c r="E1270" s="9"/>
+    </row>
+    <row r="1271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1271" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1271" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1271" s="9"/>
+      <c r="E1271" s="9"/>
+    </row>
+    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1272" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1272" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1272" s="9"/>
+      <c r="E1272" s="9"/>
+    </row>
+    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1273" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1273" s="9" t="n">
+        <v>946</v>
+      </c>
+      <c r="D1273" s="9"/>
+      <c r="E1273" s="9"/>
+    </row>
+    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1274" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1274" s="9" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D1274" s="9"/>
+      <c r="E1274" s="9"/>
+    </row>
+    <row r="1275" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1275" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1275" s="9" t="n">
+        <v>3971</v>
+      </c>
+      <c r="D1275" s="9"/>
+      <c r="E1275" s="9"/>
+    </row>
+    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1276" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1276" s="9" t="n">
+        <v>339</v>
+      </c>
+      <c r="D1276" s="9"/>
+      <c r="E1276" s="9"/>
+    </row>
+    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1277" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1277" s="9" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D1277" s="9"/>
+      <c r="E1277" s="9"/>
+    </row>
+    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1278" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1278" s="9" t="n">
+        <v>2769</v>
+      </c>
+      <c r="D1278" s="9"/>
+      <c r="E1278" s="9"/>
+    </row>
+    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1279" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1279" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1279" s="9"/>
+      <c r="E1279" s="9"/>
+    </row>
+    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1280" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1280" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1280" s="9"/>
+      <c r="E1280" s="9"/>
+    </row>
+    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1281" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1281" s="9" t="n">
+        <v>1676</v>
+      </c>
+      <c r="D1281" s="9"/>
+      <c r="E1281" s="9"/>
+    </row>
+    <row r="1282" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1282" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1282" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1282" s="9"/>
+      <c r="E1282" s="9"/>
+    </row>
+    <row r="1283" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1283" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1283" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1283" s="9"/>
+      <c r="E1283" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13248,10 +13408,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P885"/>
+  <dimension ref="A1:P900"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A861" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D886" activeCellId="0" sqref="D886"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A876" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C901" activeCellId="0" sqref="C901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25855,6 +26015,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="886" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="10" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B886" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C886" s="9" t="n">
+        <v>1077</v>
+      </c>
+      <c r="D886" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="E886" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B887" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C887" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D887" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E887" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B888" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C888" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D888" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E888" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B889" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C889" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D889" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="E889" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B890" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C890" s="9" t="n">
+        <v>946</v>
+      </c>
+      <c r="D890" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="E890" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B891" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C891" s="9" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D891" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="E891" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B892" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C892" s="9" t="n">
+        <v>3971</v>
+      </c>
+      <c r="D892" s="9" t="n">
+        <v>294</v>
+      </c>
+      <c r="E892" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B893" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C893" s="9" t="n">
+        <v>339</v>
+      </c>
+      <c r="D893" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E893" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B894" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C894" s="9" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D894" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="E894" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B895" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C895" s="9" t="n">
+        <v>2769</v>
+      </c>
+      <c r="D895" s="9" t="n">
+        <v>285</v>
+      </c>
+      <c r="E895" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B896" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C896" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D896" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E896" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B897" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C897" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D897" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E897" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B898" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C898" s="9" t="n">
+        <v>1676</v>
+      </c>
+      <c r="D898" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E898" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B899" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C899" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D899" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E899" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B900" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C900" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D900" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E900" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1283"/>
+  <dimension ref="A1:F1298"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1269" activeCellId="0" sqref="F1269"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1270" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1284" activeCellId="0" sqref="F1284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13391,6 +13391,166 @@
       </c>
       <c r="D1283" s="9"/>
       <c r="E1283" s="9"/>
+    </row>
+    <row r="1284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1284" s="10" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B1284" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1284" s="9" t="n">
+        <v>1079</v>
+      </c>
+      <c r="D1284" s="8" t="n">
+        <v>126012</v>
+      </c>
+      <c r="E1284" s="8" t="n">
+        <v>15621</v>
+      </c>
+      <c r="F1284" s="8" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1285" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1285" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D1285" s="9"/>
+      <c r="E1285" s="9"/>
+    </row>
+    <row r="1286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1286" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1286" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1286" s="9"/>
+      <c r="E1286" s="9"/>
+    </row>
+    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1287" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1287" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1287" s="9"/>
+      <c r="E1287" s="9"/>
+    </row>
+    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1288" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1288" s="9" t="n">
+        <v>946</v>
+      </c>
+      <c r="D1288" s="9"/>
+      <c r="E1288" s="9"/>
+    </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1289" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1289" s="9" t="n">
+        <v>1286</v>
+      </c>
+      <c r="D1289" s="9"/>
+      <c r="E1289" s="9"/>
+    </row>
+    <row r="1290" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1290" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1290" s="9" t="n">
+        <v>3981</v>
+      </c>
+      <c r="D1290" s="9"/>
+      <c r="E1290" s="9"/>
+    </row>
+    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1291" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1291" s="9" t="n">
+        <v>339</v>
+      </c>
+      <c r="D1291" s="9"/>
+      <c r="E1291" s="9"/>
+    </row>
+    <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1292" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1292" s="9" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D1292" s="9"/>
+      <c r="E1292" s="9"/>
+    </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1293" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1293" s="9" t="n">
+        <v>2772</v>
+      </c>
+      <c r="D1293" s="9"/>
+      <c r="E1293" s="9"/>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1294" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1294" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1294" s="9"/>
+      <c r="E1294" s="9"/>
+    </row>
+    <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1295" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1295" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1295" s="9"/>
+      <c r="E1295" s="9"/>
+    </row>
+    <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1296" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1296" s="9" t="n">
+        <v>1676</v>
+      </c>
+      <c r="D1296" s="9"/>
+      <c r="E1296" s="9"/>
+    </row>
+    <row r="1297" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1297" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1297" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1297" s="9"/>
+      <c r="E1297" s="9"/>
+    </row>
+    <row r="1298" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1298" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1298" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1298" s="9"/>
+      <c r="E1298" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13408,10 +13568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P900"/>
+  <dimension ref="A1:P915"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A876" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C901" activeCellId="0" sqref="C901"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A891" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D916" activeCellId="0" sqref="D916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26228,6 +26388,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="901" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="10" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B901" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C901" s="9" t="n">
+        <v>1079</v>
+      </c>
+      <c r="D901" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="E901" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B902" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C902" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D902" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E902" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B903" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C903" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D903" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E903" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B904" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C904" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D904" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="E904" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B905" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C905" s="9" t="n">
+        <v>946</v>
+      </c>
+      <c r="D905" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="E905" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B906" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C906" s="9" t="n">
+        <v>1286</v>
+      </c>
+      <c r="D906" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="E906" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B907" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C907" s="9" t="n">
+        <v>3981</v>
+      </c>
+      <c r="D907" s="9" t="n">
+        <v>295</v>
+      </c>
+      <c r="E907" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B908" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C908" s="9" t="n">
+        <v>339</v>
+      </c>
+      <c r="D908" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E908" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B909" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C909" s="9" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D909" s="9" t="n">
+        <v>132</v>
+      </c>
+      <c r="E909" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B910" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C910" s="9" t="n">
+        <v>2772</v>
+      </c>
+      <c r="D910" s="9" t="n">
+        <v>244</v>
+      </c>
+      <c r="E910" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B911" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C911" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D911" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E911" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B912" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C912" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D912" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E912" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B913" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C913" s="9" t="n">
+        <v>1676</v>
+      </c>
+      <c r="D913" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E913" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B914" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D914" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E914" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B915" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C915" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D915" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E915" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1298"/>
+  <dimension ref="A1:F1328"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1270" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1284" activeCellId="0" sqref="F1284"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1299" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1315" activeCellId="0" sqref="F1315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13551,6 +13551,326 @@
       </c>
       <c r="D1298" s="9"/>
       <c r="E1298" s="9"/>
+    </row>
+    <row r="1299" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="10" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B1299" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1299" s="9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D1299" s="8" t="n">
+        <v>127204</v>
+      </c>
+      <c r="E1299" s="8" t="n">
+        <v>15639</v>
+      </c>
+      <c r="F1299" s="8" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1300" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1300" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D1300" s="9"/>
+      <c r="E1300" s="9"/>
+    </row>
+    <row r="1301" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1301" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1301" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1301" s="9"/>
+      <c r="E1301" s="9"/>
+    </row>
+    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1302" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1302" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1302" s="9"/>
+      <c r="E1302" s="9"/>
+    </row>
+    <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1303" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1303" s="9" t="n">
+        <v>947</v>
+      </c>
+      <c r="D1303" s="9"/>
+      <c r="E1303" s="9"/>
+    </row>
+    <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1304" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1304" s="9" t="n">
+        <v>1286</v>
+      </c>
+      <c r="D1304" s="9"/>
+      <c r="E1304" s="9"/>
+    </row>
+    <row r="1305" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1305" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1305" s="9" t="n">
+        <v>3988</v>
+      </c>
+      <c r="D1305" s="9"/>
+      <c r="E1305" s="9"/>
+    </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1306" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1306" s="9" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1306" s="9"/>
+      <c r="E1306" s="9"/>
+    </row>
+    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1307" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1307" s="9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D1307" s="9"/>
+      <c r="E1307" s="9"/>
+    </row>
+    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1308" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1308" s="9" t="n">
+        <v>2774</v>
+      </c>
+      <c r="D1308" s="9"/>
+      <c r="E1308" s="9"/>
+    </row>
+    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1309" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1309" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1309" s="9"/>
+      <c r="E1309" s="9"/>
+    </row>
+    <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1310" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1310" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1310" s="9"/>
+      <c r="E1310" s="9"/>
+    </row>
+    <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1311" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1311" s="9" t="n">
+        <v>1677</v>
+      </c>
+      <c r="D1311" s="9"/>
+      <c r="E1311" s="9"/>
+    </row>
+    <row r="1312" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1312" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1312" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1312" s="9"/>
+      <c r="E1312" s="9"/>
+    </row>
+    <row r="1313" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1313" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1313" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1313" s="9"/>
+      <c r="E1313" s="9"/>
+    </row>
+    <row r="1314" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1314" s="10" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B1314" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1314" s="9" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D1314" s="8" t="n">
+        <v>128495</v>
+      </c>
+      <c r="E1314" s="8" t="n">
+        <v>15653</v>
+      </c>
+      <c r="F1314" s="1" t="n">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1315" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1315" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D1315" s="9"/>
+      <c r="E1315" s="9"/>
+    </row>
+    <row r="1316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1316" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1316" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1316" s="9"/>
+      <c r="E1316" s="9"/>
+    </row>
+    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1317" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1317" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1317" s="9"/>
+      <c r="E1317" s="9"/>
+    </row>
+    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1318" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1318" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D1318" s="9"/>
+      <c r="E1318" s="9"/>
+    </row>
+    <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1319" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1319" s="9" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D1319" s="9"/>
+      <c r="E1319" s="9"/>
+    </row>
+    <row r="1320" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1320" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1320" s="9" t="n">
+        <v>3990</v>
+      </c>
+      <c r="D1320" s="9"/>
+      <c r="E1320" s="9"/>
+    </row>
+    <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1321" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1321" s="9" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1321" s="9"/>
+      <c r="E1321" s="9"/>
+    </row>
+    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1322" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1322" s="9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1322" s="9"/>
+      <c r="E1322" s="9"/>
+    </row>
+    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1323" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1323" s="9" t="n">
+        <v>2777</v>
+      </c>
+      <c r="D1323" s="9"/>
+      <c r="E1323" s="9"/>
+    </row>
+    <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1324" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1324" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1324" s="9"/>
+      <c r="E1324" s="9"/>
+    </row>
+    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1325" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1325" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1325" s="9"/>
+      <c r="E1325" s="9"/>
+    </row>
+    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1326" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1326" s="9" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D1326" s="9"/>
+      <c r="E1326" s="9"/>
+    </row>
+    <row r="1327" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1327" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1327" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1327" s="9"/>
+      <c r="E1327" s="9"/>
+    </row>
+    <row r="1328" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1328" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1328" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1328" s="9"/>
+      <c r="E1328" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13568,10 +13888,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P915"/>
+  <dimension ref="A1:P945"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A891" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D916" activeCellId="0" sqref="D916"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A921" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C946" activeCellId="0" sqref="C946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26601,6 +26921,435 @@
         <v>28</v>
       </c>
     </row>
+    <row r="916" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="10" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B916" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C916" s="9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D916" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="E916" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F916" s="0"/>
+      <c r="G916" s="0"/>
+      <c r="H916" s="0"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B917" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C917" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D917" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E917" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B918" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C918" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D918" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E918" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B919" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C919" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D919" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E919" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B920" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C920" s="9" t="n">
+        <v>947</v>
+      </c>
+      <c r="D920" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="E920" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B921" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C921" s="9" t="n">
+        <v>1286</v>
+      </c>
+      <c r="D921" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="E921" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B922" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C922" s="9" t="n">
+        <v>3988</v>
+      </c>
+      <c r="D922" s="9" t="n">
+        <v>301</v>
+      </c>
+      <c r="E922" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B923" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C923" s="9" t="n">
+        <v>340</v>
+      </c>
+      <c r="D923" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E923" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B924" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C924" s="9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D924" s="9" t="n">
+        <v>135</v>
+      </c>
+      <c r="E924" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B925" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C925" s="9" t="n">
+        <v>2774</v>
+      </c>
+      <c r="D925" s="9" t="n">
+        <v>298</v>
+      </c>
+      <c r="E925" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B926" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C926" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D926" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E926" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B927" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C927" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D927" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E927" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B928" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C928" s="9" t="n">
+        <v>1677</v>
+      </c>
+      <c r="D928" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E928" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B929" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C929" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D929" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E929" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B930" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C930" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D930" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E930" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="10" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B931" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C931" s="9" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D931" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E931" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B932" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C932" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="D932" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E932" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B933" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C933" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D933" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E933" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B934" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C934" s="9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D934" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="E934" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B935" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C935" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D935" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="E935" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B936" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C936" s="9" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D936" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E936" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B937" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C937" s="9" t="n">
+        <v>3990</v>
+      </c>
+      <c r="D937" s="9" t="n">
+        <v>289</v>
+      </c>
+      <c r="E937" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B938" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C938" s="9" t="n">
+        <v>340</v>
+      </c>
+      <c r="D938" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E938" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B939" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C939" s="9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D939" s="9" t="n">
+        <v>114</v>
+      </c>
+      <c r="E939" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B940" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C940" s="9" t="n">
+        <v>2777</v>
+      </c>
+      <c r="D940" s="9" t="n">
+        <v>326</v>
+      </c>
+      <c r="E940" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B941" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C941" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D941" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E941" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B942" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C942" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D942" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E942" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B943" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C943" s="9" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D943" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E943" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B944" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C944" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D944" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E944" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B945" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C945" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D945" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E945" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1328"/>
+  <dimension ref="A1:F1343"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1299" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1315" activeCellId="0" sqref="F1315"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1330" activeCellId="0" sqref="B1330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13871,6 +13871,166 @@
       </c>
       <c r="D1328" s="9"/>
       <c r="E1328" s="9"/>
+    </row>
+    <row r="1329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="10" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B1329" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1329" s="9" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D1329" s="8" t="n">
+        <v>130104</v>
+      </c>
+      <c r="E1329" s="8" t="n">
+        <v>15665</v>
+      </c>
+      <c r="F1329" s="8" t="n">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1330" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1330" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D1330" s="9"/>
+      <c r="E1330" s="9"/>
+    </row>
+    <row r="1331" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1331" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1331" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1331" s="9"/>
+      <c r="E1331" s="9"/>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1332" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1332" s="9" t="n">
+        <v>880</v>
+      </c>
+      <c r="D1332" s="9"/>
+      <c r="E1332" s="9"/>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1333" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1333" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D1333" s="9"/>
+      <c r="E1333" s="9"/>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1334" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1334" s="9" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D1334" s="9"/>
+      <c r="E1334" s="9"/>
+    </row>
+    <row r="1335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1335" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1335" s="9" t="n">
+        <v>3990</v>
+      </c>
+      <c r="D1335" s="9"/>
+      <c r="E1335" s="9"/>
+    </row>
+    <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1336" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1336" s="9" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1336" s="9"/>
+      <c r="E1336" s="9"/>
+    </row>
+    <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1337" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1337" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D1337" s="9"/>
+      <c r="E1337" s="9"/>
+    </row>
+    <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1338" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1338" s="9" t="n">
+        <v>2778</v>
+      </c>
+      <c r="D1338" s="9"/>
+      <c r="E1338" s="9"/>
+    </row>
+    <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1339" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1339" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1339" s="9"/>
+      <c r="E1339" s="9"/>
+    </row>
+    <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1340" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1340" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1340" s="9"/>
+      <c r="E1340" s="9"/>
+    </row>
+    <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1341" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1341" s="9" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D1341" s="9"/>
+      <c r="E1341" s="9"/>
+    </row>
+    <row r="1342" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1342" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1342" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1342" s="9"/>
+      <c r="E1342" s="9"/>
+    </row>
+    <row r="1343" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1343" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1343" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1343" s="9"/>
+      <c r="E1343" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13888,10 +14048,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P945"/>
+  <dimension ref="A1:P960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A921" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C946" activeCellId="0" sqref="C946"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A931" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C961" activeCellId="0" sqref="C961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27350,6 +27510,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="946" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="10" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B946" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C946" s="9" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D946" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E946" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B947" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C947" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D947" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E947" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B948" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C948" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D948" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E948" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B949" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C949" s="9" t="n">
+        <v>880</v>
+      </c>
+      <c r="D949" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="E949" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B950" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C950" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D950" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E950" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B951" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C951" s="9" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D951" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="E951" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B952" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C952" s="9" t="n">
+        <v>3990</v>
+      </c>
+      <c r="D952" s="9" t="n">
+        <v>279</v>
+      </c>
+      <c r="E952" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B953" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C953" s="9" t="n">
+        <v>340</v>
+      </c>
+      <c r="D953" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="E953" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B954" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C954" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D954" s="9" t="n">
+        <v>103</v>
+      </c>
+      <c r="E954" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B955" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C955" s="9" t="n">
+        <v>2778</v>
+      </c>
+      <c r="D955" s="9" t="n">
+        <v>324</v>
+      </c>
+      <c r="E955" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B956" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C956" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D956" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E956" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B957" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C957" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D957" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E957" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B958" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C958" s="9" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D958" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E958" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B959" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C959" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D959" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E959" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B960" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C960" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D960" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E960" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1343"/>
+  <dimension ref="A1:F1358"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1330" activeCellId="0" sqref="B1330"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1331" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1349" activeCellId="0" sqref="F1349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14031,6 +14031,166 @@
       </c>
       <c r="D1343" s="9"/>
       <c r="E1343" s="9"/>
+    </row>
+    <row r="1344" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="10" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B1344" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1344" s="9" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D1344" s="8" t="n">
+        <v>132001</v>
+      </c>
+      <c r="E1344" s="8" t="n">
+        <v>15682</v>
+      </c>
+      <c r="F1344" s="8" t="n">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1345" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1345" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D1345" s="9"/>
+      <c r="E1345" s="9"/>
+    </row>
+    <row r="1346" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1346" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1346" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1346" s="9"/>
+      <c r="E1346" s="9"/>
+    </row>
+    <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1347" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1347" s="9" t="n">
+        <v>882</v>
+      </c>
+      <c r="D1347" s="9"/>
+      <c r="E1347" s="9"/>
+    </row>
+    <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1348" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1348" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D1348" s="9"/>
+      <c r="E1348" s="9"/>
+    </row>
+    <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1349" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1349" s="9" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D1349" s="9"/>
+      <c r="E1349" s="9"/>
+    </row>
+    <row r="1350" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1350" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1350" s="9" t="n">
+        <v>3995</v>
+      </c>
+      <c r="D1350" s="9"/>
+      <c r="E1350" s="9"/>
+    </row>
+    <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1351" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1351" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1351" s="9"/>
+      <c r="E1351" s="9"/>
+    </row>
+    <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1352" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1352" s="9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1352" s="9"/>
+      <c r="E1352" s="9"/>
+    </row>
+    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1353" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1353" s="9" t="n">
+        <v>2783</v>
+      </c>
+      <c r="D1353" s="9"/>
+      <c r="E1353" s="9"/>
+    </row>
+    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1354" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1354" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1354" s="9"/>
+      <c r="E1354" s="9"/>
+    </row>
+    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1355" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1355" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1355" s="9"/>
+      <c r="E1355" s="9"/>
+    </row>
+    <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1356" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1356" s="9" t="n">
+        <v>1685</v>
+      </c>
+      <c r="D1356" s="9"/>
+      <c r="E1356" s="9"/>
+    </row>
+    <row r="1357" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1357" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1357" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1357" s="9"/>
+      <c r="E1357" s="9"/>
+    </row>
+    <row r="1358" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1358" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1358" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1358" s="9"/>
+      <c r="E1358" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14048,10 +14208,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P960"/>
+  <dimension ref="A1:P975"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A931" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C961" activeCellId="0" sqref="C961"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A948" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C976" activeCellId="0" sqref="C976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27723,6 +27883,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="961" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="10" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B961" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C961" s="9" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D961" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="E961" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B962" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C962" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D962" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E962" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B963" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C963" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D963" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E963" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B964" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C964" s="9" t="n">
+        <v>882</v>
+      </c>
+      <c r="D964" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="E964" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B965" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C965" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D965" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E965" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B966" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C966" s="9" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D966" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="E966" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B967" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C967" s="9" t="n">
+        <v>3995</v>
+      </c>
+      <c r="D967" s="9" t="n">
+        <v>272</v>
+      </c>
+      <c r="E967" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B968" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C968" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D968" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="E968" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B969" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C969" s="9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D969" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="E969" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B970" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C970" s="9" t="n">
+        <v>2783</v>
+      </c>
+      <c r="D970" s="9" t="n">
+        <v>246</v>
+      </c>
+      <c r="E970" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B971" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C971" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D971" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E971" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B972" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C972" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D972" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E972" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B973" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C973" s="9" t="n">
+        <v>1685</v>
+      </c>
+      <c r="D973" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E973" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B974" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C974" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D974" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E974" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B975" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C975" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D975" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E975" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1358"/>
+  <dimension ref="A1:F1373"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1331" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1349" activeCellId="0" sqref="F1349"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1365" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1368" activeCellId="0" sqref="E1368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13073,7 +13073,7 @@
       <c r="E1253" s="9"/>
     </row>
     <row r="1254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1254" s="10" t="n">
+      <c r="A1254" s="4" t="n">
         <v>43987</v>
       </c>
       <c r="B1254" s="8" t="s">
@@ -13233,7 +13233,7 @@
       <c r="E1268" s="9"/>
     </row>
     <row r="1269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1269" s="10" t="n">
+      <c r="A1269" s="4" t="n">
         <v>43988</v>
       </c>
       <c r="B1269" s="8" t="s">
@@ -13393,7 +13393,7 @@
       <c r="E1283" s="9"/>
     </row>
     <row r="1284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1284" s="10" t="n">
+      <c r="A1284" s="4" t="n">
         <v>43989</v>
       </c>
       <c r="B1284" s="8" t="s">
@@ -13553,7 +13553,7 @@
       <c r="E1298" s="9"/>
     </row>
     <row r="1299" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1299" s="10" t="n">
+      <c r="A1299" s="4" t="n">
         <v>43990</v>
       </c>
       <c r="B1299" s="8" t="s">
@@ -13713,7 +13713,7 @@
       <c r="E1313" s="9"/>
     </row>
     <row r="1314" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1314" s="10" t="n">
+      <c r="A1314" s="4" t="n">
         <v>43991</v>
       </c>
       <c r="B1314" s="8" t="s">
@@ -13873,7 +13873,7 @@
       <c r="E1328" s="9"/>
     </row>
     <row r="1329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1329" s="10" t="n">
+      <c r="A1329" s="4" t="n">
         <v>43992</v>
       </c>
       <c r="B1329" s="8" t="s">
@@ -14033,7 +14033,7 @@
       <c r="E1343" s="9"/>
     </row>
     <row r="1344" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1344" s="10" t="n">
+      <c r="A1344" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="B1344" s="8" t="s">
@@ -14191,6 +14191,166 @@
       </c>
       <c r="D1358" s="9"/>
       <c r="E1358" s="9"/>
+    </row>
+    <row r="1359" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="10" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B1359" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1359" s="9" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D1359" s="8" t="n">
+        <v>133894</v>
+      </c>
+      <c r="E1359" s="8" t="n">
+        <v>15709</v>
+      </c>
+      <c r="F1359" s="8" t="n">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1360" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1360" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D1360" s="9"/>
+      <c r="E1360" s="9"/>
+    </row>
+    <row r="1361" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1361" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1361" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1361" s="9"/>
+      <c r="E1361" s="9"/>
+    </row>
+    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1362" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1362" s="9" t="n">
+        <v>883</v>
+      </c>
+      <c r="D1362" s="9"/>
+      <c r="E1362" s="9"/>
+    </row>
+    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1363" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1363" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D1363" s="9"/>
+      <c r="E1363" s="9"/>
+    </row>
+    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1364" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1364" s="9" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D1364" s="9"/>
+      <c r="E1364" s="9"/>
+    </row>
+    <row r="1365" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1365" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1365" s="9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D1365" s="9"/>
+      <c r="E1365" s="9"/>
+    </row>
+    <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1366" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1366" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1366" s="9"/>
+      <c r="E1366" s="9"/>
+    </row>
+    <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1367" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1367" s="9" t="n">
+        <v>2028</v>
+      </c>
+      <c r="D1367" s="9"/>
+      <c r="E1367" s="9"/>
+    </row>
+    <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1368" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1368" s="9" t="n">
+        <v>2794</v>
+      </c>
+      <c r="D1368" s="9"/>
+      <c r="E1368" s="9"/>
+    </row>
+    <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1369" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1369" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1369" s="9"/>
+      <c r="E1369" s="9"/>
+    </row>
+    <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1370" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1370" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1370" s="9"/>
+      <c r="E1370" s="9"/>
+    </row>
+    <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1371" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1371" s="9" t="n">
+        <v>1685</v>
+      </c>
+      <c r="D1371" s="9"/>
+      <c r="E1371" s="9"/>
+    </row>
+    <row r="1372" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1372" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1372" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1372" s="9"/>
+      <c r="E1372" s="9"/>
+    </row>
+    <row r="1373" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1373" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1373" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1373" s="9"/>
+      <c r="E1373" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14208,10 +14368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P975"/>
+  <dimension ref="A1:P990"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A948" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C976" activeCellId="0" sqref="C976"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A962" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D990" activeCellId="0" sqref="D990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26603,7 +26763,7 @@
       </c>
     </row>
     <row r="871" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="10" t="n">
+      <c r="A871" s="4" t="n">
         <v>43987</v>
       </c>
       <c r="B871" s="8" t="s">
@@ -26816,7 +26976,7 @@
       </c>
     </row>
     <row r="886" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="10" t="n">
+      <c r="A886" s="4" t="n">
         <v>43988</v>
       </c>
       <c r="B886" s="8" t="s">
@@ -27029,7 +27189,7 @@
       </c>
     </row>
     <row r="901" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="10" t="n">
+      <c r="A901" s="4" t="n">
         <v>43989</v>
       </c>
       <c r="B901" s="8" t="s">
@@ -27242,7 +27402,7 @@
       </c>
     </row>
     <row r="916" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="10" t="n">
+      <c r="A916" s="4" t="n">
         <v>43990</v>
       </c>
       <c r="B916" s="8" t="s">
@@ -27458,7 +27618,7 @@
       </c>
     </row>
     <row r="931" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="10" t="n">
+      <c r="A931" s="4" t="n">
         <v>43991</v>
       </c>
       <c r="B931" s="8" t="s">
@@ -27671,7 +27831,7 @@
       </c>
     </row>
     <row r="946" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="10" t="n">
+      <c r="A946" s="4" t="n">
         <v>43992</v>
       </c>
       <c r="B946" s="8" t="s">
@@ -27884,7 +28044,7 @@
       </c>
     </row>
     <row r="961" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="10" t="n">
+      <c r="A961" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="B961" s="8" t="s">
@@ -28093,6 +28253,219 @@
         <v>28</v>
       </c>
       <c r="E975" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="10" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B976" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C976" s="9" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D976" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E976" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B977" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C977" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D977" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E977" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B978" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C978" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D978" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E978" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B979" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C979" s="9" t="n">
+        <v>883</v>
+      </c>
+      <c r="D979" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="E979" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B980" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C980" s="9" t="n">
+        <v>948</v>
+      </c>
+      <c r="D980" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E980" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B981" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C981" s="9" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D981" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E981" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B982" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C982" s="9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D982" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="E982" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B983" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C983" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D983" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E983" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B984" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C984" s="9" t="n">
+        <v>2028</v>
+      </c>
+      <c r="D984" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="E984" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B985" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C985" s="9" t="n">
+        <v>2794</v>
+      </c>
+      <c r="D985" s="9" t="n">
+        <v>266</v>
+      </c>
+      <c r="E985" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B986" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C986" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D986" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E986" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B987" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C987" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D987" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E987" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B988" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C988" s="9" t="n">
+        <v>1685</v>
+      </c>
+      <c r="D988" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E988" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B989" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C989" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D989" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E989" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B990" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C990" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D990" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E990" s="9" t="s">
         <v>28</v>
       </c>
     </row>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1373"/>
+  <dimension ref="A1:F1388"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1365" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1368" activeCellId="0" sqref="E1368"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1383" activeCellId="0" sqref="F1383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14351,6 +14351,166 @@
       </c>
       <c r="D1373" s="9"/>
       <c r="E1373" s="9"/>
+    </row>
+    <row r="1374" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="10" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B1374" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1374" s="9" t="n">
+        <v>1087</v>
+      </c>
+      <c r="D1374" s="8" t="n">
+        <v>136146</v>
+      </c>
+      <c r="E1374" s="8" t="n">
+        <v>15730</v>
+      </c>
+      <c r="F1374" s="8" t="n">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1375" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1375" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D1375" s="9"/>
+      <c r="E1375" s="9"/>
+    </row>
+    <row r="1376" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1376" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1376" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1376" s="9"/>
+      <c r="E1376" s="9"/>
+    </row>
+    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1377" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1377" s="9" t="n">
+        <v>884</v>
+      </c>
+      <c r="D1377" s="9"/>
+      <c r="E1377" s="9"/>
+    </row>
+    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1378" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1378" s="9" t="n">
+        <v>950</v>
+      </c>
+      <c r="D1378" s="9"/>
+      <c r="E1378" s="9"/>
+    </row>
+    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1379" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1379" s="9" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D1379" s="9"/>
+      <c r="E1379" s="9"/>
+    </row>
+    <row r="1380" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1380" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1380" s="9" t="n">
+        <v>4004</v>
+      </c>
+      <c r="D1380" s="9"/>
+      <c r="E1380" s="9"/>
+    </row>
+    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1381" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1381" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1381" s="9"/>
+      <c r="E1381" s="9"/>
+    </row>
+    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1382" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1382" s="9" t="n">
+        <v>2031</v>
+      </c>
+      <c r="D1382" s="9"/>
+      <c r="E1382" s="9"/>
+    </row>
+    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1383" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1383" s="9" t="n">
+        <v>2803</v>
+      </c>
+      <c r="D1383" s="9"/>
+      <c r="E1383" s="9"/>
+    </row>
+    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1384" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1384" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1384" s="9"/>
+      <c r="E1384" s="9"/>
+    </row>
+    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1385" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1385" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1385" s="9"/>
+      <c r="E1385" s="9"/>
+    </row>
+    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1386" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1386" s="9" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D1386" s="9"/>
+      <c r="E1386" s="9"/>
+    </row>
+    <row r="1387" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1387" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1387" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1387" s="9"/>
+      <c r="E1387" s="9"/>
+    </row>
+    <row r="1388" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1388" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1388" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1388" s="9"/>
+      <c r="E1388" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14368,10 +14528,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P990"/>
+  <dimension ref="A1:P1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A962" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D990" activeCellId="0" sqref="D990"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A980" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1006" activeCellId="0" sqref="C1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28469,6 +28629,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="991" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="10" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B991" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C991" s="9" t="n">
+        <v>1087</v>
+      </c>
+      <c r="D991" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E991" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B992" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C992" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D992" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E992" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B993" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C993" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D993" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E993" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B994" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C994" s="9" t="n">
+        <v>884</v>
+      </c>
+      <c r="D994" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="E994" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B995" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C995" s="9" t="n">
+        <v>950</v>
+      </c>
+      <c r="D995" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E995" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B996" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C996" s="9" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D996" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E996" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B997" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C997" s="9" t="n">
+        <v>4004</v>
+      </c>
+      <c r="D997" s="9" t="n">
+        <v>255</v>
+      </c>
+      <c r="E997" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B998" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C998" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D998" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E998" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B999" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C999" s="9" t="n">
+        <v>2031</v>
+      </c>
+      <c r="D999" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="E999" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1000" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1000" s="9" t="n">
+        <v>2803</v>
+      </c>
+      <c r="D1000" s="9" t="n">
+        <v>317</v>
+      </c>
+      <c r="E1000" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1001" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1001" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1001" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1001" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1002" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1002" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1002" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1002" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1003" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1003" s="9" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D1003" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1003" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1004" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1004" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1004" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1004" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1005" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1005" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1005" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1005" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/corona_scotland.xlsx
+++ b/corona_scotland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1388"/>
+  <dimension ref="A1:F1403"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1383" activeCellId="0" sqref="F1383"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1377" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1389" activeCellId="0" sqref="F1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14511,6 +14511,166 @@
       </c>
       <c r="D1388" s="9"/>
       <c r="E1388" s="9"/>
+    </row>
+    <row r="1389" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="10" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B1389" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1389" s="9" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D1389" s="8" t="n">
+        <v>137638</v>
+      </c>
+      <c r="E1389" s="8" t="n">
+        <v>15755</v>
+      </c>
+      <c r="F1389" s="8" t="n">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1390" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1390" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D1390" s="9"/>
+      <c r="E1390" s="9"/>
+    </row>
+    <row r="1391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1391" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1391" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1391" s="9"/>
+      <c r="E1391" s="9"/>
+    </row>
+    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1392" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1392" s="9" t="n">
+        <v>885</v>
+      </c>
+      <c r="D1392" s="9"/>
+      <c r="E1392" s="9"/>
+    </row>
+    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1393" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1393" s="9" t="n">
+        <v>952</v>
+      </c>
+      <c r="D1393" s="9"/>
+      <c r="E1393" s="9"/>
+    </row>
+    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1394" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1394" s="9" t="n">
+        <v>1294</v>
+      </c>
+      <c r="D1394" s="9"/>
+      <c r="E1394" s="9"/>
+    </row>
+    <row r="1395" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1395" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1395" s="9" t="n">
+        <v>4010</v>
+      </c>
+      <c r="D1395" s="9"/>
+      <c r="E1395" s="9"/>
+    </row>
+    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1396" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1396" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1396" s="9"/>
+      <c r="E1396" s="9"/>
+    </row>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1397" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1397" s="9" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D1397" s="9"/>
+      <c r="E1397" s="9"/>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1398" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1398" s="9" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D1398" s="9"/>
+      <c r="E1398" s="9"/>
+    </row>
+    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1399" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1399" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1399" s="9"/>
+      <c r="E1399" s="9"/>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1400" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1400" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1400" s="9"/>
+      <c r="E1400" s="9"/>
+    </row>
+    <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1401" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1401" s="9" t="n">
+        <v>1687</v>
+      </c>
+      <c r="D1401" s="9"/>
+      <c r="E1401" s="9"/>
+    </row>
+    <row r="1402" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1402" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1402" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1402" s="9"/>
+      <c r="E1402" s="9"/>
+    </row>
+    <row r="1403" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1403" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1403" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1403" s="9"/>
+      <c r="E1403" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14528,10 +14688,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1005"/>
+  <dimension ref="A1:P1020"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A980" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1006" activeCellId="0" sqref="C1006"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A997" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1021" activeCellId="0" sqref="D1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28842,6 +29002,219 @@
         <v>28</v>
       </c>
     </row>
+    <row r="1006" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="10" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B1006" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1006" s="9" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D1006" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1006" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1007" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1007" s="9" t="n">
+        <v>327</v>
+      </c>
+      <c r="D1007" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1007" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1008" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1008" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1008" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1008" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1009" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1009" s="9" t="n">
+        <v>885</v>
+      </c>
+      <c r="D1009" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="E1009" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1010" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1010" s="9" t="n">
+        <v>952</v>
+      </c>
+      <c r="D1010" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1010" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1011" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1011" s="9" t="n">
+        <v>1294</v>
+      </c>
+      <c r="D1011" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1011" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1012" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1012" s="9" t="n">
+        <v>4010</v>
+      </c>
+      <c r="D1012" s="9" t="n">
+        <v>255</v>
+      </c>
+      <c r="E1012" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1013" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1013" s="9" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1013" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1013" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1014" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1014" s="9" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D1014" s="9" t="n">
+        <v>113</v>
+      </c>
+      <c r="E1014" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1015" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1015" s="9" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D1015" s="9" t="n">
+        <v>306</v>
+      </c>
+      <c r="E1015" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1016" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1016" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1016" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1016" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1017" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1017" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1017" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1017" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1018" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1018" s="9" t="n">
+        <v>1687</v>
+      </c>
+      <c r="D1018" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1018" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1019" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1019" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1019" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1019" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1020" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1020" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1020" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1020" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
